--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -676,7 +676,7 @@
         <x:v>3755</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>3977</x:v>
+        <x:v>3978</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
         <x:v>1654</x:v>
@@ -800,7 +800,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D12" s="1" t="n">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="E12" s="1" t="n">
         <x:v>61</x:v>
@@ -829,7 +829,7 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
-        <x:v>133</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="F13" s="1" t="n">
         <x:v>172</x:v>
@@ -907,7 +907,7 @@
         <x:v>637</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
-        <x:v>1046</x:v>
+        <x:v>1047</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
         <x:v>1082</x:v>
@@ -1063,7 +1063,7 @@
         <x:v>201</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
-        <x:v>322</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="F22" s="1" t="n">
         <x:v>288</x:v>
@@ -1092,7 +1092,7 @@
         <x:v>511</x:v>
       </x:c>
       <x:c r="F23" s="1" t="n">
-        <x:v>522</x:v>
+        <x:v>523</x:v>
       </x:c>
       <x:c r="G23" s="1" t="n">
         <x:v>189</x:v>
@@ -1294,7 +1294,7 @@
         <x:v>697</x:v>
       </x:c>
       <x:c r="D31" s="1" t="n">
-        <x:v>1529</x:v>
+        <x:v>1530</x:v>
       </x:c>
       <x:c r="E31" s="1" t="n">
         <x:v>2133</x:v>
@@ -1326,10 +1326,10 @@
         <x:v>2737</x:v>
       </x:c>
       <x:c r="F32" s="1" t="n">
-        <x:v>2691</x:v>
+        <x:v>2692</x:v>
       </x:c>
       <x:c r="G32" s="1" t="n">
-        <x:v>1090</x:v>
+        <x:v>1089</x:v>
       </x:c>
       <x:c r="H32" s="1" t="n">
         <x:v>0</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -679,7 +679,7 @@
         <x:v>3978</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
-        <x:v>1654</x:v>
+        <x:v>1655</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
         <x:v>0</x:v>
@@ -754,7 +754,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
-        <x:v>126</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
         <x:v>28</x:v>
@@ -774,7 +774,7 @@
         <x:v>177</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>197</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="E11" s="1" t="n">
         <x:v>372</x:v>
@@ -829,7 +829,7 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="F13" s="1" t="n">
         <x:v>172</x:v>
@@ -933,13 +933,13 @@
         <x:v>1645</x:v>
       </x:c>
       <x:c r="E17" s="1" t="n">
-        <x:v>2730</x:v>
+        <x:v>2731</x:v>
       </x:c>
       <x:c r="F17" s="1" t="n">
-        <x:v>2689</x:v>
+        <x:v>2691</x:v>
       </x:c>
       <x:c r="G17" s="1" t="n">
-        <x:v>952</x:v>
+        <x:v>955</x:v>
       </x:c>
       <x:c r="H17" s="1" t="n">
         <x:v>0</x:v>
@@ -1089,7 +1089,7 @@
         <x:v>337</x:v>
       </x:c>
       <x:c r="E23" s="1" t="n">
-        <x:v>511</x:v>
+        <x:v>512</x:v>
       </x:c>
       <x:c r="F23" s="1" t="n">
         <x:v>523</x:v>
@@ -1300,7 +1300,7 @@
         <x:v>2133</x:v>
       </x:c>
       <x:c r="F31" s="1" t="n">
-        <x:v>2269</x:v>
+        <x:v>2272</x:v>
       </x:c>
       <x:c r="G31" s="1" t="n">
         <x:v>936</x:v>
@@ -1320,13 +1320,13 @@
         <x:v>925</x:v>
       </x:c>
       <x:c r="D32" s="1" t="n">
-        <x:v>1768</x:v>
+        <x:v>1767</x:v>
       </x:c>
       <x:c r="E32" s="1" t="n">
-        <x:v>2737</x:v>
+        <x:v>2738</x:v>
       </x:c>
       <x:c r="F32" s="1" t="n">
-        <x:v>2692</x:v>
+        <x:v>2693</x:v>
       </x:c>
       <x:c r="G32" s="1" t="n">
         <x:v>1089</x:v>
@@ -1427,7 +1427,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="E36" s="1" t="n">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F36" s="1" t="n">
         <x:v>38</x:v>
@@ -1525,7 +1525,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C40" s="1" t="n">
-        <x:v>179</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="D40" s="1" t="n">
         <x:v>183</x:v>
@@ -1583,7 +1583,7 @@
         <x:v>180</x:v>
       </x:c>
       <x:c r="E42" s="1" t="n">
-        <x:v>197</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="F42" s="1" t="n">
         <x:v>270</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -936,7 +936,7 @@
         <x:v>2731</x:v>
       </x:c>
       <x:c r="F17" s="1" t="n">
-        <x:v>2691</x:v>
+        <x:v>2692</x:v>
       </x:c>
       <x:c r="G17" s="1" t="n">
         <x:v>955</x:v>
@@ -1063,7 +1063,7 @@
         <x:v>201</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
-        <x:v>323</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="F22" s="1" t="n">
         <x:v>288</x:v>
@@ -1320,10 +1320,10 @@
         <x:v>925</x:v>
       </x:c>
       <x:c r="D32" s="1" t="n">
-        <x:v>1767</x:v>
+        <x:v>1768</x:v>
       </x:c>
       <x:c r="E32" s="1" t="n">
-        <x:v>2738</x:v>
+        <x:v>2739</x:v>
       </x:c>
       <x:c r="F32" s="1" t="n">
         <x:v>2693</x:v>
@@ -1352,7 +1352,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="F33" s="1" t="n">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="G33" s="1" t="n">
         <x:v>5</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -650,7 +650,7 @@
         <x:v>1128</x:v>
       </x:c>
       <x:c r="F6" s="1" t="n">
-        <x:v>1119</x:v>
+        <x:v>1120</x:v>
       </x:c>
       <x:c r="G6" s="1" t="n">
         <x:v>412</x:v>
@@ -907,7 +907,7 @@
         <x:v>637</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
-        <x:v>1047</x:v>
+        <x:v>1048</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
         <x:v>1082</x:v>
@@ -1326,7 +1326,7 @@
         <x:v>2739</x:v>
       </x:c>
       <x:c r="F32" s="1" t="n">
-        <x:v>2693</x:v>
+        <x:v>2694</x:v>
       </x:c>
       <x:c r="G32" s="1" t="n">
         <x:v>1089</x:v>
@@ -1352,7 +1352,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="F33" s="1" t="n">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="G33" s="1" t="n">
         <x:v>5</x:v>
@@ -1499,7 +1499,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C39" s="1" t="n">
-        <x:v>39</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="D39" s="1" t="n">
         <x:v>34</x:v>
@@ -1525,7 +1525,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C40" s="1" t="n">
-        <x:v>180</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="D40" s="1" t="n">
         <x:v>183</x:v>
@@ -1586,7 +1586,7 @@
         <x:v>198</x:v>
       </x:c>
       <x:c r="F42" s="1" t="n">
-        <x:v>270</x:v>
+        <x:v>271</x:v>
       </x:c>
       <x:c r="G42" s="1" t="n">
         <x:v>137</x:v>
@@ -1687,10 +1687,10 @@
         <x:v>697</x:v>
       </x:c>
       <x:c r="E46" s="1" t="n">
-        <x:v>659</x:v>
+        <x:v>660</x:v>
       </x:c>
       <x:c r="F46" s="1" t="n">
-        <x:v>529</x:v>
+        <x:v>530</x:v>
       </x:c>
       <x:c r="G46" s="1" t="n">
         <x:v>248</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -641,19 +641,19 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>894</x:v>
+        <x:v>895</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>804</x:v>
+        <x:v>805</x:v>
       </x:c>
       <x:c r="E6" s="1" t="n">
-        <x:v>1128</x:v>
+        <x:v>1129</x:v>
       </x:c>
       <x:c r="F6" s="1" t="n">
-        <x:v>1120</x:v>
+        <x:v>1121</x:v>
       </x:c>
       <x:c r="G6" s="1" t="n">
-        <x:v>412</x:v>
+        <x:v>413</x:v>
       </x:c>
       <x:c r="H6" s="1" t="n">
         <x:v>0</x:v>
@@ -667,19 +667,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>1314</x:v>
+        <x:v>1315</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>2010</x:v>
+        <x:v>2011</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>3755</x:v>
+        <x:v>3756</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>3978</x:v>
+        <x:v>3979</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
-        <x:v>1655</x:v>
+        <x:v>1656</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
         <x:v>0</x:v>
@@ -754,7 +754,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
-        <x:v>127</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
         <x:v>28</x:v>
@@ -777,13 +777,13 @@
         <x:v>200</x:v>
       </x:c>
       <x:c r="E11" s="1" t="n">
-        <x:v>372</x:v>
+        <x:v>373</x:v>
       </x:c>
       <x:c r="F11" s="1" t="n">
         <x:v>424</x:v>
       </x:c>
       <x:c r="G11" s="1" t="n">
-        <x:v>99</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="H11" s="1" t="n">
         <x:v>0</x:v>
@@ -806,7 +806,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="F12" s="1" t="n">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="G12" s="1" t="n">
         <x:v>14</x:v>
@@ -835,7 +835,7 @@
         <x:v>172</x:v>
       </x:c>
       <x:c r="G13" s="1" t="n">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="H13" s="1" t="n">
         <x:v>0</x:v>
@@ -858,7 +858,7 @@
         <x:v>132</x:v>
       </x:c>
       <x:c r="F14" s="1" t="n">
-        <x:v>106</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="G14" s="1" t="n">
         <x:v>30</x:v>
@@ -878,7 +878,7 @@
         <x:v>356</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
-        <x:v>265</x:v>
+        <x:v>266</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
         <x:v>428</x:v>
@@ -904,7 +904,7 @@
         <x:v>211</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
-        <x:v>637</x:v>
+        <x:v>636</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
         <x:v>1048</x:v>
@@ -933,10 +933,10 @@
         <x:v>1645</x:v>
       </x:c>
       <x:c r="E17" s="1" t="n">
-        <x:v>2731</x:v>
+        <x:v>2732</x:v>
       </x:c>
       <x:c r="F17" s="1" t="n">
-        <x:v>2692</x:v>
+        <x:v>2693</x:v>
       </x:c>
       <x:c r="G17" s="1" t="n">
         <x:v>955</x:v>
@@ -1060,7 +1060,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>201</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>324</x:v>
@@ -1069,7 +1069,7 @@
         <x:v>288</x:v>
       </x:c>
       <x:c r="G22" s="1" t="n">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H22" s="1" t="n">
         <x:v>0</x:v>
@@ -1092,7 +1092,7 @@
         <x:v>512</x:v>
       </x:c>
       <x:c r="F23" s="1" t="n">
-        <x:v>523</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="G23" s="1" t="n">
         <x:v>189</x:v>
@@ -1294,13 +1294,13 @@
         <x:v>697</x:v>
       </x:c>
       <x:c r="D31" s="1" t="n">
-        <x:v>1530</x:v>
+        <x:v>1531</x:v>
       </x:c>
       <x:c r="E31" s="1" t="n">
-        <x:v>2133</x:v>
+        <x:v>2139</x:v>
       </x:c>
       <x:c r="F31" s="1" t="n">
-        <x:v>2272</x:v>
+        <x:v>2275</x:v>
       </x:c>
       <x:c r="G31" s="1" t="n">
         <x:v>936</x:v>
@@ -1323,13 +1323,13 @@
         <x:v>1768</x:v>
       </x:c>
       <x:c r="E32" s="1" t="n">
-        <x:v>2739</x:v>
+        <x:v>2740</x:v>
       </x:c>
       <x:c r="F32" s="1" t="n">
-        <x:v>2694</x:v>
+        <x:v>2695</x:v>
       </x:c>
       <x:c r="G32" s="1" t="n">
-        <x:v>1089</x:v>
+        <x:v>1090</x:v>
       </x:c>
       <x:c r="H32" s="1" t="n">
         <x:v>0</x:v>
@@ -1343,7 +1343,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C33" s="1" t="n">
-        <x:v>50</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="D33" s="1" t="n">
         <x:v>37</x:v>
@@ -1531,7 +1531,7 @@
         <x:v>183</x:v>
       </x:c>
       <x:c r="E40" s="1" t="n">
-        <x:v>156</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="F40" s="1" t="n">
         <x:v>94</x:v>
@@ -1577,7 +1577,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C42" s="1" t="n">
-        <x:v>138</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="D42" s="1" t="n">
         <x:v>180</x:v>
@@ -1681,10 +1681,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C46" s="1" t="n">
-        <x:v>312</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="D46" s="1" t="n">
-        <x:v>697</x:v>
+        <x:v>699</x:v>
       </x:c>
       <x:c r="E46" s="1" t="n">
         <x:v>660</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -644,13 +644,13 @@
         <x:v>895</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>805</x:v>
+        <x:v>806</x:v>
       </x:c>
       <x:c r="E6" s="1" t="n">
         <x:v>1129</x:v>
       </x:c>
       <x:c r="F6" s="1" t="n">
-        <x:v>1121</x:v>
+        <x:v>1122</x:v>
       </x:c>
       <x:c r="G6" s="1" t="n">
         <x:v>413</x:v>
@@ -673,13 +673,13 @@
         <x:v>2011</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>3756</x:v>
+        <x:v>3758</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>3979</x:v>
+        <x:v>3981</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
-        <x:v>1656</x:v>
+        <x:v>1657</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
         <x:v>0</x:v>
@@ -754,7 +754,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
-        <x:v>128</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
         <x:v>28</x:v>
@@ -777,7 +777,7 @@
         <x:v>200</x:v>
       </x:c>
       <x:c r="E11" s="1" t="n">
-        <x:v>373</x:v>
+        <x:v>374</x:v>
       </x:c>
       <x:c r="F11" s="1" t="n">
         <x:v>424</x:v>
@@ -826,10 +826,10 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
-        <x:v>135</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="F13" s="1" t="n">
         <x:v>172</x:v>
@@ -907,10 +907,10 @@
         <x:v>636</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
-        <x:v>1048</x:v>
+        <x:v>1049</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
-        <x:v>1082</x:v>
+        <x:v>1083</x:v>
       </x:c>
       <x:c r="G16" s="1" t="n">
         <x:v>276</x:v>
@@ -930,13 +930,13 @@
         <x:v>373</x:v>
       </x:c>
       <x:c r="D17" s="1" t="n">
-        <x:v>1645</x:v>
+        <x:v>1646</x:v>
       </x:c>
       <x:c r="E17" s="1" t="n">
         <x:v>2732</x:v>
       </x:c>
       <x:c r="F17" s="1" t="n">
-        <x:v>2693</x:v>
+        <x:v>2694</x:v>
       </x:c>
       <x:c r="G17" s="1" t="n">
         <x:v>955</x:v>
@@ -1066,7 +1066,7 @@
         <x:v>324</x:v>
       </x:c>
       <x:c r="F22" s="1" t="n">
-        <x:v>288</x:v>
+        <x:v>289</x:v>
       </x:c>
       <x:c r="G22" s="1" t="n">
         <x:v>88</x:v>
@@ -1092,7 +1092,7 @@
         <x:v>512</x:v>
       </x:c>
       <x:c r="F23" s="1" t="n">
-        <x:v>524</x:v>
+        <x:v>525</x:v>
       </x:c>
       <x:c r="G23" s="1" t="n">
         <x:v>189</x:v>
@@ -1294,13 +1294,13 @@
         <x:v>697</x:v>
       </x:c>
       <x:c r="D31" s="1" t="n">
-        <x:v>1531</x:v>
+        <x:v>1533</x:v>
       </x:c>
       <x:c r="E31" s="1" t="n">
-        <x:v>2139</x:v>
+        <x:v>2141</x:v>
       </x:c>
       <x:c r="F31" s="1" t="n">
-        <x:v>2275</x:v>
+        <x:v>2276</x:v>
       </x:c>
       <x:c r="G31" s="1" t="n">
         <x:v>936</x:v>
@@ -1323,10 +1323,10 @@
         <x:v>1768</x:v>
       </x:c>
       <x:c r="E32" s="1" t="n">
-        <x:v>2740</x:v>
+        <x:v>2744</x:v>
       </x:c>
       <x:c r="F32" s="1" t="n">
-        <x:v>2695</x:v>
+        <x:v>2697</x:v>
       </x:c>
       <x:c r="G32" s="1" t="n">
         <x:v>1090</x:v>
@@ -1502,7 +1502,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="D39" s="1" t="n">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E39" s="1" t="n">
         <x:v>39</x:v>
@@ -1577,7 +1577,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C42" s="1" t="n">
-        <x:v>139</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="D42" s="1" t="n">
         <x:v>180</x:v>
@@ -1586,7 +1586,7 @@
         <x:v>198</x:v>
       </x:c>
       <x:c r="F42" s="1" t="n">
-        <x:v>271</x:v>
+        <x:v>273</x:v>
       </x:c>
       <x:c r="G42" s="1" t="n">
         <x:v>137</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -650,10 +650,10 @@
         <x:v>1129</x:v>
       </x:c>
       <x:c r="F6" s="1" t="n">
-        <x:v>1122</x:v>
+        <x:v>1121</x:v>
       </x:c>
       <x:c r="G6" s="1" t="n">
-        <x:v>413</x:v>
+        <x:v>414</x:v>
       </x:c>
       <x:c r="H6" s="1" t="n">
         <x:v>0</x:v>
@@ -670,7 +670,7 @@
         <x:v>1315</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>2011</x:v>
+        <x:v>2010</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
         <x:v>3758</x:v>
@@ -858,7 +858,7 @@
         <x:v>132</x:v>
       </x:c>
       <x:c r="F14" s="1" t="n">
-        <x:v>107</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="G14" s="1" t="n">
         <x:v>30</x:v>
@@ -933,13 +933,13 @@
         <x:v>1646</x:v>
       </x:c>
       <x:c r="E17" s="1" t="n">
-        <x:v>2732</x:v>
+        <x:v>2733</x:v>
       </x:c>
       <x:c r="F17" s="1" t="n">
         <x:v>2694</x:v>
       </x:c>
       <x:c r="G17" s="1" t="n">
-        <x:v>955</x:v>
+        <x:v>954</x:v>
       </x:c>
       <x:c r="H17" s="1" t="n">
         <x:v>0</x:v>
@@ -1300,7 +1300,7 @@
         <x:v>2141</x:v>
       </x:c>
       <x:c r="F31" s="1" t="n">
-        <x:v>2276</x:v>
+        <x:v>2273</x:v>
       </x:c>
       <x:c r="G31" s="1" t="n">
         <x:v>936</x:v>
@@ -1326,7 +1326,7 @@
         <x:v>2744</x:v>
       </x:c>
       <x:c r="F32" s="1" t="n">
-        <x:v>2697</x:v>
+        <x:v>2698</x:v>
       </x:c>
       <x:c r="G32" s="1" t="n">
         <x:v>1090</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -670,13 +670,13 @@
         <x:v>1315</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>2010</x:v>
+        <x:v>2009</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
         <x:v>3758</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>3981</x:v>
+        <x:v>3983</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
         <x:v>1657</x:v>
@@ -751,7 +751,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
-        <x:v>106</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
         <x:v>129</x:v>
@@ -930,7 +930,7 @@
         <x:v>373</x:v>
       </x:c>
       <x:c r="D17" s="1" t="n">
-        <x:v>1646</x:v>
+        <x:v>1647</x:v>
       </x:c>
       <x:c r="E17" s="1" t="n">
         <x:v>2733</x:v>
@@ -1066,7 +1066,7 @@
         <x:v>324</x:v>
       </x:c>
       <x:c r="F22" s="1" t="n">
-        <x:v>289</x:v>
+        <x:v>290</x:v>
       </x:c>
       <x:c r="G22" s="1" t="n">
         <x:v>88</x:v>
@@ -1291,19 +1291,19 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C31" s="1" t="n">
-        <x:v>697</x:v>
+        <x:v>698</x:v>
       </x:c>
       <x:c r="D31" s="1" t="n">
-        <x:v>1533</x:v>
+        <x:v>1535</x:v>
       </x:c>
       <x:c r="E31" s="1" t="n">
-        <x:v>2141</x:v>
+        <x:v>2143</x:v>
       </x:c>
       <x:c r="F31" s="1" t="n">
-        <x:v>2273</x:v>
+        <x:v>2274</x:v>
       </x:c>
       <x:c r="G31" s="1" t="n">
-        <x:v>936</x:v>
+        <x:v>937</x:v>
       </x:c>
       <x:c r="H31" s="1" t="n">
         <x:v>0</x:v>
@@ -1317,16 +1317,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C32" s="1" t="n">
-        <x:v>925</x:v>
+        <x:v>926</x:v>
       </x:c>
       <x:c r="D32" s="1" t="n">
-        <x:v>1768</x:v>
+        <x:v>1771</x:v>
       </x:c>
       <x:c r="E32" s="1" t="n">
         <x:v>2744</x:v>
       </x:c>
       <x:c r="F32" s="1" t="n">
-        <x:v>2698</x:v>
+        <x:v>2699</x:v>
       </x:c>
       <x:c r="G32" s="1" t="n">
         <x:v>1090</x:v>
@@ -1635,10 +1635,10 @@
         <x:v>238</x:v>
       </x:c>
       <x:c r="E44" s="1" t="n">
-        <x:v>405</x:v>
+        <x:v>406</x:v>
       </x:c>
       <x:c r="F44" s="1" t="n">
-        <x:v>399</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="G44" s="1" t="n">
         <x:v>86</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -679,7 +679,7 @@
         <x:v>3983</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
-        <x:v>1657</x:v>
+        <x:v>1658</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
         <x:v>0</x:v>
@@ -930,13 +930,13 @@
         <x:v>373</x:v>
       </x:c>
       <x:c r="D17" s="1" t="n">
-        <x:v>1647</x:v>
+        <x:v>1648</x:v>
       </x:c>
       <x:c r="E17" s="1" t="n">
         <x:v>2733</x:v>
       </x:c>
       <x:c r="F17" s="1" t="n">
-        <x:v>2694</x:v>
+        <x:v>2695</x:v>
       </x:c>
       <x:c r="G17" s="1" t="n">
         <x:v>954</x:v>
@@ -1089,10 +1089,10 @@
         <x:v>337</x:v>
       </x:c>
       <x:c r="E23" s="1" t="n">
-        <x:v>512</x:v>
+        <x:v>513</x:v>
       </x:c>
       <x:c r="F23" s="1" t="n">
-        <x:v>525</x:v>
+        <x:v>526</x:v>
       </x:c>
       <x:c r="G23" s="1" t="n">
         <x:v>189</x:v>
@@ -1303,7 +1303,7 @@
         <x:v>2274</x:v>
       </x:c>
       <x:c r="G31" s="1" t="n">
-        <x:v>937</x:v>
+        <x:v>939</x:v>
       </x:c>
       <x:c r="H31" s="1" t="n">
         <x:v>0</x:v>
@@ -1693,7 +1693,7 @@
         <x:v>530</x:v>
       </x:c>
       <x:c r="G46" s="1" t="n">
-        <x:v>248</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="H46" s="1" t="n">
         <x:v>0</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -650,7 +650,7 @@
         <x:v>1129</x:v>
       </x:c>
       <x:c r="F6" s="1" t="n">
-        <x:v>1121</x:v>
+        <x:v>1120</x:v>
       </x:c>
       <x:c r="G6" s="1" t="n">
         <x:v>414</x:v>
@@ -670,7 +670,7 @@
         <x:v>1315</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>2009</x:v>
+        <x:v>2010</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
         <x:v>3758</x:v>
@@ -679,7 +679,7 @@
         <x:v>3983</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
-        <x:v>1658</x:v>
+        <x:v>1659</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
         <x:v>0</x:v>
@@ -875,16 +875,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C15" s="1" t="n">
-        <x:v>356</x:v>
+        <x:v>357</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
         <x:v>266</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
-        <x:v>428</x:v>
+        <x:v>429</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
-        <x:v>400</x:v>
+        <x:v>401</x:v>
       </x:c>
       <x:c r="G15" s="1" t="n">
         <x:v>137</x:v>
@@ -907,7 +907,7 @@
         <x:v>636</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
-        <x:v>1049</x:v>
+        <x:v>1048</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
         <x:v>1083</x:v>
@@ -1095,7 +1095,7 @@
         <x:v>526</x:v>
       </x:c>
       <x:c r="G23" s="1" t="n">
-        <x:v>189</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="H23" s="1" t="n">
         <x:v>0</x:v>
@@ -1300,7 +1300,7 @@
         <x:v>2143</x:v>
       </x:c>
       <x:c r="F31" s="1" t="n">
-        <x:v>2274</x:v>
+        <x:v>2275</x:v>
       </x:c>
       <x:c r="G31" s="1" t="n">
         <x:v>939</x:v>
@@ -1329,7 +1329,7 @@
         <x:v>2699</x:v>
       </x:c>
       <x:c r="G32" s="1" t="n">
-        <x:v>1090</x:v>
+        <x:v>1091</x:v>
       </x:c>
       <x:c r="H32" s="1" t="n">
         <x:v>0</x:v>
@@ -1577,7 +1577,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C42" s="1" t="n">
-        <x:v>140</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="D42" s="1" t="n">
         <x:v>180</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -647,7 +647,7 @@
         <x:v>806</x:v>
       </x:c>
       <x:c r="E6" s="1" t="n">
-        <x:v>1129</x:v>
+        <x:v>1130</x:v>
       </x:c>
       <x:c r="F6" s="1" t="n">
         <x:v>1120</x:v>
@@ -667,19 +667,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>1315</x:v>
+        <x:v>1316</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
         <x:v>2010</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>3758</x:v>
+        <x:v>3761</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>3983</x:v>
+        <x:v>3982</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
-        <x:v>1659</x:v>
+        <x:v>1661</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
         <x:v>0</x:v>
@@ -875,16 +875,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C15" s="1" t="n">
-        <x:v>357</x:v>
+        <x:v>358</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
         <x:v>266</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
-        <x:v>429</x:v>
+        <x:v>430</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
-        <x:v>401</x:v>
+        <x:v>402</x:v>
       </x:c>
       <x:c r="G15" s="1" t="n">
         <x:v>137</x:v>
@@ -910,7 +910,7 @@
         <x:v>1048</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
-        <x:v>1083</x:v>
+        <x:v>1082</x:v>
       </x:c>
       <x:c r="G16" s="1" t="n">
         <x:v>276</x:v>
@@ -930,7 +930,7 @@
         <x:v>373</x:v>
       </x:c>
       <x:c r="D17" s="1" t="n">
-        <x:v>1648</x:v>
+        <x:v>1650</x:v>
       </x:c>
       <x:c r="E17" s="1" t="n">
         <x:v>2733</x:v>
@@ -1063,13 +1063,13 @@
         <x:v>202</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
-        <x:v>324</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="F22" s="1" t="n">
         <x:v>290</x:v>
       </x:c>
       <x:c r="G22" s="1" t="n">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="H22" s="1" t="n">
         <x:v>0</x:v>
@@ -1092,7 +1092,7 @@
         <x:v>513</x:v>
       </x:c>
       <x:c r="F23" s="1" t="n">
-        <x:v>526</x:v>
+        <x:v>527</x:v>
       </x:c>
       <x:c r="G23" s="1" t="n">
         <x:v>190</x:v>
@@ -1294,13 +1294,13 @@
         <x:v>698</x:v>
       </x:c>
       <x:c r="D31" s="1" t="n">
-        <x:v>1535</x:v>
+        <x:v>1538</x:v>
       </x:c>
       <x:c r="E31" s="1" t="n">
         <x:v>2143</x:v>
       </x:c>
       <x:c r="F31" s="1" t="n">
-        <x:v>2275</x:v>
+        <x:v>2274</x:v>
       </x:c>
       <x:c r="G31" s="1" t="n">
         <x:v>939</x:v>
@@ -1317,19 +1317,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C32" s="1" t="n">
-        <x:v>926</x:v>
+        <x:v>927</x:v>
       </x:c>
       <x:c r="D32" s="1" t="n">
         <x:v>1771</x:v>
       </x:c>
       <x:c r="E32" s="1" t="n">
-        <x:v>2744</x:v>
+        <x:v>2745</x:v>
       </x:c>
       <x:c r="F32" s="1" t="n">
-        <x:v>2699</x:v>
+        <x:v>2702</x:v>
       </x:c>
       <x:c r="G32" s="1" t="n">
-        <x:v>1091</x:v>
+        <x:v>1092</x:v>
       </x:c>
       <x:c r="H32" s="1" t="n">
         <x:v>0</x:v>
@@ -1508,7 +1508,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="F39" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G39" s="1" t="n">
         <x:v>4</x:v>
@@ -1580,7 +1580,7 @@
         <x:v>141</x:v>
       </x:c>
       <x:c r="D42" s="1" t="n">
-        <x:v>180</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="E42" s="1" t="n">
         <x:v>198</x:v>
@@ -1693,7 +1693,7 @@
         <x:v>530</x:v>
       </x:c>
       <x:c r="G46" s="1" t="n">
-        <x:v>249</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="H46" s="1" t="n">
         <x:v>0</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -751,7 +751,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
-        <x:v>107</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
         <x:v>129</x:v>
@@ -1086,13 +1086,13 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="D23" s="1" t="n">
-        <x:v>337</x:v>
+        <x:v>338</x:v>
       </x:c>
       <x:c r="E23" s="1" t="n">
         <x:v>513</x:v>
       </x:c>
       <x:c r="F23" s="1" t="n">
-        <x:v>527</x:v>
+        <x:v>528</x:v>
       </x:c>
       <x:c r="G23" s="1" t="n">
         <x:v>190</x:v>
@@ -1297,7 +1297,7 @@
         <x:v>1538</x:v>
       </x:c>
       <x:c r="E31" s="1" t="n">
-        <x:v>2143</x:v>
+        <x:v>2144</x:v>
       </x:c>
       <x:c r="F31" s="1" t="n">
         <x:v>2274</x:v>
@@ -1323,7 +1323,7 @@
         <x:v>1771</x:v>
       </x:c>
       <x:c r="E32" s="1" t="n">
-        <x:v>2745</x:v>
+        <x:v>2746</x:v>
       </x:c>
       <x:c r="F32" s="1" t="n">
         <x:v>2702</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -907,7 +907,7 @@
         <x:v>636</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
-        <x:v>1048</x:v>
+        <x:v>1049</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
         <x:v>1082</x:v>
@@ -933,10 +933,10 @@
         <x:v>1650</x:v>
       </x:c>
       <x:c r="E17" s="1" t="n">
-        <x:v>2733</x:v>
+        <x:v>2734</x:v>
       </x:c>
       <x:c r="F17" s="1" t="n">
-        <x:v>2695</x:v>
+        <x:v>2696</x:v>
       </x:c>
       <x:c r="G17" s="1" t="n">
         <x:v>954</x:v>
@@ -1300,7 +1300,7 @@
         <x:v>2144</x:v>
       </x:c>
       <x:c r="F31" s="1" t="n">
-        <x:v>2274</x:v>
+        <x:v>2275</x:v>
       </x:c>
       <x:c r="G31" s="1" t="n">
         <x:v>939</x:v>
@@ -1586,7 +1586,7 @@
         <x:v>198</x:v>
       </x:c>
       <x:c r="F42" s="1" t="n">
-        <x:v>273</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="G42" s="1" t="n">
         <x:v>137</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -641,7 +641,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>895</x:v>
+        <x:v>896</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
         <x:v>806</x:v>
@@ -650,7 +650,7 @@
         <x:v>1130</x:v>
       </x:c>
       <x:c r="F6" s="1" t="n">
-        <x:v>1120</x:v>
+        <x:v>1121</x:v>
       </x:c>
       <x:c r="G6" s="1" t="n">
         <x:v>414</x:v>
@@ -673,13 +673,13 @@
         <x:v>2010</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>3761</x:v>
+        <x:v>3762</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>3982</x:v>
+        <x:v>3984</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
-        <x:v>1661</x:v>
+        <x:v>1662</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
         <x:v>0</x:v>
@@ -754,7 +754,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
-        <x:v>129</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
         <x:v>28</x:v>
@@ -780,7 +780,7 @@
         <x:v>374</x:v>
       </x:c>
       <x:c r="F11" s="1" t="n">
-        <x:v>424</x:v>
+        <x:v>426</x:v>
       </x:c>
       <x:c r="G11" s="1" t="n">
         <x:v>100</x:v>
@@ -933,10 +933,10 @@
         <x:v>1650</x:v>
       </x:c>
       <x:c r="E17" s="1" t="n">
-        <x:v>2734</x:v>
+        <x:v>2737</x:v>
       </x:c>
       <x:c r="F17" s="1" t="n">
-        <x:v>2696</x:v>
+        <x:v>2695</x:v>
       </x:c>
       <x:c r="G17" s="1" t="n">
         <x:v>954</x:v>
@@ -1089,13 +1089,13 @@
         <x:v>338</x:v>
       </x:c>
       <x:c r="E23" s="1" t="n">
-        <x:v>513</x:v>
+        <x:v>514</x:v>
       </x:c>
       <x:c r="F23" s="1" t="n">
         <x:v>528</x:v>
       </x:c>
       <x:c r="G23" s="1" t="n">
-        <x:v>190</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="H23" s="1" t="n">
         <x:v>0</x:v>
@@ -1297,13 +1297,13 @@
         <x:v>1538</x:v>
       </x:c>
       <x:c r="E31" s="1" t="n">
-        <x:v>2144</x:v>
+        <x:v>2145</x:v>
       </x:c>
       <x:c r="F31" s="1" t="n">
         <x:v>2275</x:v>
       </x:c>
       <x:c r="G31" s="1" t="n">
-        <x:v>939</x:v>
+        <x:v>940</x:v>
       </x:c>
       <x:c r="H31" s="1" t="n">
         <x:v>0</x:v>
@@ -1349,7 +1349,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E33" s="1" t="n">
-        <x:v>51</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="F33" s="1" t="n">
         <x:v>52</x:v>
@@ -1525,10 +1525,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C40" s="1" t="n">
-        <x:v>179</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="D40" s="1" t="n">
-        <x:v>183</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="E40" s="1" t="n">
         <x:v>157</x:v>
@@ -1589,7 +1589,7 @@
         <x:v>275</x:v>
       </x:c>
       <x:c r="G42" s="1" t="n">
-        <x:v>137</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="H42" s="1" t="n">
         <x:v>0</x:v>
@@ -1655,7 +1655,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C45" s="1" t="n">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D45" s="1" t="n">
         <x:v>55</x:v>
@@ -1684,7 +1684,7 @@
         <x:v>313</x:v>
       </x:c>
       <x:c r="D46" s="1" t="n">
-        <x:v>699</x:v>
+        <x:v>700</x:v>
       </x:c>
       <x:c r="E46" s="1" t="n">
         <x:v>660</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -670,7 +670,7 @@
         <x:v>1316</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>2010</x:v>
+        <x:v>2011</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
         <x:v>3762</x:v>
@@ -771,7 +771,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>177</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
         <x:v>200</x:v>
@@ -907,7 +907,7 @@
         <x:v>636</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
-        <x:v>1049</x:v>
+        <x:v>1050</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
         <x:v>1082</x:v>
@@ -933,10 +933,10 @@
         <x:v>1650</x:v>
       </x:c>
       <x:c r="E17" s="1" t="n">
-        <x:v>2737</x:v>
+        <x:v>2738</x:v>
       </x:c>
       <x:c r="F17" s="1" t="n">
-        <x:v>2695</x:v>
+        <x:v>2696</x:v>
       </x:c>
       <x:c r="G17" s="1" t="n">
         <x:v>954</x:v>
@@ -1329,7 +1329,7 @@
         <x:v>2702</x:v>
       </x:c>
       <x:c r="G32" s="1" t="n">
-        <x:v>1092</x:v>
+        <x:v>1093</x:v>
       </x:c>
       <x:c r="H32" s="1" t="n">
         <x:v>0</x:v>
@@ -1531,7 +1531,7 @@
         <x:v>185</x:v>
       </x:c>
       <x:c r="E40" s="1" t="n">
-        <x:v>157</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="F40" s="1" t="n">
         <x:v>94</x:v>
@@ -1693,7 +1693,7 @@
         <x:v>530</x:v>
       </x:c>
       <x:c r="G46" s="1" t="n">
-        <x:v>250</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="H46" s="1" t="n">
         <x:v>0</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -936,7 +936,7 @@
         <x:v>2738</x:v>
       </x:c>
       <x:c r="F17" s="1" t="n">
-        <x:v>2696</x:v>
+        <x:v>2695</x:v>
       </x:c>
       <x:c r="G17" s="1" t="n">
         <x:v>954</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -771,7 +771,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>178</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
         <x:v>200</x:v>
@@ -806,7 +806,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="F12" s="1" t="n">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="G12" s="1" t="n">
         <x:v>14</x:v>
@@ -829,10 +829,10 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
-        <x:v>136</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="F13" s="1" t="n">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="G13" s="1" t="n">
         <x:v>44</x:v>
@@ -875,7 +875,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C15" s="1" t="n">
-        <x:v>358</x:v>
+        <x:v>359</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
         <x:v>266</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -641,13 +641,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>896</x:v>
+        <x:v>897</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
         <x:v>806</x:v>
       </x:c>
       <x:c r="E6" s="1" t="n">
-        <x:v>1130</x:v>
+        <x:v>1131</x:v>
       </x:c>
       <x:c r="F6" s="1" t="n">
         <x:v>1121</x:v>
@@ -667,13 +667,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>1316</x:v>
+        <x:v>1317</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>2011</x:v>
+        <x:v>2012</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>3762</x:v>
+        <x:v>3766</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
         <x:v>3984</x:v>
@@ -904,7 +904,7 @@
         <x:v>211</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
-        <x:v>636</x:v>
+        <x:v>638</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
         <x:v>1050</x:v>
@@ -913,7 +913,7 @@
         <x:v>1082</x:v>
       </x:c>
       <x:c r="G16" s="1" t="n">
-        <x:v>276</x:v>
+        <x:v>277</x:v>
       </x:c>
       <x:c r="H16" s="1" t="n">
         <x:v>0</x:v>
@@ -930,10 +930,10 @@
         <x:v>373</x:v>
       </x:c>
       <x:c r="D17" s="1" t="n">
-        <x:v>1650</x:v>
+        <x:v>1649</x:v>
       </x:c>
       <x:c r="E17" s="1" t="n">
-        <x:v>2738</x:v>
+        <x:v>2736</x:v>
       </x:c>
       <x:c r="F17" s="1" t="n">
         <x:v>2695</x:v>
@@ -1060,7 +1060,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>202</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>325</x:v>
@@ -1086,7 +1086,7 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="D23" s="1" t="n">
-        <x:v>338</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="E23" s="1" t="n">
         <x:v>514</x:v>
@@ -1297,7 +1297,7 @@
         <x:v>1538</x:v>
       </x:c>
       <x:c r="E31" s="1" t="n">
-        <x:v>2145</x:v>
+        <x:v>2147</x:v>
       </x:c>
       <x:c r="F31" s="1" t="n">
         <x:v>2275</x:v>
@@ -1323,10 +1323,10 @@
         <x:v>1771</x:v>
       </x:c>
       <x:c r="E32" s="1" t="n">
-        <x:v>2746</x:v>
+        <x:v>2747</x:v>
       </x:c>
       <x:c r="F32" s="1" t="n">
-        <x:v>2702</x:v>
+        <x:v>2704</x:v>
       </x:c>
       <x:c r="G32" s="1" t="n">
         <x:v>1093</x:v>
@@ -1586,7 +1586,7 @@
         <x:v>198</x:v>
       </x:c>
       <x:c r="F42" s="1" t="n">
-        <x:v>275</x:v>
+        <x:v>276</x:v>
       </x:c>
       <x:c r="G42" s="1" t="n">
         <x:v>139</x:v>
@@ -1629,7 +1629,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C44" s="1" t="n">
-        <x:v>231</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="D44" s="1" t="n">
         <x:v>238</x:v>
@@ -1690,7 +1690,7 @@
         <x:v>660</x:v>
       </x:c>
       <x:c r="F46" s="1" t="n">
-        <x:v>530</x:v>
+        <x:v>531</x:v>
       </x:c>
       <x:c r="G46" s="1" t="n">
         <x:v>251</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -670,7 +670,7 @@
         <x:v>1317</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>2012</x:v>
+        <x:v>2015</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
         <x:v>3766</x:v>
@@ -936,7 +936,7 @@
         <x:v>2736</x:v>
       </x:c>
       <x:c r="F17" s="1" t="n">
-        <x:v>2695</x:v>
+        <x:v>2696</x:v>
       </x:c>
       <x:c r="G17" s="1" t="n">
         <x:v>954</x:v>
@@ -1060,7 +1060,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>201</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>325</x:v>
@@ -1320,13 +1320,13 @@
         <x:v>927</x:v>
       </x:c>
       <x:c r="D32" s="1" t="n">
-        <x:v>1771</x:v>
+        <x:v>1770</x:v>
       </x:c>
       <x:c r="E32" s="1" t="n">
-        <x:v>2747</x:v>
+        <x:v>2746</x:v>
       </x:c>
       <x:c r="F32" s="1" t="n">
-        <x:v>2704</x:v>
+        <x:v>2705</x:v>
       </x:c>
       <x:c r="G32" s="1" t="n">
         <x:v>1093</x:v>
@@ -1655,7 +1655,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C45" s="1" t="n">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D45" s="1" t="n">
         <x:v>55</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -644,13 +644,13 @@
         <x:v>897</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>806</x:v>
+        <x:v>808</x:v>
       </x:c>
       <x:c r="E6" s="1" t="n">
         <x:v>1131</x:v>
       </x:c>
       <x:c r="F6" s="1" t="n">
-        <x:v>1121</x:v>
+        <x:v>1122</x:v>
       </x:c>
       <x:c r="G6" s="1" t="n">
         <x:v>414</x:v>
@@ -667,13 +667,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>1317</x:v>
+        <x:v>1319</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>2015</x:v>
+        <x:v>2014</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>3766</x:v>
+        <x:v>3767</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
         <x:v>3984</x:v>
@@ -910,7 +910,7 @@
         <x:v>1050</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
-        <x:v>1082</x:v>
+        <x:v>1084</x:v>
       </x:c>
       <x:c r="G16" s="1" t="n">
         <x:v>277</x:v>
@@ -939,7 +939,7 @@
         <x:v>2696</x:v>
       </x:c>
       <x:c r="G17" s="1" t="n">
-        <x:v>954</x:v>
+        <x:v>955</x:v>
       </x:c>
       <x:c r="H17" s="1" t="n">
         <x:v>0</x:v>
@@ -1063,7 +1063,7 @@
         <x:v>202</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
-        <x:v>325</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="F22" s="1" t="n">
         <x:v>290</x:v>
@@ -1294,7 +1294,7 @@
         <x:v>698</x:v>
       </x:c>
       <x:c r="D31" s="1" t="n">
-        <x:v>1538</x:v>
+        <x:v>1539</x:v>
       </x:c>
       <x:c r="E31" s="1" t="n">
         <x:v>2147</x:v>
@@ -1303,7 +1303,7 @@
         <x:v>2275</x:v>
       </x:c>
       <x:c r="G31" s="1" t="n">
-        <x:v>940</x:v>
+        <x:v>941</x:v>
       </x:c>
       <x:c r="H31" s="1" t="n">
         <x:v>0</x:v>
@@ -1320,16 +1320,16 @@
         <x:v>927</x:v>
       </x:c>
       <x:c r="D32" s="1" t="n">
-        <x:v>1770</x:v>
+        <x:v>1769</x:v>
       </x:c>
       <x:c r="E32" s="1" t="n">
-        <x:v>2746</x:v>
+        <x:v>2747</x:v>
       </x:c>
       <x:c r="F32" s="1" t="n">
         <x:v>2705</x:v>
       </x:c>
       <x:c r="G32" s="1" t="n">
-        <x:v>1093</x:v>
+        <x:v>1095</x:v>
       </x:c>
       <x:c r="H32" s="1" t="n">
         <x:v>0</x:v>
@@ -1528,7 +1528,7 @@
         <x:v>180</x:v>
       </x:c>
       <x:c r="D40" s="1" t="n">
-        <x:v>185</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="E40" s="1" t="n">
         <x:v>158</x:v>
@@ -1577,7 +1577,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C42" s="1" t="n">
-        <x:v>141</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="D42" s="1" t="n">
         <x:v>181</x:v>
@@ -1586,7 +1586,7 @@
         <x:v>198</x:v>
       </x:c>
       <x:c r="F42" s="1" t="n">
-        <x:v>276</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="G42" s="1" t="n">
         <x:v>139</x:v>
@@ -1632,7 +1632,7 @@
         <x:v>232</x:v>
       </x:c>
       <x:c r="D44" s="1" t="n">
-        <x:v>238</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="E44" s="1" t="n">
         <x:v>406</x:v>
@@ -1681,13 +1681,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C46" s="1" t="n">
-        <x:v>313</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="D46" s="1" t="n">
         <x:v>700</x:v>
       </x:c>
       <x:c r="E46" s="1" t="n">
-        <x:v>660</x:v>
+        <x:v>662</x:v>
       </x:c>
       <x:c r="F46" s="1" t="n">
         <x:v>531</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -540,16 +540,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G2" s="1" t="n">
         <x:v>14</x:v>
-      </x:c>
-      <x:c r="G2" s="1" t="n">
-        <x:v>12</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
         <x:v>0</x:v>
@@ -569,7 +569,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
         <x:v>22</x:v>
@@ -670,16 +670,16 @@
         <x:v>1319</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>2014</x:v>
+        <x:v>2015</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
         <x:v>3767</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>3984</x:v>
+        <x:v>3985</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
-        <x:v>1662</x:v>
+        <x:v>1663</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
         <x:v>0</x:v>
@@ -774,10 +774,10 @@
         <x:v>177</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>200</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="E11" s="1" t="n">
-        <x:v>374</x:v>
+        <x:v>373</x:v>
       </x:c>
       <x:c r="F11" s="1" t="n">
         <x:v>426</x:v>
@@ -910,7 +910,7 @@
         <x:v>1050</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
-        <x:v>1084</x:v>
+        <x:v>1085</x:v>
       </x:c>
       <x:c r="G16" s="1" t="n">
         <x:v>277</x:v>
@@ -930,13 +930,13 @@
         <x:v>373</x:v>
       </x:c>
       <x:c r="D17" s="1" t="n">
-        <x:v>1649</x:v>
+        <x:v>1651</x:v>
       </x:c>
       <x:c r="E17" s="1" t="n">
-        <x:v>2736</x:v>
+        <x:v>2737</x:v>
       </x:c>
       <x:c r="F17" s="1" t="n">
-        <x:v>2696</x:v>
+        <x:v>2697</x:v>
       </x:c>
       <x:c r="G17" s="1" t="n">
         <x:v>955</x:v>
@@ -1063,7 +1063,7 @@
         <x:v>202</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
-        <x:v>326</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="F22" s="1" t="n">
         <x:v>290</x:v>
@@ -1086,13 +1086,13 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="D23" s="1" t="n">
-        <x:v>339</x:v>
+        <x:v>340</x:v>
       </x:c>
       <x:c r="E23" s="1" t="n">
         <x:v>514</x:v>
       </x:c>
       <x:c r="F23" s="1" t="n">
-        <x:v>528</x:v>
+        <x:v>529</x:v>
       </x:c>
       <x:c r="G23" s="1" t="n">
         <x:v>191</x:v>
@@ -1294,13 +1294,13 @@
         <x:v>698</x:v>
       </x:c>
       <x:c r="D31" s="1" t="n">
-        <x:v>1539</x:v>
+        <x:v>1541</x:v>
       </x:c>
       <x:c r="E31" s="1" t="n">
         <x:v>2147</x:v>
       </x:c>
       <x:c r="F31" s="1" t="n">
-        <x:v>2275</x:v>
+        <x:v>2274</x:v>
       </x:c>
       <x:c r="G31" s="1" t="n">
         <x:v>941</x:v>
@@ -1320,16 +1320,16 @@
         <x:v>927</x:v>
       </x:c>
       <x:c r="D32" s="1" t="n">
-        <x:v>1769</x:v>
+        <x:v>1777</x:v>
       </x:c>
       <x:c r="E32" s="1" t="n">
-        <x:v>2747</x:v>
+        <x:v>2750</x:v>
       </x:c>
       <x:c r="F32" s="1" t="n">
         <x:v>2705</x:v>
       </x:c>
       <x:c r="G32" s="1" t="n">
-        <x:v>1095</x:v>
+        <x:v>1096</x:v>
       </x:c>
       <x:c r="H32" s="1" t="n">
         <x:v>0</x:v>
@@ -1343,7 +1343,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C33" s="1" t="n">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="D33" s="1" t="n">
         <x:v>37</x:v>
@@ -1369,10 +1369,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C34" s="1" t="n">
-        <x:v>217</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="D34" s="1" t="n">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="E34" s="1" t="n">
         <x:v>164</x:v>
@@ -1690,7 +1690,7 @@
         <x:v>662</x:v>
       </x:c>
       <x:c r="F46" s="1" t="n">
-        <x:v>531</x:v>
+        <x:v>532</x:v>
       </x:c>
       <x:c r="G46" s="1" t="n">
         <x:v>251</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -549,7 +549,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
         <x:v>0</x:v>
@@ -647,7 +647,7 @@
         <x:v>808</x:v>
       </x:c>
       <x:c r="E6" s="1" t="n">
-        <x:v>1131</x:v>
+        <x:v>1130</x:v>
       </x:c>
       <x:c r="F6" s="1" t="n">
         <x:v>1122</x:v>
@@ -829,7 +829,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
-        <x:v>137</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="F13" s="1" t="n">
         <x:v>173</x:v>
@@ -858,7 +858,7 @@
         <x:v>132</x:v>
       </x:c>
       <x:c r="F14" s="1" t="n">
-        <x:v>108</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="G14" s="1" t="n">
         <x:v>30</x:v>
@@ -878,7 +878,7 @@
         <x:v>359</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
-        <x:v>266</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
         <x:v>430</x:v>
@@ -930,16 +930,16 @@
         <x:v>373</x:v>
       </x:c>
       <x:c r="D17" s="1" t="n">
-        <x:v>1651</x:v>
+        <x:v>1650</x:v>
       </x:c>
       <x:c r="E17" s="1" t="n">
         <x:v>2737</x:v>
       </x:c>
       <x:c r="F17" s="1" t="n">
-        <x:v>2697</x:v>
+        <x:v>2698</x:v>
       </x:c>
       <x:c r="G17" s="1" t="n">
-        <x:v>955</x:v>
+        <x:v>956</x:v>
       </x:c>
       <x:c r="H17" s="1" t="n">
         <x:v>0</x:v>
@@ -1069,7 +1069,7 @@
         <x:v>290</x:v>
       </x:c>
       <x:c r="G22" s="1" t="n">
-        <x:v>89</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="H22" s="1" t="n">
         <x:v>0</x:v>
@@ -1294,13 +1294,13 @@
         <x:v>698</x:v>
       </x:c>
       <x:c r="D31" s="1" t="n">
-        <x:v>1541</x:v>
+        <x:v>1543</x:v>
       </x:c>
       <x:c r="E31" s="1" t="n">
-        <x:v>2147</x:v>
+        <x:v>2148</x:v>
       </x:c>
       <x:c r="F31" s="1" t="n">
-        <x:v>2274</x:v>
+        <x:v>2276</x:v>
       </x:c>
       <x:c r="G31" s="1" t="n">
         <x:v>941</x:v>
@@ -1317,16 +1317,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C32" s="1" t="n">
-        <x:v>927</x:v>
+        <x:v>931</x:v>
       </x:c>
       <x:c r="D32" s="1" t="n">
-        <x:v>1777</x:v>
+        <x:v>1780</x:v>
       </x:c>
       <x:c r="E32" s="1" t="n">
-        <x:v>2750</x:v>
+        <x:v>2753</x:v>
       </x:c>
       <x:c r="F32" s="1" t="n">
-        <x:v>2705</x:v>
+        <x:v>2706</x:v>
       </x:c>
       <x:c r="G32" s="1" t="n">
         <x:v>1096</x:v>
@@ -1424,7 +1424,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="D36" s="1" t="n">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="E36" s="1" t="n">
         <x:v>39</x:v>
@@ -1534,7 +1534,7 @@
         <x:v>158</x:v>
       </x:c>
       <x:c r="F40" s="1" t="n">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="G40" s="1" t="n">
         <x:v>23</x:v>
@@ -1684,7 +1684,7 @@
         <x:v>314</x:v>
       </x:c>
       <x:c r="D46" s="1" t="n">
-        <x:v>700</x:v>
+        <x:v>701</x:v>
       </x:c>
       <x:c r="E46" s="1" t="n">
         <x:v>662</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -670,16 +670,16 @@
         <x:v>1319</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>2015</x:v>
+        <x:v>2016</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
         <x:v>3767</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>3985</x:v>
+        <x:v>3986</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
-        <x:v>1663</x:v>
+        <x:v>1664</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
         <x:v>0</x:v>
@@ -771,16 +771,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>177</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>202</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="E11" s="1" t="n">
         <x:v>373</x:v>
       </x:c>
       <x:c r="F11" s="1" t="n">
-        <x:v>426</x:v>
+        <x:v>427</x:v>
       </x:c>
       <x:c r="G11" s="1" t="n">
         <x:v>100</x:v>
@@ -832,7 +832,7 @@
         <x:v>138</x:v>
       </x:c>
       <x:c r="F13" s="1" t="n">
-        <x:v>173</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="G13" s="1" t="n">
         <x:v>44</x:v>
@@ -878,10 +878,10 @@
         <x:v>359</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
-        <x:v>267</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
-        <x:v>430</x:v>
+        <x:v>432</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
         <x:v>402</x:v>
@@ -904,13 +904,13 @@
         <x:v>211</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
-        <x:v>638</x:v>
+        <x:v>637</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
-        <x:v>1050</x:v>
+        <x:v>1052</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
-        <x:v>1085</x:v>
+        <x:v>1086</x:v>
       </x:c>
       <x:c r="G16" s="1" t="n">
         <x:v>277</x:v>
@@ -930,13 +930,13 @@
         <x:v>373</x:v>
       </x:c>
       <x:c r="D17" s="1" t="n">
-        <x:v>1650</x:v>
+        <x:v>1651</x:v>
       </x:c>
       <x:c r="E17" s="1" t="n">
-        <x:v>2737</x:v>
+        <x:v>2736</x:v>
       </x:c>
       <x:c r="F17" s="1" t="n">
-        <x:v>2698</x:v>
+        <x:v>2701</x:v>
       </x:c>
       <x:c r="G17" s="1" t="n">
         <x:v>956</x:v>
@@ -1060,13 +1060,13 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>202</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>327</x:v>
       </x:c>
       <x:c r="F22" s="1" t="n">
-        <x:v>290</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="G22" s="1" t="n">
         <x:v>90</x:v>
@@ -1086,13 +1086,13 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="D23" s="1" t="n">
-        <x:v>340</x:v>
+        <x:v>342</x:v>
       </x:c>
       <x:c r="E23" s="1" t="n">
-        <x:v>514</x:v>
+        <x:v>516</x:v>
       </x:c>
       <x:c r="F23" s="1" t="n">
-        <x:v>529</x:v>
+        <x:v>531</x:v>
       </x:c>
       <x:c r="G23" s="1" t="n">
         <x:v>191</x:v>
@@ -1297,13 +1297,13 @@
         <x:v>1543</x:v>
       </x:c>
       <x:c r="E31" s="1" t="n">
-        <x:v>2148</x:v>
+        <x:v>2152</x:v>
       </x:c>
       <x:c r="F31" s="1" t="n">
-        <x:v>2276</x:v>
+        <x:v>2277</x:v>
       </x:c>
       <x:c r="G31" s="1" t="n">
-        <x:v>941</x:v>
+        <x:v>942</x:v>
       </x:c>
       <x:c r="H31" s="1" t="n">
         <x:v>0</x:v>
@@ -1317,19 +1317,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C32" s="1" t="n">
-        <x:v>931</x:v>
+        <x:v>933</x:v>
       </x:c>
       <x:c r="D32" s="1" t="n">
-        <x:v>1780</x:v>
+        <x:v>1788</x:v>
       </x:c>
       <x:c r="E32" s="1" t="n">
-        <x:v>2753</x:v>
+        <x:v>2754</x:v>
       </x:c>
       <x:c r="F32" s="1" t="n">
-        <x:v>2706</x:v>
+        <x:v>2708</x:v>
       </x:c>
       <x:c r="G32" s="1" t="n">
-        <x:v>1096</x:v>
+        <x:v>1097</x:v>
       </x:c>
       <x:c r="H32" s="1" t="n">
         <x:v>0</x:v>
@@ -1525,7 +1525,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C40" s="1" t="n">
-        <x:v>180</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="D40" s="1" t="n">
         <x:v>186</x:v>
@@ -1580,10 +1580,10 @@
         <x:v>142</x:v>
       </x:c>
       <x:c r="D42" s="1" t="n">
-        <x:v>181</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="E42" s="1" t="n">
-        <x:v>198</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="F42" s="1" t="n">
         <x:v>275</x:v>
@@ -1684,13 +1684,13 @@
         <x:v>314</x:v>
       </x:c>
       <x:c r="D46" s="1" t="n">
-        <x:v>701</x:v>
+        <x:v>702</x:v>
       </x:c>
       <x:c r="E46" s="1" t="n">
         <x:v>662</x:v>
       </x:c>
       <x:c r="F46" s="1" t="n">
-        <x:v>532</x:v>
+        <x:v>533</x:v>
       </x:c>
       <x:c r="G46" s="1" t="n">
         <x:v>251</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -907,7 +907,7 @@
         <x:v>637</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
-        <x:v>1052</x:v>
+        <x:v>1053</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
         <x:v>1086</x:v>
@@ -933,13 +933,13 @@
         <x:v>1651</x:v>
       </x:c>
       <x:c r="E17" s="1" t="n">
-        <x:v>2736</x:v>
+        <x:v>2737</x:v>
       </x:c>
       <x:c r="F17" s="1" t="n">
-        <x:v>2701</x:v>
+        <x:v>2702</x:v>
       </x:c>
       <x:c r="G17" s="1" t="n">
-        <x:v>956</x:v>
+        <x:v>957</x:v>
       </x:c>
       <x:c r="H17" s="1" t="n">
         <x:v>0</x:v>
@@ -1297,7 +1297,7 @@
         <x:v>1543</x:v>
       </x:c>
       <x:c r="E31" s="1" t="n">
-        <x:v>2152</x:v>
+        <x:v>2155</x:v>
       </x:c>
       <x:c r="F31" s="1" t="n">
         <x:v>2277</x:v>
@@ -1323,7 +1323,7 @@
         <x:v>1788</x:v>
       </x:c>
       <x:c r="E32" s="1" t="n">
-        <x:v>2754</x:v>
+        <x:v>2755</x:v>
       </x:c>
       <x:c r="F32" s="1" t="n">
         <x:v>2708</x:v>
@@ -1525,7 +1525,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C40" s="1" t="n">
-        <x:v>179</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="D40" s="1" t="n">
         <x:v>186</x:v>
@@ -1684,10 +1684,10 @@
         <x:v>314</x:v>
       </x:c>
       <x:c r="D46" s="1" t="n">
-        <x:v>702</x:v>
+        <x:v>704</x:v>
       </x:c>
       <x:c r="E46" s="1" t="n">
-        <x:v>662</x:v>
+        <x:v>663</x:v>
       </x:c>
       <x:c r="F46" s="1" t="n">
         <x:v>533</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -670,7 +670,7 @@
         <x:v>1319</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>2016</x:v>
+        <x:v>2015</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
         <x:v>3767</x:v>
@@ -803,7 +803,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="E12" s="1" t="n">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="F12" s="1" t="n">
         <x:v>96</x:v>
@@ -910,7 +910,7 @@
         <x:v>1053</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
-        <x:v>1086</x:v>
+        <x:v>1085</x:v>
       </x:c>
       <x:c r="G16" s="1" t="n">
         <x:v>277</x:v>
@@ -930,7 +930,7 @@
         <x:v>373</x:v>
       </x:c>
       <x:c r="D17" s="1" t="n">
-        <x:v>1651</x:v>
+        <x:v>1652</x:v>
       </x:c>
       <x:c r="E17" s="1" t="n">
         <x:v>2737</x:v>
@@ -1268,7 +1268,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="D30" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E30" s="1" t="n">
         <x:v>43</x:v>
@@ -1320,7 +1320,7 @@
         <x:v>933</x:v>
       </x:c>
       <x:c r="D32" s="1" t="n">
-        <x:v>1788</x:v>
+        <x:v>1790</x:v>
       </x:c>
       <x:c r="E32" s="1" t="n">
         <x:v>2755</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -673,7 +673,7 @@
         <x:v>2015</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>3767</x:v>
+        <x:v>3768</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
         <x:v>3986</x:v>
@@ -1303,7 +1303,7 @@
         <x:v>2277</x:v>
       </x:c>
       <x:c r="G31" s="1" t="n">
-        <x:v>942</x:v>
+        <x:v>943</x:v>
       </x:c>
       <x:c r="H31" s="1" t="n">
         <x:v>0</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -676,7 +676,7 @@
         <x:v>3768</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>3986</x:v>
+        <x:v>3985</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
         <x:v>1664</x:v>
@@ -777,7 +777,7 @@
         <x:v>204</x:v>
       </x:c>
       <x:c r="E11" s="1" t="n">
-        <x:v>373</x:v>
+        <x:v>372</x:v>
       </x:c>
       <x:c r="F11" s="1" t="n">
         <x:v>427</x:v>
@@ -1421,7 +1421,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C36" s="1" t="n">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D36" s="1" t="n">
         <x:v>36</x:v>
@@ -1589,7 +1589,7 @@
         <x:v>275</x:v>
       </x:c>
       <x:c r="G42" s="1" t="n">
-        <x:v>139</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="H42" s="1" t="n">
         <x:v>0</x:v>
@@ -1612,7 +1612,7 @@
         <x:v>144</x:v>
       </x:c>
       <x:c r="F43" s="1" t="n">
-        <x:v>126</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="G43" s="1" t="n">
         <x:v>15</x:v>
@@ -1638,7 +1638,7 @@
         <x:v>406</x:v>
       </x:c>
       <x:c r="F44" s="1" t="n">
-        <x:v>400</x:v>
+        <x:v>398</x:v>
       </x:c>
       <x:c r="G44" s="1" t="n">
         <x:v>86</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -806,7 +806,7 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="F12" s="1" t="n">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="G12" s="1" t="n">
         <x:v>14</x:v>
@@ -910,7 +910,7 @@
         <x:v>1053</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
-        <x:v>1085</x:v>
+        <x:v>1086</x:v>
       </x:c>
       <x:c r="G16" s="1" t="n">
         <x:v>277</x:v>
@@ -933,10 +933,10 @@
         <x:v>1652</x:v>
       </x:c>
       <x:c r="E17" s="1" t="n">
-        <x:v>2737</x:v>
+        <x:v>2738</x:v>
       </x:c>
       <x:c r="F17" s="1" t="n">
-        <x:v>2702</x:v>
+        <x:v>2705</x:v>
       </x:c>
       <x:c r="G17" s="1" t="n">
         <x:v>957</x:v>
@@ -1326,7 +1326,7 @@
         <x:v>2755</x:v>
       </x:c>
       <x:c r="F32" s="1" t="n">
-        <x:v>2708</x:v>
+        <x:v>2709</x:v>
       </x:c>
       <x:c r="G32" s="1" t="n">
         <x:v>1097</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -1089,7 +1089,7 @@
         <x:v>342</x:v>
       </x:c>
       <x:c r="E23" s="1" t="n">
-        <x:v>516</x:v>
+        <x:v>517</x:v>
       </x:c>
       <x:c r="F23" s="1" t="n">
         <x:v>531</x:v>
@@ -1303,7 +1303,7 @@
         <x:v>2277</x:v>
       </x:c>
       <x:c r="G31" s="1" t="n">
-        <x:v>943</x:v>
+        <x:v>944</x:v>
       </x:c>
       <x:c r="H31" s="1" t="n">
         <x:v>0</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -832,7 +832,7 @@
         <x:v>138</x:v>
       </x:c>
       <x:c r="F13" s="1" t="n">
-        <x:v>174</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="G13" s="1" t="n">
         <x:v>44</x:v>
@@ -933,7 +933,7 @@
         <x:v>1652</x:v>
       </x:c>
       <x:c r="E17" s="1" t="n">
-        <x:v>2738</x:v>
+        <x:v>2737</x:v>
       </x:c>
       <x:c r="F17" s="1" t="n">
         <x:v>2705</x:v>
@@ -1092,7 +1092,7 @@
         <x:v>517</x:v>
       </x:c>
       <x:c r="F23" s="1" t="n">
-        <x:v>531</x:v>
+        <x:v>532</x:v>
       </x:c>
       <x:c r="G23" s="1" t="n">
         <x:v>191</x:v>
@@ -1297,10 +1297,10 @@
         <x:v>1543</x:v>
       </x:c>
       <x:c r="E31" s="1" t="n">
-        <x:v>2155</x:v>
+        <x:v>2157</x:v>
       </x:c>
       <x:c r="F31" s="1" t="n">
-        <x:v>2277</x:v>
+        <x:v>2278</x:v>
       </x:c>
       <x:c r="G31" s="1" t="n">
         <x:v>944</x:v>
@@ -1502,7 +1502,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="D39" s="1" t="n">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="E39" s="1" t="n">
         <x:v>39</x:v>
@@ -1531,7 +1531,7 @@
         <x:v>186</x:v>
       </x:c>
       <x:c r="E40" s="1" t="n">
-        <x:v>158</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="F40" s="1" t="n">
         <x:v>95</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -644,13 +644,13 @@
         <x:v>897</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>808</x:v>
+        <x:v>809</x:v>
       </x:c>
       <x:c r="E6" s="1" t="n">
         <x:v>1130</x:v>
       </x:c>
       <x:c r="F6" s="1" t="n">
-        <x:v>1122</x:v>
+        <x:v>1124</x:v>
       </x:c>
       <x:c r="G6" s="1" t="n">
         <x:v>414</x:v>
@@ -670,16 +670,16 @@
         <x:v>1319</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>2015</x:v>
+        <x:v>2018</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>3768</x:v>
+        <x:v>3772</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>3985</x:v>
+        <x:v>3988</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
-        <x:v>1664</x:v>
+        <x:v>1665</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
         <x:v>0</x:v>
@@ -780,7 +780,7 @@
         <x:v>372</x:v>
       </x:c>
       <x:c r="F11" s="1" t="n">
-        <x:v>427</x:v>
+        <x:v>428</x:v>
       </x:c>
       <x:c r="G11" s="1" t="n">
         <x:v>100</x:v>
@@ -852,7 +852,7 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="D14" s="1" t="n">
-        <x:v>103</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="E14" s="1" t="n">
         <x:v>132</x:v>
@@ -904,10 +904,10 @@
         <x:v>211</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
-        <x:v>637</x:v>
+        <x:v>636</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
-        <x:v>1053</x:v>
+        <x:v>1052</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
         <x:v>1086</x:v>
@@ -933,7 +933,7 @@
         <x:v>1652</x:v>
       </x:c>
       <x:c r="E17" s="1" t="n">
-        <x:v>2737</x:v>
+        <x:v>2740</x:v>
       </x:c>
       <x:c r="F17" s="1" t="n">
         <x:v>2705</x:v>
@@ -1063,7 +1063,7 @@
         <x:v>203</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
-        <x:v>327</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="F22" s="1" t="n">
         <x:v>291</x:v>
@@ -1089,7 +1089,7 @@
         <x:v>342</x:v>
       </x:c>
       <x:c r="E23" s="1" t="n">
-        <x:v>517</x:v>
+        <x:v>518</x:v>
       </x:c>
       <x:c r="F23" s="1" t="n">
         <x:v>532</x:v>
@@ -1294,16 +1294,16 @@
         <x:v>698</x:v>
       </x:c>
       <x:c r="D31" s="1" t="n">
-        <x:v>1543</x:v>
+        <x:v>1544</x:v>
       </x:c>
       <x:c r="E31" s="1" t="n">
-        <x:v>2157</x:v>
+        <x:v>2159</x:v>
       </x:c>
       <x:c r="F31" s="1" t="n">
-        <x:v>2278</x:v>
+        <x:v>2282</x:v>
       </x:c>
       <x:c r="G31" s="1" t="n">
-        <x:v>944</x:v>
+        <x:v>943</x:v>
       </x:c>
       <x:c r="H31" s="1" t="n">
         <x:v>0</x:v>
@@ -1323,13 +1323,13 @@
         <x:v>1790</x:v>
       </x:c>
       <x:c r="E32" s="1" t="n">
-        <x:v>2755</x:v>
+        <x:v>2760</x:v>
       </x:c>
       <x:c r="F32" s="1" t="n">
-        <x:v>2709</x:v>
+        <x:v>2714</x:v>
       </x:c>
       <x:c r="G32" s="1" t="n">
-        <x:v>1097</x:v>
+        <x:v>1098</x:v>
       </x:c>
       <x:c r="H32" s="1" t="n">
         <x:v>0</x:v>
@@ -1580,13 +1580,13 @@
         <x:v>142</x:v>
       </x:c>
       <x:c r="D42" s="1" t="n">
-        <x:v>182</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="E42" s="1" t="n">
         <x:v>200</x:v>
       </x:c>
       <x:c r="F42" s="1" t="n">
-        <x:v>275</x:v>
+        <x:v>276</x:v>
       </x:c>
       <x:c r="G42" s="1" t="n">
         <x:v>140</x:v>
@@ -1687,7 +1687,7 @@
         <x:v>704</x:v>
       </x:c>
       <x:c r="E46" s="1" t="n">
-        <x:v>663</x:v>
+        <x:v>664</x:v>
       </x:c>
       <x:c r="F46" s="1" t="n">
         <x:v>533</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -676,10 +676,10 @@
         <x:v>3772</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>3988</x:v>
+        <x:v>3989</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
-        <x:v>1665</x:v>
+        <x:v>1666</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
         <x:v>0</x:v>
@@ -881,7 +881,7 @@
         <x:v>268</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
-        <x:v>432</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
         <x:v>402</x:v>
@@ -907,7 +907,7 @@
         <x:v>636</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
-        <x:v>1052</x:v>
+        <x:v>1051</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
         <x:v>1086</x:v>
@@ -930,16 +930,16 @@
         <x:v>373</x:v>
       </x:c>
       <x:c r="D17" s="1" t="n">
-        <x:v>1652</x:v>
+        <x:v>1653</x:v>
       </x:c>
       <x:c r="E17" s="1" t="n">
         <x:v>2740</x:v>
       </x:c>
       <x:c r="F17" s="1" t="n">
-        <x:v>2705</x:v>
+        <x:v>2706</x:v>
       </x:c>
       <x:c r="G17" s="1" t="n">
-        <x:v>957</x:v>
+        <x:v>956</x:v>
       </x:c>
       <x:c r="H17" s="1" t="n">
         <x:v>0</x:v>
@@ -1329,7 +1329,7 @@
         <x:v>2714</x:v>
       </x:c>
       <x:c r="G32" s="1" t="n">
-        <x:v>1098</x:v>
+        <x:v>1099</x:v>
       </x:c>
       <x:c r="H32" s="1" t="n">
         <x:v>0</x:v>
@@ -1580,7 +1580,7 @@
         <x:v>142</x:v>
       </x:c>
       <x:c r="D42" s="1" t="n">
-        <x:v>183</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="E42" s="1" t="n">
         <x:v>200</x:v>
@@ -1609,7 +1609,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E43" s="1" t="n">
-        <x:v>144</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="F43" s="1" t="n">
         <x:v>125</x:v>
@@ -1687,7 +1687,7 @@
         <x:v>704</x:v>
       </x:c>
       <x:c r="E46" s="1" t="n">
-        <x:v>664</x:v>
+        <x:v>663</x:v>
       </x:c>
       <x:c r="F46" s="1" t="n">
         <x:v>533</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -647,7 +647,7 @@
         <x:v>809</x:v>
       </x:c>
       <x:c r="E6" s="1" t="n">
-        <x:v>1130</x:v>
+        <x:v>1128</x:v>
       </x:c>
       <x:c r="F6" s="1" t="n">
         <x:v>1124</x:v>
@@ -673,7 +673,7 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>3772</x:v>
+        <x:v>3773</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
         <x:v>3989</x:v>
@@ -904,16 +904,16 @@
         <x:v>211</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
-        <x:v>636</x:v>
+        <x:v>634</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
-        <x:v>1051</x:v>
+        <x:v>1049</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
-        <x:v>1086</x:v>
+        <x:v>1085</x:v>
       </x:c>
       <x:c r="G16" s="1" t="n">
-        <x:v>277</x:v>
+        <x:v>276</x:v>
       </x:c>
       <x:c r="H16" s="1" t="n">
         <x:v>0</x:v>
@@ -930,16 +930,16 @@
         <x:v>373</x:v>
       </x:c>
       <x:c r="D17" s="1" t="n">
-        <x:v>1653</x:v>
+        <x:v>1647</x:v>
       </x:c>
       <x:c r="E17" s="1" t="n">
-        <x:v>2740</x:v>
+        <x:v>2730</x:v>
       </x:c>
       <x:c r="F17" s="1" t="n">
-        <x:v>2706</x:v>
+        <x:v>2704</x:v>
       </x:c>
       <x:c r="G17" s="1" t="n">
-        <x:v>956</x:v>
+        <x:v>955</x:v>
       </x:c>
       <x:c r="H17" s="1" t="n">
         <x:v>0</x:v>
@@ -1317,7 +1317,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C32" s="1" t="n">
-        <x:v>933</x:v>
+        <x:v>934</x:v>
       </x:c>
       <x:c r="D32" s="1" t="n">
         <x:v>1790</x:v>
@@ -1329,7 +1329,7 @@
         <x:v>2714</x:v>
       </x:c>
       <x:c r="G32" s="1" t="n">
-        <x:v>1099</x:v>
+        <x:v>1098</x:v>
       </x:c>
       <x:c r="H32" s="1" t="n">
         <x:v>0</x:v>
@@ -1687,7 +1687,7 @@
         <x:v>704</x:v>
       </x:c>
       <x:c r="E46" s="1" t="n">
-        <x:v>663</x:v>
+        <x:v>662</x:v>
       </x:c>
       <x:c r="F46" s="1" t="n">
         <x:v>533</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -647,7 +647,7 @@
         <x:v>809</x:v>
       </x:c>
       <x:c r="E6" s="1" t="n">
-        <x:v>1128</x:v>
+        <x:v>1129</x:v>
       </x:c>
       <x:c r="F6" s="1" t="n">
         <x:v>1124</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -904,13 +904,13 @@
         <x:v>211</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
-        <x:v>634</x:v>
+        <x:v>633</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
-        <x:v>1049</x:v>
+        <x:v>1048</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
-        <x:v>1085</x:v>
+        <x:v>1084</x:v>
       </x:c>
       <x:c r="G16" s="1" t="n">
         <x:v>276</x:v>
@@ -930,13 +930,13 @@
         <x:v>373</x:v>
       </x:c>
       <x:c r="D17" s="1" t="n">
-        <x:v>1647</x:v>
+        <x:v>1646</x:v>
       </x:c>
       <x:c r="E17" s="1" t="n">
-        <x:v>2730</x:v>
+        <x:v>2729</x:v>
       </x:c>
       <x:c r="F17" s="1" t="n">
-        <x:v>2704</x:v>
+        <x:v>2700</x:v>
       </x:c>
       <x:c r="G17" s="1" t="n">
         <x:v>955</x:v>
@@ -1326,7 +1326,7 @@
         <x:v>2760</x:v>
       </x:c>
       <x:c r="F32" s="1" t="n">
-        <x:v>2714</x:v>
+        <x:v>2713</x:v>
       </x:c>
       <x:c r="G32" s="1" t="n">
         <x:v>1098</x:v>
@@ -1372,7 +1372,7 @@
         <x:v>218</x:v>
       </x:c>
       <x:c r="D34" s="1" t="n">
-        <x:v>102</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="E34" s="1" t="n">
         <x:v>164</x:v>
@@ -1589,7 +1589,7 @@
         <x:v>276</x:v>
       </x:c>
       <x:c r="G42" s="1" t="n">
-        <x:v>140</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="H42" s="1" t="n">
         <x:v>0</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -803,7 +803,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="E12" s="1" t="n">
-        <x:v>62</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="F12" s="1" t="n">
         <x:v>97</x:v>
@@ -829,10 +829,10 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
-        <x:v>138</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="F13" s="1" t="n">
-        <x:v>175</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="G13" s="1" t="n">
         <x:v>44</x:v>
@@ -904,10 +904,10 @@
         <x:v>211</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
-        <x:v>633</x:v>
+        <x:v>635</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
-        <x:v>1048</x:v>
+        <x:v>1050</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
         <x:v>1084</x:v>
@@ -930,13 +930,13 @@
         <x:v>373</x:v>
       </x:c>
       <x:c r="D17" s="1" t="n">
-        <x:v>1646</x:v>
+        <x:v>1647</x:v>
       </x:c>
       <x:c r="E17" s="1" t="n">
-        <x:v>2729</x:v>
+        <x:v>2730</x:v>
       </x:c>
       <x:c r="F17" s="1" t="n">
-        <x:v>2700</x:v>
+        <x:v>2701</x:v>
       </x:c>
       <x:c r="G17" s="1" t="n">
         <x:v>955</x:v>
@@ -1066,7 +1066,7 @@
         <x:v>328</x:v>
       </x:c>
       <x:c r="F22" s="1" t="n">
-        <x:v>291</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="G22" s="1" t="n">
         <x:v>90</x:v>
@@ -1092,7 +1092,7 @@
         <x:v>518</x:v>
       </x:c>
       <x:c r="F23" s="1" t="n">
-        <x:v>532</x:v>
+        <x:v>533</x:v>
       </x:c>
       <x:c r="G23" s="1" t="n">
         <x:v>191</x:v>
@@ -1291,7 +1291,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C31" s="1" t="n">
-        <x:v>698</x:v>
+        <x:v>699</x:v>
       </x:c>
       <x:c r="D31" s="1" t="n">
         <x:v>1544</x:v>
@@ -1323,7 +1323,7 @@
         <x:v>1790</x:v>
       </x:c>
       <x:c r="E32" s="1" t="n">
-        <x:v>2760</x:v>
+        <x:v>2759</x:v>
       </x:c>
       <x:c r="F32" s="1" t="n">
         <x:v>2713</x:v>
@@ -1375,7 +1375,7 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="E34" s="1" t="n">
-        <x:v>164</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="F34" s="1" t="n">
         <x:v>153</x:v>
@@ -1635,7 +1635,7 @@
         <x:v>239</x:v>
       </x:c>
       <x:c r="E44" s="1" t="n">
-        <x:v>406</x:v>
+        <x:v>407</x:v>
       </x:c>
       <x:c r="F44" s="1" t="n">
         <x:v>398</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -670,13 +670,13 @@
         <x:v>1319</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>2018</x:v>
+        <x:v>2019</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
         <x:v>3773</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>3989</x:v>
+        <x:v>3990</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
         <x:v>1666</x:v>
@@ -933,10 +933,10 @@
         <x:v>1647</x:v>
       </x:c>
       <x:c r="E17" s="1" t="n">
-        <x:v>2730</x:v>
+        <x:v>2731</x:v>
       </x:c>
       <x:c r="F17" s="1" t="n">
-        <x:v>2701</x:v>
+        <x:v>2702</x:v>
       </x:c>
       <x:c r="G17" s="1" t="n">
         <x:v>955</x:v>
@@ -1066,7 +1066,7 @@
         <x:v>328</x:v>
       </x:c>
       <x:c r="F22" s="1" t="n">
-        <x:v>292</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="G22" s="1" t="n">
         <x:v>90</x:v>
@@ -1326,7 +1326,7 @@
         <x:v>2759</x:v>
       </x:c>
       <x:c r="F32" s="1" t="n">
-        <x:v>2713</x:v>
+        <x:v>2714</x:v>
       </x:c>
       <x:c r="G32" s="1" t="n">
         <x:v>1098</x:v>
@@ -1690,7 +1690,7 @@
         <x:v>662</x:v>
       </x:c>
       <x:c r="F46" s="1" t="n">
-        <x:v>533</x:v>
+        <x:v>534</x:v>
       </x:c>
       <x:c r="G46" s="1" t="n">
         <x:v>251</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -881,7 +881,7 @@
         <x:v>268</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
-        <x:v>433</x:v>
+        <x:v>432</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
         <x:v>402</x:v>
@@ -904,13 +904,13 @@
         <x:v>211</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
-        <x:v>635</x:v>
+        <x:v>634</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
         <x:v>1050</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
-        <x:v>1084</x:v>
+        <x:v>1083</x:v>
       </x:c>
       <x:c r="G16" s="1" t="n">
         <x:v>276</x:v>
@@ -930,13 +930,13 @@
         <x:v>373</x:v>
       </x:c>
       <x:c r="D17" s="1" t="n">
-        <x:v>1647</x:v>
+        <x:v>1648</x:v>
       </x:c>
       <x:c r="E17" s="1" t="n">
-        <x:v>2731</x:v>
+        <x:v>2732</x:v>
       </x:c>
       <x:c r="F17" s="1" t="n">
-        <x:v>2702</x:v>
+        <x:v>2700</x:v>
       </x:c>
       <x:c r="G17" s="1" t="n">
         <x:v>955</x:v>
@@ -1086,7 +1086,7 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="D23" s="1" t="n">
-        <x:v>342</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="E23" s="1" t="n">
         <x:v>518</x:v>
@@ -1291,7 +1291,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C31" s="1" t="n">
-        <x:v>699</x:v>
+        <x:v>700</x:v>
       </x:c>
       <x:c r="D31" s="1" t="n">
         <x:v>1544</x:v>
@@ -1300,7 +1300,7 @@
         <x:v>2159</x:v>
       </x:c>
       <x:c r="F31" s="1" t="n">
-        <x:v>2282</x:v>
+        <x:v>2283</x:v>
       </x:c>
       <x:c r="G31" s="1" t="n">
         <x:v>943</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -670,7 +670,7 @@
         <x:v>1319</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>2019</x:v>
+        <x:v>2020</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
         <x:v>3773</x:v>
@@ -881,13 +881,13 @@
         <x:v>268</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
-        <x:v>432</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
         <x:v>402</x:v>
       </x:c>
       <x:c r="G15" s="1" t="n">
-        <x:v>137</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="H15" s="1" t="n">
         <x:v>0</x:v>
@@ -930,7 +930,7 @@
         <x:v>373</x:v>
       </x:c>
       <x:c r="D17" s="1" t="n">
-        <x:v>1648</x:v>
+        <x:v>1647</x:v>
       </x:c>
       <x:c r="E17" s="1" t="n">
         <x:v>2732</x:v>
@@ -939,7 +939,7 @@
         <x:v>2700</x:v>
       </x:c>
       <x:c r="G17" s="1" t="n">
-        <x:v>955</x:v>
+        <x:v>956</x:v>
       </x:c>
       <x:c r="H17" s="1" t="n">
         <x:v>0</x:v>
@@ -1063,7 +1063,7 @@
         <x:v>203</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
-        <x:v>328</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="F22" s="1" t="n">
         <x:v>293</x:v>
@@ -1089,7 +1089,7 @@
         <x:v>343</x:v>
       </x:c>
       <x:c r="E23" s="1" t="n">
-        <x:v>518</x:v>
+        <x:v>519</x:v>
       </x:c>
       <x:c r="F23" s="1" t="n">
         <x:v>533</x:v>
@@ -1586,7 +1586,7 @@
         <x:v>200</x:v>
       </x:c>
       <x:c r="F42" s="1" t="n">
-        <x:v>276</x:v>
+        <x:v>277</x:v>
       </x:c>
       <x:c r="G42" s="1" t="n">
         <x:v>141</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -904,7 +904,7 @@
         <x:v>211</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
-        <x:v>634</x:v>
+        <x:v>633</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
         <x:v>1050</x:v>
@@ -933,7 +933,7 @@
         <x:v>1647</x:v>
       </x:c>
       <x:c r="E17" s="1" t="n">
-        <x:v>2732</x:v>
+        <x:v>2731</x:v>
       </x:c>
       <x:c r="F17" s="1" t="n">
         <x:v>2700</x:v>
@@ -1398,7 +1398,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D35" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E35" s="1" t="n">
         <x:v>3</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -806,7 +806,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="F12" s="1" t="n">
-        <x:v>97</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="G12" s="1" t="n">
         <x:v>14</x:v>
@@ -910,7 +910,7 @@
         <x:v>1050</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
-        <x:v>1083</x:v>
+        <x:v>1084</x:v>
       </x:c>
       <x:c r="G16" s="1" t="n">
         <x:v>276</x:v>
@@ -933,7 +933,7 @@
         <x:v>1647</x:v>
       </x:c>
       <x:c r="E17" s="1" t="n">
-        <x:v>2731</x:v>
+        <x:v>2733</x:v>
       </x:c>
       <x:c r="F17" s="1" t="n">
         <x:v>2700</x:v>
@@ -1323,7 +1323,7 @@
         <x:v>1790</x:v>
       </x:c>
       <x:c r="E32" s="1" t="n">
-        <x:v>2759</x:v>
+        <x:v>2760</x:v>
       </x:c>
       <x:c r="F32" s="1" t="n">
         <x:v>2714</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -641,7 +641,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>897</x:v>
+        <x:v>898</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
         <x:v>809</x:v>
@@ -673,13 +673,13 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>3773</x:v>
+        <x:v>3775</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
         <x:v>3990</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
-        <x:v>1666</x:v>
+        <x:v>1667</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
         <x:v>0</x:v>
@@ -910,10 +910,10 @@
         <x:v>1050</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
-        <x:v>1084</x:v>
+        <x:v>1085</x:v>
       </x:c>
       <x:c r="G16" s="1" t="n">
-        <x:v>276</x:v>
+        <x:v>277</x:v>
       </x:c>
       <x:c r="H16" s="1" t="n">
         <x:v>0</x:v>
@@ -936,10 +936,10 @@
         <x:v>2733</x:v>
       </x:c>
       <x:c r="F17" s="1" t="n">
-        <x:v>2700</x:v>
+        <x:v>2701</x:v>
       </x:c>
       <x:c r="G17" s="1" t="n">
-        <x:v>956</x:v>
+        <x:v>957</x:v>
       </x:c>
       <x:c r="H17" s="1" t="n">
         <x:v>0</x:v>
@@ -1063,7 +1063,7 @@
         <x:v>203</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
-        <x:v>329</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="F22" s="1" t="n">
         <x:v>293</x:v>
@@ -1089,7 +1089,7 @@
         <x:v>343</x:v>
       </x:c>
       <x:c r="E23" s="1" t="n">
-        <x:v>519</x:v>
+        <x:v>520</x:v>
       </x:c>
       <x:c r="F23" s="1" t="n">
         <x:v>533</x:v>
@@ -1297,7 +1297,7 @@
         <x:v>1544</x:v>
       </x:c>
       <x:c r="E31" s="1" t="n">
-        <x:v>2159</x:v>
+        <x:v>2160</x:v>
       </x:c>
       <x:c r="F31" s="1" t="n">
         <x:v>2283</x:v>
@@ -1326,7 +1326,7 @@
         <x:v>2760</x:v>
       </x:c>
       <x:c r="F32" s="1" t="n">
-        <x:v>2714</x:v>
+        <x:v>2717</x:v>
       </x:c>
       <x:c r="G32" s="1" t="n">
         <x:v>1098</x:v>
@@ -1693,7 +1693,7 @@
         <x:v>534</x:v>
       </x:c>
       <x:c r="G46" s="1" t="n">
-        <x:v>251</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="H46" s="1" t="n">
         <x:v>0</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -653,7 +653,7 @@
         <x:v>1124</x:v>
       </x:c>
       <x:c r="G6" s="1" t="n">
-        <x:v>414</x:v>
+        <x:v>413</x:v>
       </x:c>
       <x:c r="H6" s="1" t="n">
         <x:v>0</x:v>
@@ -679,7 +679,7 @@
         <x:v>3990</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
-        <x:v>1667</x:v>
+        <x:v>1668</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
         <x:v>0</x:v>
@@ -832,7 +832,7 @@
         <x:v>139</x:v>
       </x:c>
       <x:c r="F13" s="1" t="n">
-        <x:v>176</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="G13" s="1" t="n">
         <x:v>44</x:v>
@@ -936,7 +936,7 @@
         <x:v>2733</x:v>
       </x:c>
       <x:c r="F17" s="1" t="n">
-        <x:v>2701</x:v>
+        <x:v>2702</x:v>
       </x:c>
       <x:c r="G17" s="1" t="n">
         <x:v>957</x:v>
@@ -1577,7 +1577,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C42" s="1" t="n">
-        <x:v>142</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="D42" s="1" t="n">
         <x:v>184</x:v>
@@ -1687,7 +1687,7 @@
         <x:v>704</x:v>
       </x:c>
       <x:c r="E46" s="1" t="n">
-        <x:v>662</x:v>
+        <x:v>663</x:v>
       </x:c>
       <x:c r="F46" s="1" t="n">
         <x:v>534</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -644,7 +644,7 @@
         <x:v>898</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>809</x:v>
+        <x:v>810</x:v>
       </x:c>
       <x:c r="E6" s="1" t="n">
         <x:v>1129</x:v>
@@ -667,7 +667,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>1319</x:v>
+        <x:v>1318</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
         <x:v>2020</x:v>
@@ -930,13 +930,13 @@
         <x:v>373</x:v>
       </x:c>
       <x:c r="D17" s="1" t="n">
-        <x:v>1647</x:v>
+        <x:v>1648</x:v>
       </x:c>
       <x:c r="E17" s="1" t="n">
         <x:v>2733</x:v>
       </x:c>
       <x:c r="F17" s="1" t="n">
-        <x:v>2702</x:v>
+        <x:v>2703</x:v>
       </x:c>
       <x:c r="G17" s="1" t="n">
         <x:v>957</x:v>
@@ -1687,7 +1687,7 @@
         <x:v>704</x:v>
       </x:c>
       <x:c r="E46" s="1" t="n">
-        <x:v>663</x:v>
+        <x:v>664</x:v>
       </x:c>
       <x:c r="F46" s="1" t="n">
         <x:v>534</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -641,7 +641,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>898</x:v>
+        <x:v>899</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
         <x:v>810</x:v>
@@ -667,13 +667,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>1318</x:v>
+        <x:v>1319</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>2020</x:v>
+        <x:v>2021</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>3775</x:v>
+        <x:v>3774</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
         <x:v>3990</x:v>
@@ -777,7 +777,7 @@
         <x:v>204</x:v>
       </x:c>
       <x:c r="E11" s="1" t="n">
-        <x:v>372</x:v>
+        <x:v>374</x:v>
       </x:c>
       <x:c r="F11" s="1" t="n">
         <x:v>428</x:v>
@@ -881,7 +881,7 @@
         <x:v>268</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
-        <x:v>433</x:v>
+        <x:v>434</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
         <x:v>402</x:v>
@@ -907,7 +907,7 @@
         <x:v>633</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
-        <x:v>1050</x:v>
+        <x:v>1052</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
         <x:v>1085</x:v>
@@ -927,19 +927,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C17" s="1" t="n">
-        <x:v>373</x:v>
+        <x:v>374</x:v>
       </x:c>
       <x:c r="D17" s="1" t="n">
         <x:v>1648</x:v>
       </x:c>
       <x:c r="E17" s="1" t="n">
-        <x:v>2733</x:v>
+        <x:v>2734</x:v>
       </x:c>
       <x:c r="F17" s="1" t="n">
-        <x:v>2703</x:v>
+        <x:v>2704</x:v>
       </x:c>
       <x:c r="G17" s="1" t="n">
-        <x:v>957</x:v>
+        <x:v>958</x:v>
       </x:c>
       <x:c r="H17" s="1" t="n">
         <x:v>0</x:v>
@@ -1326,10 +1326,10 @@
         <x:v>2760</x:v>
       </x:c>
       <x:c r="F32" s="1" t="n">
-        <x:v>2717</x:v>
+        <x:v>2718</x:v>
       </x:c>
       <x:c r="G32" s="1" t="n">
-        <x:v>1098</x:v>
+        <x:v>1099</x:v>
       </x:c>
       <x:c r="H32" s="1" t="n">
         <x:v>0</x:v>
@@ -1684,7 +1684,7 @@
         <x:v>314</x:v>
       </x:c>
       <x:c r="D46" s="1" t="n">
-        <x:v>704</x:v>
+        <x:v>705</x:v>
       </x:c>
       <x:c r="E46" s="1" t="n">
         <x:v>664</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -644,7 +644,7 @@
         <x:v>899</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>810</x:v>
+        <x:v>811</x:v>
       </x:c>
       <x:c r="E6" s="1" t="n">
         <x:v>1129</x:v>
@@ -673,10 +673,10 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>3774</x:v>
+        <x:v>3776</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>3990</x:v>
+        <x:v>3991</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
         <x:v>1668</x:v>
@@ -780,7 +780,7 @@
         <x:v>374</x:v>
       </x:c>
       <x:c r="F11" s="1" t="n">
-        <x:v>428</x:v>
+        <x:v>429</x:v>
       </x:c>
       <x:c r="G11" s="1" t="n">
         <x:v>100</x:v>
@@ -806,7 +806,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="F12" s="1" t="n">
-        <x:v>98</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="G12" s="1" t="n">
         <x:v>14</x:v>
@@ -826,13 +826,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>66</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
         <x:v>139</x:v>
       </x:c>
       <x:c r="F13" s="1" t="n">
-        <x:v>177</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="G13" s="1" t="n">
         <x:v>44</x:v>
@@ -904,7 +904,7 @@
         <x:v>211</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
-        <x:v>633</x:v>
+        <x:v>634</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
         <x:v>1052</x:v>
@@ -927,13 +927,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C17" s="1" t="n">
-        <x:v>374</x:v>
+        <x:v>375</x:v>
       </x:c>
       <x:c r="D17" s="1" t="n">
         <x:v>1648</x:v>
       </x:c>
       <x:c r="E17" s="1" t="n">
-        <x:v>2734</x:v>
+        <x:v>2735</x:v>
       </x:c>
       <x:c r="F17" s="1" t="n">
         <x:v>2704</x:v>
@@ -1066,7 +1066,7 @@
         <x:v>330</x:v>
       </x:c>
       <x:c r="F22" s="1" t="n">
-        <x:v>293</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="G22" s="1" t="n">
         <x:v>90</x:v>
@@ -1086,16 +1086,16 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="D23" s="1" t="n">
-        <x:v>343</x:v>
+        <x:v>344</x:v>
       </x:c>
       <x:c r="E23" s="1" t="n">
-        <x:v>520</x:v>
+        <x:v>521</x:v>
       </x:c>
       <x:c r="F23" s="1" t="n">
-        <x:v>533</x:v>
+        <x:v>534</x:v>
       </x:c>
       <x:c r="G23" s="1" t="n">
-        <x:v>191</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="H23" s="1" t="n">
         <x:v>0</x:v>
@@ -1294,13 +1294,13 @@
         <x:v>700</x:v>
       </x:c>
       <x:c r="D31" s="1" t="n">
-        <x:v>1544</x:v>
+        <x:v>1545</x:v>
       </x:c>
       <x:c r="E31" s="1" t="n">
-        <x:v>2160</x:v>
+        <x:v>2161</x:v>
       </x:c>
       <x:c r="F31" s="1" t="n">
-        <x:v>2283</x:v>
+        <x:v>2285</x:v>
       </x:c>
       <x:c r="G31" s="1" t="n">
         <x:v>943</x:v>
@@ -1320,13 +1320,13 @@
         <x:v>934</x:v>
       </x:c>
       <x:c r="D32" s="1" t="n">
-        <x:v>1790</x:v>
+        <x:v>1792</x:v>
       </x:c>
       <x:c r="E32" s="1" t="n">
-        <x:v>2760</x:v>
+        <x:v>2761</x:v>
       </x:c>
       <x:c r="F32" s="1" t="n">
-        <x:v>2718</x:v>
+        <x:v>2720</x:v>
       </x:c>
       <x:c r="G32" s="1" t="n">
         <x:v>1099</x:v>
@@ -1375,10 +1375,10 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="E34" s="1" t="n">
-        <x:v>165</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="F34" s="1" t="n">
-        <x:v>153</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="G34" s="1" t="n">
         <x:v>28</x:v>
@@ -1586,10 +1586,10 @@
         <x:v>200</x:v>
       </x:c>
       <x:c r="F42" s="1" t="n">
-        <x:v>277</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="G42" s="1" t="n">
-        <x:v>141</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="H42" s="1" t="n">
         <x:v>0</x:v>
@@ -1684,7 +1684,7 @@
         <x:v>314</x:v>
       </x:c>
       <x:c r="D46" s="1" t="n">
-        <x:v>705</x:v>
+        <x:v>706</x:v>
       </x:c>
       <x:c r="E46" s="1" t="n">
         <x:v>664</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -641,7 +641,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>899</x:v>
+        <x:v>900</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
         <x:v>811</x:v>
@@ -650,7 +650,7 @@
         <x:v>1129</x:v>
       </x:c>
       <x:c r="F6" s="1" t="n">
-        <x:v>1124</x:v>
+        <x:v>1125</x:v>
       </x:c>
       <x:c r="G6" s="1" t="n">
         <x:v>413</x:v>
@@ -673,13 +673,13 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>3776</x:v>
+        <x:v>3777</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
         <x:v>3991</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
-        <x:v>1668</x:v>
+        <x:v>1667</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
         <x:v>0</x:v>
@@ -806,7 +806,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="F12" s="1" t="n">
-        <x:v>100</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="G12" s="1" t="n">
         <x:v>14</x:v>
@@ -829,7 +829,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
-        <x:v>139</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="F13" s="1" t="n">
         <x:v>178</x:v>
@@ -881,10 +881,10 @@
         <x:v>268</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
-        <x:v>434</x:v>
+        <x:v>435</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
-        <x:v>402</x:v>
+        <x:v>403</x:v>
       </x:c>
       <x:c r="G15" s="1" t="n">
         <x:v>138</x:v>
@@ -904,7 +904,7 @@
         <x:v>211</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
-        <x:v>634</x:v>
+        <x:v>633</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
         <x:v>1052</x:v>
@@ -930,16 +930,16 @@
         <x:v>375</x:v>
       </x:c>
       <x:c r="D17" s="1" t="n">
-        <x:v>1648</x:v>
+        <x:v>1649</x:v>
       </x:c>
       <x:c r="E17" s="1" t="n">
-        <x:v>2735</x:v>
+        <x:v>2733</x:v>
       </x:c>
       <x:c r="F17" s="1" t="n">
-        <x:v>2704</x:v>
+        <x:v>2703</x:v>
       </x:c>
       <x:c r="G17" s="1" t="n">
-        <x:v>958</x:v>
+        <x:v>956</x:v>
       </x:c>
       <x:c r="H17" s="1" t="n">
         <x:v>0</x:v>
@@ -1086,13 +1086,13 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="D23" s="1" t="n">
-        <x:v>344</x:v>
+        <x:v>345</x:v>
       </x:c>
       <x:c r="E23" s="1" t="n">
         <x:v>521</x:v>
       </x:c>
       <x:c r="F23" s="1" t="n">
-        <x:v>534</x:v>
+        <x:v>535</x:v>
       </x:c>
       <x:c r="G23" s="1" t="n">
         <x:v>192</x:v>
@@ -1303,7 +1303,7 @@
         <x:v>2285</x:v>
       </x:c>
       <x:c r="G31" s="1" t="n">
-        <x:v>943</x:v>
+        <x:v>944</x:v>
       </x:c>
       <x:c r="H31" s="1" t="n">
         <x:v>0</x:v>
@@ -1317,16 +1317,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C32" s="1" t="n">
-        <x:v>934</x:v>
+        <x:v>935</x:v>
       </x:c>
       <x:c r="D32" s="1" t="n">
         <x:v>1792</x:v>
       </x:c>
       <x:c r="E32" s="1" t="n">
-        <x:v>2761</x:v>
+        <x:v>2762</x:v>
       </x:c>
       <x:c r="F32" s="1" t="n">
-        <x:v>2720</x:v>
+        <x:v>2721</x:v>
       </x:c>
       <x:c r="G32" s="1" t="n">
         <x:v>1099</x:v>
@@ -1577,7 +1577,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C42" s="1" t="n">
-        <x:v>143</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="D42" s="1" t="n">
         <x:v>184</x:v>
@@ -1687,7 +1687,7 @@
         <x:v>706</x:v>
       </x:c>
       <x:c r="E46" s="1" t="n">
-        <x:v>664</x:v>
+        <x:v>666</x:v>
       </x:c>
       <x:c r="F46" s="1" t="n">
         <x:v>534</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -1317,7 +1317,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C32" s="1" t="n">
-        <x:v>935</x:v>
+        <x:v>936</x:v>
       </x:c>
       <x:c r="D32" s="1" t="n">
         <x:v>1792</x:v>
@@ -1378,7 +1378,7 @@
         <x:v>166</x:v>
       </x:c>
       <x:c r="F34" s="1" t="n">
-        <x:v>155</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="G34" s="1" t="n">
         <x:v>28</x:v>
@@ -1638,7 +1638,7 @@
         <x:v>407</x:v>
       </x:c>
       <x:c r="F44" s="1" t="n">
-        <x:v>398</x:v>
+        <x:v>399</x:v>
       </x:c>
       <x:c r="G44" s="1" t="n">
         <x:v>86</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -667,7 +667,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>1319</x:v>
+        <x:v>1320</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
         <x:v>2021</x:v>
@@ -803,7 +803,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="E12" s="1" t="n">
-        <x:v>64</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="F12" s="1" t="n">
         <x:v>101</x:v>
@@ -930,13 +930,13 @@
         <x:v>375</x:v>
       </x:c>
       <x:c r="D17" s="1" t="n">
-        <x:v>1649</x:v>
+        <x:v>1648</x:v>
       </x:c>
       <x:c r="E17" s="1" t="n">
         <x:v>2733</x:v>
       </x:c>
       <x:c r="F17" s="1" t="n">
-        <x:v>2703</x:v>
+        <x:v>2704</x:v>
       </x:c>
       <x:c r="G17" s="1" t="n">
         <x:v>956</x:v>
@@ -1589,7 +1589,7 @@
         <x:v>280</x:v>
       </x:c>
       <x:c r="G42" s="1" t="n">
-        <x:v>142</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="H42" s="1" t="n">
         <x:v>0</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -670,13 +670,13 @@
         <x:v>1320</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>2021</x:v>
+        <x:v>2022</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
         <x:v>3777</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>3991</x:v>
+        <x:v>3990</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
         <x:v>1667</x:v>
@@ -907,7 +907,7 @@
         <x:v>633</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
-        <x:v>1052</x:v>
+        <x:v>1053</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
         <x:v>1085</x:v>
@@ -936,7 +936,7 @@
         <x:v>2733</x:v>
       </x:c>
       <x:c r="F17" s="1" t="n">
-        <x:v>2704</x:v>
+        <x:v>2705</x:v>
       </x:c>
       <x:c r="G17" s="1" t="n">
         <x:v>956</x:v>
@@ -1069,7 +1069,7 @@
         <x:v>295</x:v>
       </x:c>
       <x:c r="G22" s="1" t="n">
-        <x:v>90</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="H22" s="1" t="n">
         <x:v>0</x:v>
@@ -1294,10 +1294,10 @@
         <x:v>700</x:v>
       </x:c>
       <x:c r="D31" s="1" t="n">
-        <x:v>1545</x:v>
+        <x:v>1546</x:v>
       </x:c>
       <x:c r="E31" s="1" t="n">
-        <x:v>2161</x:v>
+        <x:v>2162</x:v>
       </x:c>
       <x:c r="F31" s="1" t="n">
         <x:v>2285</x:v>
@@ -1589,7 +1589,7 @@
         <x:v>280</x:v>
       </x:c>
       <x:c r="G42" s="1" t="n">
-        <x:v>141</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="H42" s="1" t="n">
         <x:v>0</x:v>
@@ -1684,7 +1684,7 @@
         <x:v>314</x:v>
       </x:c>
       <x:c r="D46" s="1" t="n">
-        <x:v>706</x:v>
+        <x:v>707</x:v>
       </x:c>
       <x:c r="E46" s="1" t="n">
         <x:v>666</x:v>
@@ -1693,7 +1693,7 @@
         <x:v>534</x:v>
       </x:c>
       <x:c r="G46" s="1" t="n">
-        <x:v>252</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="H46" s="1" t="n">
         <x:v>0</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -676,7 +676,7 @@
         <x:v>3777</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>3990</x:v>
+        <x:v>3991</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
         <x:v>1667</x:v>
@@ -1095,7 +1095,7 @@
         <x:v>535</x:v>
       </x:c>
       <x:c r="G23" s="1" t="n">
-        <x:v>192</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="H23" s="1" t="n">
         <x:v>0</x:v>
@@ -1297,7 +1297,7 @@
         <x:v>1546</x:v>
       </x:c>
       <x:c r="E31" s="1" t="n">
-        <x:v>2162</x:v>
+        <x:v>2163</x:v>
       </x:c>
       <x:c r="F31" s="1" t="n">
         <x:v>2285</x:v>
@@ -1320,7 +1320,7 @@
         <x:v>936</x:v>
       </x:c>
       <x:c r="D32" s="1" t="n">
-        <x:v>1792</x:v>
+        <x:v>1793</x:v>
       </x:c>
       <x:c r="E32" s="1" t="n">
         <x:v>2762</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -875,7 +875,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C15" s="1" t="n">
-        <x:v>359</x:v>
+        <x:v>361</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
         <x:v>268</x:v>
@@ -930,16 +930,16 @@
         <x:v>375</x:v>
       </x:c>
       <x:c r="D17" s="1" t="n">
-        <x:v>1648</x:v>
+        <x:v>1649</x:v>
       </x:c>
       <x:c r="E17" s="1" t="n">
-        <x:v>2733</x:v>
+        <x:v>2732</x:v>
       </x:c>
       <x:c r="F17" s="1" t="n">
         <x:v>2705</x:v>
       </x:c>
       <x:c r="G17" s="1" t="n">
-        <x:v>956</x:v>
+        <x:v>955</x:v>
       </x:c>
       <x:c r="H17" s="1" t="n">
         <x:v>0</x:v>
@@ -1297,7 +1297,7 @@
         <x:v>1546</x:v>
       </x:c>
       <x:c r="E31" s="1" t="n">
-        <x:v>2163</x:v>
+        <x:v>2164</x:v>
       </x:c>
       <x:c r="F31" s="1" t="n">
         <x:v>2285</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -644,7 +644,7 @@
         <x:v>900</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>811</x:v>
+        <x:v>812</x:v>
       </x:c>
       <x:c r="E6" s="1" t="n">
         <x:v>1129</x:v>
@@ -679,7 +679,7 @@
         <x:v>3991</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
-        <x:v>1667</x:v>
+        <x:v>1668</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
         <x:v>0</x:v>
@@ -783,7 +783,7 @@
         <x:v>429</x:v>
       </x:c>
       <x:c r="G11" s="1" t="n">
-        <x:v>100</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="H11" s="1" t="n">
         <x:v>0</x:v>
@@ -910,10 +910,10 @@
         <x:v>1053</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
-        <x:v>1085</x:v>
+        <x:v>1086</x:v>
       </x:c>
       <x:c r="G16" s="1" t="n">
-        <x:v>277</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="H16" s="1" t="n">
         <x:v>0</x:v>
@@ -1060,7 +1060,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>203</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>330</x:v>
@@ -1323,13 +1323,13 @@
         <x:v>1793</x:v>
       </x:c>
       <x:c r="E32" s="1" t="n">
-        <x:v>2762</x:v>
+        <x:v>2763</x:v>
       </x:c>
       <x:c r="F32" s="1" t="n">
-        <x:v>2721</x:v>
+        <x:v>2722</x:v>
       </x:c>
       <x:c r="G32" s="1" t="n">
-        <x:v>1099</x:v>
+        <x:v>1101</x:v>
       </x:c>
       <x:c r="H32" s="1" t="n">
         <x:v>0</x:v>
@@ -1687,7 +1687,7 @@
         <x:v>707</x:v>
       </x:c>
       <x:c r="E46" s="1" t="n">
-        <x:v>666</x:v>
+        <x:v>667</x:v>
       </x:c>
       <x:c r="F46" s="1" t="n">
         <x:v>534</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -771,10 +771,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>178</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>204</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="E11" s="1" t="n">
         <x:v>374</x:v>
@@ -936,7 +936,7 @@
         <x:v>2732</x:v>
       </x:c>
       <x:c r="F17" s="1" t="n">
-        <x:v>2705</x:v>
+        <x:v>2704</x:v>
       </x:c>
       <x:c r="G17" s="1" t="n">
         <x:v>955</x:v>
@@ -1060,7 +1060,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>204</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>330</x:v>
@@ -1086,7 +1086,7 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="D23" s="1" t="n">
-        <x:v>345</x:v>
+        <x:v>346</x:v>
       </x:c>
       <x:c r="E23" s="1" t="n">
         <x:v>521</x:v>
@@ -1317,10 +1317,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C32" s="1" t="n">
-        <x:v>936</x:v>
+        <x:v>947</x:v>
       </x:c>
       <x:c r="D32" s="1" t="n">
-        <x:v>1793</x:v>
+        <x:v>1815</x:v>
       </x:c>
       <x:c r="E32" s="1" t="n">
         <x:v>2763</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -910,7 +910,7 @@
         <x:v>1053</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
-        <x:v>1086</x:v>
+        <x:v>1087</x:v>
       </x:c>
       <x:c r="G16" s="1" t="n">
         <x:v>278</x:v>
@@ -1294,7 +1294,7 @@
         <x:v>700</x:v>
       </x:c>
       <x:c r="D31" s="1" t="n">
-        <x:v>1546</x:v>
+        <x:v>1547</x:v>
       </x:c>
       <x:c r="E31" s="1" t="n">
         <x:v>2164</x:v>
@@ -1303,7 +1303,7 @@
         <x:v>2285</x:v>
       </x:c>
       <x:c r="G31" s="1" t="n">
-        <x:v>944</x:v>
+        <x:v>946</x:v>
       </x:c>
       <x:c r="H31" s="1" t="n">
         <x:v>0</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -777,7 +777,7 @@
         <x:v>206</x:v>
       </x:c>
       <x:c r="E11" s="1" t="n">
-        <x:v>374</x:v>
+        <x:v>375</x:v>
       </x:c>
       <x:c r="F11" s="1" t="n">
         <x:v>429</x:v>
@@ -832,7 +832,7 @@
         <x:v>140</x:v>
       </x:c>
       <x:c r="F13" s="1" t="n">
-        <x:v>178</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="G13" s="1" t="n">
         <x:v>44</x:v>
@@ -930,13 +930,13 @@
         <x:v>375</x:v>
       </x:c>
       <x:c r="D17" s="1" t="n">
-        <x:v>1649</x:v>
+        <x:v>1650</x:v>
       </x:c>
       <x:c r="E17" s="1" t="n">
         <x:v>2732</x:v>
       </x:c>
       <x:c r="F17" s="1" t="n">
-        <x:v>2704</x:v>
+        <x:v>2705</x:v>
       </x:c>
       <x:c r="G17" s="1" t="n">
         <x:v>955</x:v>
@@ -1167,7 +1167,7 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="E26" s="1" t="n">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="F26" s="1" t="n">
         <x:v>39</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -546,7 +546,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
         <x:v>15</x:v>
@@ -572,7 +572,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
         <x:v>12</x:v>
@@ -644,7 +644,7 @@
         <x:v>900</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>812</x:v>
+        <x:v>811</x:v>
       </x:c>
       <x:c r="E6" s="1" t="n">
         <x:v>1129</x:v>
@@ -670,16 +670,16 @@
         <x:v>1320</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>2022</x:v>
+        <x:v>2021</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>3777</x:v>
+        <x:v>3776</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
         <x:v>3991</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
-        <x:v>1668</x:v>
+        <x:v>1666</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
         <x:v>0</x:v>
@@ -933,7 +933,7 @@
         <x:v>1650</x:v>
       </x:c>
       <x:c r="E17" s="1" t="n">
-        <x:v>2732</x:v>
+        <x:v>2733</x:v>
       </x:c>
       <x:c r="F17" s="1" t="n">
         <x:v>2705</x:v>
@@ -1069,7 +1069,7 @@
         <x:v>295</x:v>
       </x:c>
       <x:c r="G22" s="1" t="n">
-        <x:v>91</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="H22" s="1" t="n">
         <x:v>0</x:v>
@@ -1086,10 +1086,10 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="D23" s="1" t="n">
-        <x:v>346</x:v>
+        <x:v>347</x:v>
       </x:c>
       <x:c r="E23" s="1" t="n">
-        <x:v>521</x:v>
+        <x:v>520</x:v>
       </x:c>
       <x:c r="F23" s="1" t="n">
         <x:v>535</x:v>
@@ -1291,7 +1291,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C31" s="1" t="n">
-        <x:v>700</x:v>
+        <x:v>697</x:v>
       </x:c>
       <x:c r="D31" s="1" t="n">
         <x:v>1547</x:v>
@@ -1303,7 +1303,7 @@
         <x:v>2285</x:v>
       </x:c>
       <x:c r="G31" s="1" t="n">
-        <x:v>946</x:v>
+        <x:v>945</x:v>
       </x:c>
       <x:c r="H31" s="1" t="n">
         <x:v>0</x:v>
@@ -1317,10 +1317,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C32" s="1" t="n">
-        <x:v>947</x:v>
+        <x:v>946</x:v>
       </x:c>
       <x:c r="D32" s="1" t="n">
-        <x:v>1815</x:v>
+        <x:v>1814</x:v>
       </x:c>
       <x:c r="E32" s="1" t="n">
         <x:v>2763</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -644,7 +644,7 @@
         <x:v>900</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>811</x:v>
+        <x:v>809</x:v>
       </x:c>
       <x:c r="E6" s="1" t="n">
         <x:v>1129</x:v>
@@ -670,16 +670,16 @@
         <x:v>1320</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>2021</x:v>
+        <x:v>2023</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>3776</x:v>
+        <x:v>3774</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>3991</x:v>
+        <x:v>3990</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
-        <x:v>1666</x:v>
+        <x:v>1667</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
         <x:v>0</x:v>
@@ -780,10 +780,10 @@
         <x:v>375</x:v>
       </x:c>
       <x:c r="F11" s="1" t="n">
-        <x:v>429</x:v>
+        <x:v>430</x:v>
       </x:c>
       <x:c r="G11" s="1" t="n">
-        <x:v>103</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="H11" s="1" t="n">
         <x:v>0</x:v>
@@ -901,7 +901,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C16" s="1" t="n">
-        <x:v>211</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
         <x:v>633</x:v>
@@ -930,7 +930,7 @@
         <x:v>375</x:v>
       </x:c>
       <x:c r="D17" s="1" t="n">
-        <x:v>1650</x:v>
+        <x:v>1651</x:v>
       </x:c>
       <x:c r="E17" s="1" t="n">
         <x:v>2733</x:v>
@@ -1086,7 +1086,7 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="D23" s="1" t="n">
-        <x:v>347</x:v>
+        <x:v>348</x:v>
       </x:c>
       <x:c r="E23" s="1" t="n">
         <x:v>520</x:v>
@@ -1291,19 +1291,19 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C31" s="1" t="n">
-        <x:v>697</x:v>
+        <x:v>695</x:v>
       </x:c>
       <x:c r="D31" s="1" t="n">
         <x:v>1547</x:v>
       </x:c>
       <x:c r="E31" s="1" t="n">
-        <x:v>2164</x:v>
+        <x:v>2165</x:v>
       </x:c>
       <x:c r="F31" s="1" t="n">
         <x:v>2285</x:v>
       </x:c>
       <x:c r="G31" s="1" t="n">
-        <x:v>945</x:v>
+        <x:v>946</x:v>
       </x:c>
       <x:c r="H31" s="1" t="n">
         <x:v>0</x:v>
@@ -1323,7 +1323,7 @@
         <x:v>1814</x:v>
       </x:c>
       <x:c r="E32" s="1" t="n">
-        <x:v>2763</x:v>
+        <x:v>2765</x:v>
       </x:c>
       <x:c r="F32" s="1" t="n">
         <x:v>2722</x:v>
@@ -1369,7 +1369,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C34" s="1" t="n">
-        <x:v>218</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="D34" s="1" t="n">
         <x:v>101</x:v>
@@ -1427,7 +1427,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="E36" s="1" t="n">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="F36" s="1" t="n">
         <x:v>38</x:v>
@@ -1684,7 +1684,7 @@
         <x:v>314</x:v>
       </x:c>
       <x:c r="D46" s="1" t="n">
-        <x:v>707</x:v>
+        <x:v>706</x:v>
       </x:c>
       <x:c r="E46" s="1" t="n">
         <x:v>667</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -641,7 +641,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>900</x:v>
+        <x:v>899</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
         <x:v>809</x:v>
@@ -650,7 +650,7 @@
         <x:v>1129</x:v>
       </x:c>
       <x:c r="F6" s="1" t="n">
-        <x:v>1125</x:v>
+        <x:v>1124</x:v>
       </x:c>
       <x:c r="G6" s="1" t="n">
         <x:v>413</x:v>
@@ -670,16 +670,16 @@
         <x:v>1320</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>2023</x:v>
+        <x:v>2022</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
         <x:v>3774</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>3990</x:v>
+        <x:v>3991</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
-        <x:v>1667</x:v>
+        <x:v>1666</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
         <x:v>0</x:v>
@@ -771,10 +771,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>179</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>206</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="E11" s="1" t="n">
         <x:v>375</x:v>
@@ -829,7 +829,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
-        <x:v>140</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="F13" s="1" t="n">
         <x:v>177</x:v>
@@ -884,7 +884,7 @@
         <x:v>435</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
-        <x:v>403</x:v>
+        <x:v>404</x:v>
       </x:c>
       <x:c r="G15" s="1" t="n">
         <x:v>138</x:v>
@@ -907,13 +907,13 @@
         <x:v>633</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
-        <x:v>1053</x:v>
+        <x:v>1054</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
         <x:v>1087</x:v>
       </x:c>
       <x:c r="G16" s="1" t="n">
-        <x:v>278</x:v>
+        <x:v>277</x:v>
       </x:c>
       <x:c r="H16" s="1" t="n">
         <x:v>0</x:v>
@@ -930,16 +930,16 @@
         <x:v>375</x:v>
       </x:c>
       <x:c r="D17" s="1" t="n">
-        <x:v>1651</x:v>
+        <x:v>1650</x:v>
       </x:c>
       <x:c r="E17" s="1" t="n">
-        <x:v>2733</x:v>
+        <x:v>2734</x:v>
       </x:c>
       <x:c r="F17" s="1" t="n">
-        <x:v>2705</x:v>
+        <x:v>2706</x:v>
       </x:c>
       <x:c r="G17" s="1" t="n">
-        <x:v>955</x:v>
+        <x:v>956</x:v>
       </x:c>
       <x:c r="H17" s="1" t="n">
         <x:v>0</x:v>
@@ -1083,7 +1083,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C23" s="1" t="n">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="D23" s="1" t="n">
         <x:v>348</x:v>
@@ -1300,7 +1300,7 @@
         <x:v>2165</x:v>
       </x:c>
       <x:c r="F31" s="1" t="n">
-        <x:v>2285</x:v>
+        <x:v>2283</x:v>
       </x:c>
       <x:c r="G31" s="1" t="n">
         <x:v>946</x:v>
@@ -1320,16 +1320,16 @@
         <x:v>946</x:v>
       </x:c>
       <x:c r="D32" s="1" t="n">
-        <x:v>1814</x:v>
+        <x:v>1815</x:v>
       </x:c>
       <x:c r="E32" s="1" t="n">
-        <x:v>2765</x:v>
+        <x:v>2764</x:v>
       </x:c>
       <x:c r="F32" s="1" t="n">
-        <x:v>2722</x:v>
+        <x:v>2723</x:v>
       </x:c>
       <x:c r="G32" s="1" t="n">
-        <x:v>1101</x:v>
+        <x:v>1102</x:v>
       </x:c>
       <x:c r="H32" s="1" t="n">
         <x:v>0</x:v>
@@ -1690,7 +1690,7 @@
         <x:v>667</x:v>
       </x:c>
       <x:c r="F46" s="1" t="n">
-        <x:v>534</x:v>
+        <x:v>535</x:v>
       </x:c>
       <x:c r="G46" s="1" t="n">
         <x:v>253</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -647,7 +647,7 @@
         <x:v>809</x:v>
       </x:c>
       <x:c r="E6" s="1" t="n">
-        <x:v>1129</x:v>
+        <x:v>1128</x:v>
       </x:c>
       <x:c r="F6" s="1" t="n">
         <x:v>1124</x:v>
@@ -803,7 +803,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="E12" s="1" t="n">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="F12" s="1" t="n">
         <x:v>101</x:v>
@@ -907,7 +907,7 @@
         <x:v>633</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
-        <x:v>1054</x:v>
+        <x:v>1053</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
         <x:v>1087</x:v>
@@ -933,7 +933,7 @@
         <x:v>1650</x:v>
       </x:c>
       <x:c r="E17" s="1" t="n">
-        <x:v>2734</x:v>
+        <x:v>2733</x:v>
       </x:c>
       <x:c r="F17" s="1" t="n">
         <x:v>2706</x:v>
@@ -1086,10 +1086,10 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="D23" s="1" t="n">
-        <x:v>348</x:v>
+        <x:v>349</x:v>
       </x:c>
       <x:c r="E23" s="1" t="n">
-        <x:v>520</x:v>
+        <x:v>521</x:v>
       </x:c>
       <x:c r="F23" s="1" t="n">
         <x:v>535</x:v>
@@ -1326,7 +1326,7 @@
         <x:v>2764</x:v>
       </x:c>
       <x:c r="F32" s="1" t="n">
-        <x:v>2723</x:v>
+        <x:v>2724</x:v>
       </x:c>
       <x:c r="G32" s="1" t="n">
         <x:v>1102</x:v>
@@ -1577,7 +1577,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C42" s="1" t="n">
-        <x:v>144</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="D42" s="1" t="n">
         <x:v>184</x:v>
@@ -1667,7 +1667,7 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="G45" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H45" s="1" t="n">
         <x:v>0</x:v>
@@ -1687,7 +1687,7 @@
         <x:v>706</x:v>
       </x:c>
       <x:c r="E46" s="1" t="n">
-        <x:v>667</x:v>
+        <x:v>668</x:v>
       </x:c>
       <x:c r="F46" s="1" t="n">
         <x:v>535</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -673,7 +673,7 @@
         <x:v>2022</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>3774</x:v>
+        <x:v>3775</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
         <x:v>3991</x:v>
@@ -803,7 +803,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="E12" s="1" t="n">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="F12" s="1" t="n">
         <x:v>101</x:v>
@@ -907,7 +907,7 @@
         <x:v>633</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
-        <x:v>1053</x:v>
+        <x:v>1054</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
         <x:v>1087</x:v>
@@ -939,7 +939,7 @@
         <x:v>2706</x:v>
       </x:c>
       <x:c r="G17" s="1" t="n">
-        <x:v>956</x:v>
+        <x:v>957</x:v>
       </x:c>
       <x:c r="H17" s="1" t="n">
         <x:v>0</x:v>
@@ -1069,7 +1069,7 @@
         <x:v>295</x:v>
       </x:c>
       <x:c r="G22" s="1" t="n">
-        <x:v>93</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="H22" s="1" t="n">
         <x:v>0</x:v>
@@ -1092,7 +1092,7 @@
         <x:v>521</x:v>
       </x:c>
       <x:c r="F23" s="1" t="n">
-        <x:v>535</x:v>
+        <x:v>536</x:v>
       </x:c>
       <x:c r="G23" s="1" t="n">
         <x:v>193</x:v>
@@ -1317,7 +1317,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C32" s="1" t="n">
-        <x:v>946</x:v>
+        <x:v>947</x:v>
       </x:c>
       <x:c r="D32" s="1" t="n">
         <x:v>1815</x:v>
@@ -1502,7 +1502,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="D39" s="1" t="n">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E39" s="1" t="n">
         <x:v>39</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -641,7 +641,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>899</x:v>
+        <x:v>898</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
         <x:v>809</x:v>
@@ -673,13 +673,13 @@
         <x:v>2022</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>3775</x:v>
+        <x:v>3777</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
         <x:v>3991</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
-        <x:v>1666</x:v>
+        <x:v>1667</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
         <x:v>0</x:v>
@@ -930,7 +930,7 @@
         <x:v>375</x:v>
       </x:c>
       <x:c r="D17" s="1" t="n">
-        <x:v>1650</x:v>
+        <x:v>1653</x:v>
       </x:c>
       <x:c r="E17" s="1" t="n">
         <x:v>2733</x:v>
@@ -1086,7 +1086,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="D23" s="1" t="n">
-        <x:v>349</x:v>
+        <x:v>348</x:v>
       </x:c>
       <x:c r="E23" s="1" t="n">
         <x:v>521</x:v>
@@ -1291,13 +1291,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C31" s="1" t="n">
-        <x:v>695</x:v>
+        <x:v>694</x:v>
       </x:c>
       <x:c r="D31" s="1" t="n">
         <x:v>1547</x:v>
       </x:c>
       <x:c r="E31" s="1" t="n">
-        <x:v>2165</x:v>
+        <x:v>2166</x:v>
       </x:c>
       <x:c r="F31" s="1" t="n">
         <x:v>2283</x:v>
@@ -1326,7 +1326,7 @@
         <x:v>2764</x:v>
       </x:c>
       <x:c r="F32" s="1" t="n">
-        <x:v>2724</x:v>
+        <x:v>2723</x:v>
       </x:c>
       <x:c r="G32" s="1" t="n">
         <x:v>1102</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -771,7 +771,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>177</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
         <x:v>205</x:v>
@@ -933,7 +933,7 @@
         <x:v>1653</x:v>
       </x:c>
       <x:c r="E17" s="1" t="n">
-        <x:v>2733</x:v>
+        <x:v>2734</x:v>
       </x:c>
       <x:c r="F17" s="1" t="n">
         <x:v>2706</x:v>
@@ -1323,7 +1323,7 @@
         <x:v>1815</x:v>
       </x:c>
       <x:c r="E32" s="1" t="n">
-        <x:v>2764</x:v>
+        <x:v>2765</x:v>
       </x:c>
       <x:c r="F32" s="1" t="n">
         <x:v>2723</x:v>
@@ -1580,7 +1580,7 @@
         <x:v>143</x:v>
       </x:c>
       <x:c r="D42" s="1" t="n">
-        <x:v>184</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="E42" s="1" t="n">
         <x:v>200</x:v>
@@ -1589,7 +1589,7 @@
         <x:v>280</x:v>
       </x:c>
       <x:c r="G42" s="1" t="n">
-        <x:v>142</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="H42" s="1" t="n">
         <x:v>0</x:v>
@@ -1687,7 +1687,7 @@
         <x:v>706</x:v>
       </x:c>
       <x:c r="E46" s="1" t="n">
-        <x:v>668</x:v>
+        <x:v>669</x:v>
       </x:c>
       <x:c r="F46" s="1" t="n">
         <x:v>535</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -644,13 +644,13 @@
         <x:v>898</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>809</x:v>
+        <x:v>810</x:v>
       </x:c>
       <x:c r="E6" s="1" t="n">
         <x:v>1128</x:v>
       </x:c>
       <x:c r="F6" s="1" t="n">
-        <x:v>1124</x:v>
+        <x:v>1125</x:v>
       </x:c>
       <x:c r="G6" s="1" t="n">
         <x:v>413</x:v>
@@ -806,7 +806,7 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="F12" s="1" t="n">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="G12" s="1" t="n">
         <x:v>14</x:v>
@@ -904,7 +904,7 @@
         <x:v>212</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
-        <x:v>633</x:v>
+        <x:v>634</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
         <x:v>1054</x:v>
@@ -930,13 +930,13 @@
         <x:v>375</x:v>
       </x:c>
       <x:c r="D17" s="1" t="n">
-        <x:v>1653</x:v>
+        <x:v>1652</x:v>
       </x:c>
       <x:c r="E17" s="1" t="n">
-        <x:v>2734</x:v>
+        <x:v>2733</x:v>
       </x:c>
       <x:c r="F17" s="1" t="n">
-        <x:v>2706</x:v>
+        <x:v>2707</x:v>
       </x:c>
       <x:c r="G17" s="1" t="n">
         <x:v>957</x:v>
@@ -1069,7 +1069,7 @@
         <x:v>295</x:v>
       </x:c>
       <x:c r="G22" s="1" t="n">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="H22" s="1" t="n">
         <x:v>0</x:v>
@@ -1326,10 +1326,10 @@
         <x:v>2765</x:v>
       </x:c>
       <x:c r="F32" s="1" t="n">
-        <x:v>2723</x:v>
+        <x:v>2725</x:v>
       </x:c>
       <x:c r="G32" s="1" t="n">
-        <x:v>1102</x:v>
+        <x:v>1103</x:v>
       </x:c>
       <x:c r="H32" s="1" t="n">
         <x:v>0</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -673,7 +673,7 @@
         <x:v>2022</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>3777</x:v>
+        <x:v>3778</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
         <x:v>3991</x:v>
@@ -754,7 +754,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
-        <x:v>130</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
         <x:v>28</x:v>
@@ -907,7 +907,7 @@
         <x:v>634</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
-        <x:v>1054</x:v>
+        <x:v>1055</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
         <x:v>1087</x:v>
@@ -936,7 +936,7 @@
         <x:v>2733</x:v>
       </x:c>
       <x:c r="F17" s="1" t="n">
-        <x:v>2707</x:v>
+        <x:v>2708</x:v>
       </x:c>
       <x:c r="G17" s="1" t="n">
         <x:v>957</x:v>
@@ -962,7 +962,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="F18" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G18" s="1" t="n">
         <x:v>6</x:v>
@@ -1297,7 +1297,7 @@
         <x:v>1547</x:v>
       </x:c>
       <x:c r="E31" s="1" t="n">
-        <x:v>2166</x:v>
+        <x:v>2167</x:v>
       </x:c>
       <x:c r="F31" s="1" t="n">
         <x:v>2283</x:v>
@@ -1323,7 +1323,7 @@
         <x:v>1815</x:v>
       </x:c>
       <x:c r="E32" s="1" t="n">
-        <x:v>2765</x:v>
+        <x:v>2766</x:v>
       </x:c>
       <x:c r="F32" s="1" t="n">
         <x:v>2725</x:v>
@@ -1667,7 +1667,7 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="G45" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="H45" s="1" t="n">
         <x:v>0</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -647,7 +647,7 @@
         <x:v>810</x:v>
       </x:c>
       <x:c r="E6" s="1" t="n">
-        <x:v>1128</x:v>
+        <x:v>1129</x:v>
       </x:c>
       <x:c r="F6" s="1" t="n">
         <x:v>1125</x:v>
@@ -676,7 +676,7 @@
         <x:v>3778</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>3991</x:v>
+        <x:v>3992</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
         <x:v>1667</x:v>
@@ -881,10 +881,10 @@
         <x:v>268</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
-        <x:v>435</x:v>
+        <x:v>434</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
-        <x:v>404</x:v>
+        <x:v>405</x:v>
       </x:c>
       <x:c r="G15" s="1" t="n">
         <x:v>138</x:v>
@@ -933,10 +933,10 @@
         <x:v>1652</x:v>
       </x:c>
       <x:c r="E17" s="1" t="n">
-        <x:v>2733</x:v>
+        <x:v>2732</x:v>
       </x:c>
       <x:c r="F17" s="1" t="n">
-        <x:v>2708</x:v>
+        <x:v>2707</x:v>
       </x:c>
       <x:c r="G17" s="1" t="n">
         <x:v>957</x:v>
@@ -1069,7 +1069,7 @@
         <x:v>295</x:v>
       </x:c>
       <x:c r="G22" s="1" t="n">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="H22" s="1" t="n">
         <x:v>0</x:v>
@@ -1294,7 +1294,7 @@
         <x:v>694</x:v>
       </x:c>
       <x:c r="D31" s="1" t="n">
-        <x:v>1547</x:v>
+        <x:v>1548</x:v>
       </x:c>
       <x:c r="E31" s="1" t="n">
         <x:v>2167</x:v>
@@ -1323,13 +1323,13 @@
         <x:v>1815</x:v>
       </x:c>
       <x:c r="E32" s="1" t="n">
-        <x:v>2766</x:v>
+        <x:v>2767</x:v>
       </x:c>
       <x:c r="F32" s="1" t="n">
-        <x:v>2725</x:v>
+        <x:v>2724</x:v>
       </x:c>
       <x:c r="G32" s="1" t="n">
-        <x:v>1103</x:v>
+        <x:v>1104</x:v>
       </x:c>
       <x:c r="H32" s="1" t="n">
         <x:v>0</x:v>
@@ -1632,7 +1632,7 @@
         <x:v>232</x:v>
       </x:c>
       <x:c r="D44" s="1" t="n">
-        <x:v>239</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="E44" s="1" t="n">
         <x:v>407</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -647,7 +647,7 @@
         <x:v>810</x:v>
       </x:c>
       <x:c r="E6" s="1" t="n">
-        <x:v>1129</x:v>
+        <x:v>1130</x:v>
       </x:c>
       <x:c r="F6" s="1" t="n">
         <x:v>1125</x:v>
@@ -670,10 +670,10 @@
         <x:v>1320</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>2022</x:v>
+        <x:v>2021</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>3778</x:v>
+        <x:v>3779</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
         <x:v>3992</x:v>
@@ -780,7 +780,7 @@
         <x:v>375</x:v>
       </x:c>
       <x:c r="F11" s="1" t="n">
-        <x:v>430</x:v>
+        <x:v>431</x:v>
       </x:c>
       <x:c r="G11" s="1" t="n">
         <x:v>104</x:v>
@@ -858,7 +858,7 @@
         <x:v>132</x:v>
       </x:c>
       <x:c r="F14" s="1" t="n">
-        <x:v>109</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="G14" s="1" t="n">
         <x:v>30</x:v>
@@ -878,7 +878,7 @@
         <x:v>361</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
-        <x:v>268</x:v>
+        <x:v>273</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
         <x:v>434</x:v>
@@ -933,7 +933,7 @@
         <x:v>1652</x:v>
       </x:c>
       <x:c r="E17" s="1" t="n">
-        <x:v>2732</x:v>
+        <x:v>2731</x:v>
       </x:c>
       <x:c r="F17" s="1" t="n">
         <x:v>2707</x:v>
@@ -1063,7 +1063,7 @@
         <x:v>205</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
-        <x:v>330</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="F22" s="1" t="n">
         <x:v>295</x:v>
@@ -1092,7 +1092,7 @@
         <x:v>521</x:v>
       </x:c>
       <x:c r="F23" s="1" t="n">
-        <x:v>536</x:v>
+        <x:v>537</x:v>
       </x:c>
       <x:c r="G23" s="1" t="n">
         <x:v>193</x:v>
@@ -1300,10 +1300,10 @@
         <x:v>2167</x:v>
       </x:c>
       <x:c r="F31" s="1" t="n">
-        <x:v>2283</x:v>
+        <x:v>2284</x:v>
       </x:c>
       <x:c r="G31" s="1" t="n">
-        <x:v>946</x:v>
+        <x:v>947</x:v>
       </x:c>
       <x:c r="H31" s="1" t="n">
         <x:v>0</x:v>
@@ -1323,7 +1323,7 @@
         <x:v>1815</x:v>
       </x:c>
       <x:c r="E32" s="1" t="n">
-        <x:v>2767</x:v>
+        <x:v>2769</x:v>
       </x:c>
       <x:c r="F32" s="1" t="n">
         <x:v>2724</x:v>
@@ -1612,7 +1612,7 @@
         <x:v>145</x:v>
       </x:c>
       <x:c r="F43" s="1" t="n">
-        <x:v>125</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="G43" s="1" t="n">
         <x:v>15</x:v>
@@ -1687,10 +1687,10 @@
         <x:v>706</x:v>
       </x:c>
       <x:c r="E46" s="1" t="n">
-        <x:v>669</x:v>
+        <x:v>668</x:v>
       </x:c>
       <x:c r="F46" s="1" t="n">
-        <x:v>535</x:v>
+        <x:v>534</x:v>
       </x:c>
       <x:c r="G46" s="1" t="n">
         <x:v>253</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -641,19 +641,19 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>898</x:v>
+        <x:v>899</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
         <x:v>810</x:v>
       </x:c>
       <x:c r="E6" s="1" t="n">
-        <x:v>1130</x:v>
+        <x:v>1132</x:v>
       </x:c>
       <x:c r="F6" s="1" t="n">
-        <x:v>1125</x:v>
+        <x:v>1129</x:v>
       </x:c>
       <x:c r="G6" s="1" t="n">
-        <x:v>413</x:v>
+        <x:v>414</x:v>
       </x:c>
       <x:c r="H6" s="1" t="n">
         <x:v>0</x:v>
@@ -667,19 +667,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>1320</x:v>
+        <x:v>1321</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>2021</x:v>
+        <x:v>2023</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>3779</x:v>
+        <x:v>3780</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>3992</x:v>
+        <x:v>3996</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
-        <x:v>1667</x:v>
+        <x:v>1668</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
         <x:v>0</x:v>
@@ -780,7 +780,7 @@
         <x:v>375</x:v>
       </x:c>
       <x:c r="F11" s="1" t="n">
-        <x:v>431</x:v>
+        <x:v>432</x:v>
       </x:c>
       <x:c r="G11" s="1" t="n">
         <x:v>104</x:v>
@@ -832,7 +832,7 @@
         <x:v>141</x:v>
       </x:c>
       <x:c r="F13" s="1" t="n">
-        <x:v>177</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="G13" s="1" t="n">
         <x:v>44</x:v>
@@ -852,10 +852,10 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="D14" s="1" t="n">
-        <x:v>104</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="E14" s="1" t="n">
-        <x:v>132</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="F14" s="1" t="n">
         <x:v>108</x:v>
@@ -884,7 +884,7 @@
         <x:v>434</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
-        <x:v>405</x:v>
+        <x:v>406</x:v>
       </x:c>
       <x:c r="G15" s="1" t="n">
         <x:v>138</x:v>
@@ -910,7 +910,7 @@
         <x:v>1055</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
-        <x:v>1087</x:v>
+        <x:v>1091</x:v>
       </x:c>
       <x:c r="G16" s="1" t="n">
         <x:v>277</x:v>
@@ -933,13 +933,13 @@
         <x:v>1652</x:v>
       </x:c>
       <x:c r="E17" s="1" t="n">
-        <x:v>2731</x:v>
+        <x:v>2732</x:v>
       </x:c>
       <x:c r="F17" s="1" t="n">
-        <x:v>2707</x:v>
+        <x:v>2710</x:v>
       </x:c>
       <x:c r="G17" s="1" t="n">
-        <x:v>957</x:v>
+        <x:v>958</x:v>
       </x:c>
       <x:c r="H17" s="1" t="n">
         <x:v>0</x:v>
@@ -1063,7 +1063,7 @@
         <x:v>205</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
-        <x:v>331</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="F22" s="1" t="n">
         <x:v>295</x:v>
@@ -1086,7 +1086,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="D23" s="1" t="n">
-        <x:v>348</x:v>
+        <x:v>347</x:v>
       </x:c>
       <x:c r="E23" s="1" t="n">
         <x:v>521</x:v>
@@ -1095,7 +1095,7 @@
         <x:v>537</x:v>
       </x:c>
       <x:c r="G23" s="1" t="n">
-        <x:v>193</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="H23" s="1" t="n">
         <x:v>0</x:v>
@@ -1300,7 +1300,7 @@
         <x:v>2167</x:v>
       </x:c>
       <x:c r="F31" s="1" t="n">
-        <x:v>2284</x:v>
+        <x:v>2283</x:v>
       </x:c>
       <x:c r="G31" s="1" t="n">
         <x:v>947</x:v>
@@ -1320,10 +1320,10 @@
         <x:v>947</x:v>
       </x:c>
       <x:c r="D32" s="1" t="n">
-        <x:v>1815</x:v>
+        <x:v>1817</x:v>
       </x:c>
       <x:c r="E32" s="1" t="n">
-        <x:v>2769</x:v>
+        <x:v>2770</x:v>
       </x:c>
       <x:c r="F32" s="1" t="n">
         <x:v>2724</x:v>
@@ -1375,7 +1375,7 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="E34" s="1" t="n">
-        <x:v>166</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="F34" s="1" t="n">
         <x:v>154</x:v>
@@ -1577,16 +1577,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C42" s="1" t="n">
-        <x:v>143</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="D42" s="1" t="n">
-        <x:v>185</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="E42" s="1" t="n">
         <x:v>200</x:v>
       </x:c>
       <x:c r="F42" s="1" t="n">
-        <x:v>280</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="G42" s="1" t="n">
         <x:v>141</x:v>
@@ -1632,7 +1632,7 @@
         <x:v>232</x:v>
       </x:c>
       <x:c r="D44" s="1" t="n">
-        <x:v>238</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="E44" s="1" t="n">
         <x:v>407</x:v>
@@ -1664,7 +1664,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="F45" s="1" t="n">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="G45" s="1" t="n">
         <x:v>10</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -667,7 +667,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>1321</x:v>
+        <x:v>1322</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
         <x:v>2023</x:v>
@@ -679,7 +679,7 @@
         <x:v>3996</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
-        <x:v>1668</x:v>
+        <x:v>1671</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
         <x:v>0</x:v>
@@ -849,7 +849,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C14" s="1" t="n">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="D14" s="1" t="n">
         <x:v>105</x:v>
@@ -933,10 +933,10 @@
         <x:v>1652</x:v>
       </x:c>
       <x:c r="E17" s="1" t="n">
-        <x:v>2732</x:v>
+        <x:v>2733</x:v>
       </x:c>
       <x:c r="F17" s="1" t="n">
-        <x:v>2710</x:v>
+        <x:v>2711</x:v>
       </x:c>
       <x:c r="G17" s="1" t="n">
         <x:v>958</x:v>
@@ -1323,10 +1323,10 @@
         <x:v>1817</x:v>
       </x:c>
       <x:c r="E32" s="1" t="n">
-        <x:v>2770</x:v>
+        <x:v>2771</x:v>
       </x:c>
       <x:c r="F32" s="1" t="n">
-        <x:v>2724</x:v>
+        <x:v>2723</x:v>
       </x:c>
       <x:c r="G32" s="1" t="n">
         <x:v>1104</x:v>
@@ -1687,7 +1687,7 @@
         <x:v>706</x:v>
       </x:c>
       <x:c r="E46" s="1" t="n">
-        <x:v>668</x:v>
+        <x:v>669</x:v>
       </x:c>
       <x:c r="F46" s="1" t="n">
         <x:v>534</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -933,7 +933,7 @@
         <x:v>1652</x:v>
       </x:c>
       <x:c r="E17" s="1" t="n">
-        <x:v>2733</x:v>
+        <x:v>2734</x:v>
       </x:c>
       <x:c r="F17" s="1" t="n">
         <x:v>2711</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -927,7 +927,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C17" s="1" t="n">
-        <x:v>375</x:v>
+        <x:v>376</x:v>
       </x:c>
       <x:c r="D17" s="1" t="n">
         <x:v>1652</x:v>
@@ -936,7 +936,7 @@
         <x:v>2734</x:v>
       </x:c>
       <x:c r="F17" s="1" t="n">
-        <x:v>2711</x:v>
+        <x:v>2712</x:v>
       </x:c>
       <x:c r="G17" s="1" t="n">
         <x:v>958</x:v>
@@ -1066,7 +1066,7 @@
         <x:v>330</x:v>
       </x:c>
       <x:c r="F22" s="1" t="n">
-        <x:v>295</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="G22" s="1" t="n">
         <x:v>96</x:v>
@@ -1297,7 +1297,7 @@
         <x:v>1548</x:v>
       </x:c>
       <x:c r="E31" s="1" t="n">
-        <x:v>2167</x:v>
+        <x:v>2168</x:v>
       </x:c>
       <x:c r="F31" s="1" t="n">
         <x:v>2283</x:v>
@@ -1323,10 +1323,10 @@
         <x:v>1817</x:v>
       </x:c>
       <x:c r="E32" s="1" t="n">
-        <x:v>2771</x:v>
+        <x:v>2772</x:v>
       </x:c>
       <x:c r="F32" s="1" t="n">
-        <x:v>2723</x:v>
+        <x:v>2725</x:v>
       </x:c>
       <x:c r="G32" s="1" t="n">
         <x:v>1104</x:v>
@@ -1577,7 +1577,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C42" s="1" t="n">
-        <x:v>144</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="D42" s="1" t="n">
         <x:v>186</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -647,13 +647,13 @@
         <x:v>810</x:v>
       </x:c>
       <x:c r="E6" s="1" t="n">
-        <x:v>1132</x:v>
+        <x:v>1131</x:v>
       </x:c>
       <x:c r="F6" s="1" t="n">
         <x:v>1129</x:v>
       </x:c>
       <x:c r="G6" s="1" t="n">
-        <x:v>414</x:v>
+        <x:v>413</x:v>
       </x:c>
       <x:c r="H6" s="1" t="n">
         <x:v>0</x:v>
@@ -673,13 +673,13 @@
         <x:v>2023</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>3780</x:v>
+        <x:v>3779</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
         <x:v>3996</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
-        <x:v>1671</x:v>
+        <x:v>1670</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
         <x:v>0</x:v>
@@ -855,7 +855,7 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="E14" s="1" t="n">
-        <x:v>133</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="F14" s="1" t="n">
         <x:v>108</x:v>
@@ -881,7 +881,7 @@
         <x:v>273</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
-        <x:v>434</x:v>
+        <x:v>435</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
         <x:v>406</x:v>
@@ -907,7 +907,7 @@
         <x:v>634</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
-        <x:v>1055</x:v>
+        <x:v>1057</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
         <x:v>1091</x:v>
@@ -930,13 +930,13 @@
         <x:v>376</x:v>
       </x:c>
       <x:c r="D17" s="1" t="n">
-        <x:v>1652</x:v>
+        <x:v>1653</x:v>
       </x:c>
       <x:c r="E17" s="1" t="n">
-        <x:v>2734</x:v>
+        <x:v>2738</x:v>
       </x:c>
       <x:c r="F17" s="1" t="n">
-        <x:v>2712</x:v>
+        <x:v>2713</x:v>
       </x:c>
       <x:c r="G17" s="1" t="n">
         <x:v>958</x:v>
@@ -1092,7 +1092,7 @@
         <x:v>521</x:v>
       </x:c>
       <x:c r="F23" s="1" t="n">
-        <x:v>537</x:v>
+        <x:v>538</x:v>
       </x:c>
       <x:c r="G23" s="1" t="n">
         <x:v>194</x:v>
@@ -1297,7 +1297,7 @@
         <x:v>1548</x:v>
       </x:c>
       <x:c r="E31" s="1" t="n">
-        <x:v>2168</x:v>
+        <x:v>2169</x:v>
       </x:c>
       <x:c r="F31" s="1" t="n">
         <x:v>2283</x:v>
@@ -1323,10 +1323,10 @@
         <x:v>1817</x:v>
       </x:c>
       <x:c r="E32" s="1" t="n">
-        <x:v>2772</x:v>
+        <x:v>2773</x:v>
       </x:c>
       <x:c r="F32" s="1" t="n">
-        <x:v>2725</x:v>
+        <x:v>2726</x:v>
       </x:c>
       <x:c r="G32" s="1" t="n">
         <x:v>1104</x:v>
@@ -1369,7 +1369,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C34" s="1" t="n">
-        <x:v>220</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="D34" s="1" t="n">
         <x:v>101</x:v>
@@ -1629,7 +1629,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C44" s="1" t="n">
-        <x:v>232</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="D44" s="1" t="n">
         <x:v>239</x:v>
@@ -1638,7 +1638,7 @@
         <x:v>407</x:v>
       </x:c>
       <x:c r="F44" s="1" t="n">
-        <x:v>399</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="G44" s="1" t="n">
         <x:v>86</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -641,7 +641,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>899</x:v>
+        <x:v>900</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
         <x:v>810</x:v>
@@ -936,7 +936,7 @@
         <x:v>2738</x:v>
       </x:c>
       <x:c r="F17" s="1" t="n">
-        <x:v>2713</x:v>
+        <x:v>2712</x:v>
       </x:c>
       <x:c r="G17" s="1" t="n">
         <x:v>958</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -933,7 +933,7 @@
         <x:v>1653</x:v>
       </x:c>
       <x:c r="E17" s="1" t="n">
-        <x:v>2738</x:v>
+        <x:v>2740</x:v>
       </x:c>
       <x:c r="F17" s="1" t="n">
         <x:v>2712</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -653,7 +653,7 @@
         <x:v>1129</x:v>
       </x:c>
       <x:c r="G6" s="1" t="n">
-        <x:v>413</x:v>
+        <x:v>414</x:v>
       </x:c>
       <x:c r="H6" s="1" t="n">
         <x:v>0</x:v>
@@ -930,13 +930,13 @@
         <x:v>376</x:v>
       </x:c>
       <x:c r="D17" s="1" t="n">
-        <x:v>1653</x:v>
+        <x:v>1652</x:v>
       </x:c>
       <x:c r="E17" s="1" t="n">
-        <x:v>2740</x:v>
+        <x:v>2739</x:v>
       </x:c>
       <x:c r="F17" s="1" t="n">
-        <x:v>2712</x:v>
+        <x:v>2711</x:v>
       </x:c>
       <x:c r="G17" s="1" t="n">
         <x:v>958</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -644,7 +644,7 @@
         <x:v>900</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>810</x:v>
+        <x:v>811</x:v>
       </x:c>
       <x:c r="E6" s="1" t="n">
         <x:v>1131</x:v>
@@ -673,10 +673,10 @@
         <x:v>2023</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>3779</x:v>
+        <x:v>3778</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>3996</x:v>
+        <x:v>3997</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
         <x:v>1670</x:v>
@@ -780,7 +780,7 @@
         <x:v>375</x:v>
       </x:c>
       <x:c r="F11" s="1" t="n">
-        <x:v>432</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="G11" s="1" t="n">
         <x:v>104</x:v>
@@ -875,7 +875,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C15" s="1" t="n">
-        <x:v>361</x:v>
+        <x:v>362</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
         <x:v>273</x:v>
@@ -884,7 +884,7 @@
         <x:v>435</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
-        <x:v>406</x:v>
+        <x:v>407</x:v>
       </x:c>
       <x:c r="G15" s="1" t="n">
         <x:v>138</x:v>
@@ -907,10 +907,10 @@
         <x:v>634</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
-        <x:v>1057</x:v>
+        <x:v>1055</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
-        <x:v>1091</x:v>
+        <x:v>1092</x:v>
       </x:c>
       <x:c r="G16" s="1" t="n">
         <x:v>277</x:v>
@@ -936,10 +936,10 @@
         <x:v>2739</x:v>
       </x:c>
       <x:c r="F17" s="1" t="n">
-        <x:v>2711</x:v>
+        <x:v>2712</x:v>
       </x:c>
       <x:c r="G17" s="1" t="n">
-        <x:v>958</x:v>
+        <x:v>959</x:v>
       </x:c>
       <x:c r="H17" s="1" t="n">
         <x:v>0</x:v>
@@ -1086,7 +1086,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="D23" s="1" t="n">
-        <x:v>347</x:v>
+        <x:v>349</x:v>
       </x:c>
       <x:c r="E23" s="1" t="n">
         <x:v>521</x:v>
@@ -1297,10 +1297,10 @@
         <x:v>1548</x:v>
       </x:c>
       <x:c r="E31" s="1" t="n">
-        <x:v>2169</x:v>
+        <x:v>2170</x:v>
       </x:c>
       <x:c r="F31" s="1" t="n">
-        <x:v>2283</x:v>
+        <x:v>2284</x:v>
       </x:c>
       <x:c r="G31" s="1" t="n">
         <x:v>947</x:v>
@@ -1326,7 +1326,7 @@
         <x:v>2773</x:v>
       </x:c>
       <x:c r="F32" s="1" t="n">
-        <x:v>2726</x:v>
+        <x:v>2727</x:v>
       </x:c>
       <x:c r="G32" s="1" t="n">
         <x:v>1104</x:v>
@@ -1502,7 +1502,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="D39" s="1" t="n">
-        <x:v>37</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="E39" s="1" t="n">
         <x:v>39</x:v>
@@ -1531,7 +1531,7 @@
         <x:v>186</x:v>
       </x:c>
       <x:c r="E40" s="1" t="n">
-        <x:v>159</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="F40" s="1" t="n">
         <x:v>95</x:v>
@@ -1583,10 +1583,10 @@
         <x:v>186</x:v>
       </x:c>
       <x:c r="E42" s="1" t="n">
-        <x:v>200</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="F42" s="1" t="n">
-        <x:v>281</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="G42" s="1" t="n">
         <x:v>141</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -670,10 +670,10 @@
         <x:v>1322</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>2023</x:v>
+        <x:v>2024</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>3778</x:v>
+        <x:v>3780</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
         <x:v>3997</x:v>
@@ -907,10 +907,10 @@
         <x:v>634</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
-        <x:v>1055</x:v>
+        <x:v>1056</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
-        <x:v>1092</x:v>
+        <x:v>1093</x:v>
       </x:c>
       <x:c r="G16" s="1" t="n">
         <x:v>277</x:v>
@@ -930,13 +930,13 @@
         <x:v>376</x:v>
       </x:c>
       <x:c r="D17" s="1" t="n">
-        <x:v>1652</x:v>
+        <x:v>1653</x:v>
       </x:c>
       <x:c r="E17" s="1" t="n">
-        <x:v>2739</x:v>
+        <x:v>2740</x:v>
       </x:c>
       <x:c r="F17" s="1" t="n">
-        <x:v>2712</x:v>
+        <x:v>2713</x:v>
       </x:c>
       <x:c r="G17" s="1" t="n">
         <x:v>959</x:v>
@@ -1323,10 +1323,10 @@
         <x:v>1817</x:v>
       </x:c>
       <x:c r="E32" s="1" t="n">
-        <x:v>2773</x:v>
+        <x:v>2774</x:v>
       </x:c>
       <x:c r="F32" s="1" t="n">
-        <x:v>2727</x:v>
+        <x:v>2728</x:v>
       </x:c>
       <x:c r="G32" s="1" t="n">
         <x:v>1104</x:v>
@@ -1525,7 +1525,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C40" s="1" t="n">
-        <x:v>180</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="D40" s="1" t="n">
         <x:v>186</x:v>
@@ -1687,7 +1687,7 @@
         <x:v>706</x:v>
       </x:c>
       <x:c r="E46" s="1" t="n">
-        <x:v>669</x:v>
+        <x:v>670</x:v>
       </x:c>
       <x:c r="F46" s="1" t="n">
         <x:v>534</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -641,7 +641,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>900</x:v>
+        <x:v>901</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
         <x:v>811</x:v>
@@ -667,7 +667,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>1322</x:v>
+        <x:v>1323</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
         <x:v>2024</x:v>
@@ -676,7 +676,7 @@
         <x:v>3780</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>3997</x:v>
+        <x:v>3998</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
         <x:v>1670</x:v>
@@ -933,7 +933,7 @@
         <x:v>1653</x:v>
       </x:c>
       <x:c r="E17" s="1" t="n">
-        <x:v>2740</x:v>
+        <x:v>2741</x:v>
       </x:c>
       <x:c r="F17" s="1" t="n">
         <x:v>2713</x:v>
@@ -1089,7 +1089,7 @@
         <x:v>349</x:v>
       </x:c>
       <x:c r="E23" s="1" t="n">
-        <x:v>521</x:v>
+        <x:v>522</x:v>
       </x:c>
       <x:c r="F23" s="1" t="n">
         <x:v>538</x:v>
@@ -1291,7 +1291,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C31" s="1" t="n">
-        <x:v>694</x:v>
+        <x:v>696</x:v>
       </x:c>
       <x:c r="D31" s="1" t="n">
         <x:v>1548</x:v>
@@ -1687,7 +1687,7 @@
         <x:v>706</x:v>
       </x:c>
       <x:c r="E46" s="1" t="n">
-        <x:v>670</x:v>
+        <x:v>671</x:v>
       </x:c>
       <x:c r="F46" s="1" t="n">
         <x:v>534</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -667,19 +667,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>1323</x:v>
+        <x:v>1325</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>2024</x:v>
+        <x:v>2025</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
         <x:v>3780</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>3998</x:v>
+        <x:v>3999</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
-        <x:v>1670</x:v>
+        <x:v>1669</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
         <x:v>0</x:v>
@@ -771,7 +771,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>175</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
         <x:v>205</x:v>
@@ -826,7 +826,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
         <x:v>141</x:v>
@@ -904,7 +904,7 @@
         <x:v>212</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
-        <x:v>634</x:v>
+        <x:v>635</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
         <x:v>1056</x:v>
@@ -913,7 +913,7 @@
         <x:v>1093</x:v>
       </x:c>
       <x:c r="G16" s="1" t="n">
-        <x:v>277</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="H16" s="1" t="n">
         <x:v>0</x:v>
@@ -936,7 +936,7 @@
         <x:v>2741</x:v>
       </x:c>
       <x:c r="F17" s="1" t="n">
-        <x:v>2713</x:v>
+        <x:v>2714</x:v>
       </x:c>
       <x:c r="G17" s="1" t="n">
         <x:v>959</x:v>
@@ -1294,7 +1294,7 @@
         <x:v>696</x:v>
       </x:c>
       <x:c r="D31" s="1" t="n">
-        <x:v>1548</x:v>
+        <x:v>1547</x:v>
       </x:c>
       <x:c r="E31" s="1" t="n">
         <x:v>2170</x:v>
@@ -1586,7 +1586,7 @@
         <x:v>202</x:v>
       </x:c>
       <x:c r="F42" s="1" t="n">
-        <x:v>283</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="G42" s="1" t="n">
         <x:v>141</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -771,7 +771,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>176</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
         <x:v>205</x:v>
@@ -904,16 +904,16 @@
         <x:v>212</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
-        <x:v>635</x:v>
+        <x:v>636</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
-        <x:v>1056</x:v>
+        <x:v>1057</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
         <x:v>1093</x:v>
       </x:c>
       <x:c r="G16" s="1" t="n">
-        <x:v>278</x:v>
+        <x:v>277</x:v>
       </x:c>
       <x:c r="H16" s="1" t="n">
         <x:v>0</x:v>
@@ -933,10 +933,10 @@
         <x:v>1653</x:v>
       </x:c>
       <x:c r="E17" s="1" t="n">
-        <x:v>2741</x:v>
+        <x:v>2742</x:v>
       </x:c>
       <x:c r="F17" s="1" t="n">
-        <x:v>2714</x:v>
+        <x:v>2713</x:v>
       </x:c>
       <x:c r="G17" s="1" t="n">
         <x:v>959</x:v>
@@ -1086,7 +1086,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="D23" s="1" t="n">
-        <x:v>349</x:v>
+        <x:v>350</x:v>
       </x:c>
       <x:c r="E23" s="1" t="n">
         <x:v>522</x:v>
@@ -1170,7 +1170,7 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="F26" s="1" t="n">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="G26" s="1" t="n">
         <x:v>17</x:v>
@@ -1687,7 +1687,7 @@
         <x:v>706</x:v>
       </x:c>
       <x:c r="E46" s="1" t="n">
-        <x:v>671</x:v>
+        <x:v>672</x:v>
       </x:c>
       <x:c r="F46" s="1" t="n">
         <x:v>534</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -875,7 +875,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C15" s="1" t="n">
-        <x:v>362</x:v>
+        <x:v>366</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
         <x:v>273</x:v>
@@ -1502,7 +1502,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="D39" s="1" t="n">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E39" s="1" t="n">
         <x:v>39</x:v>
@@ -1531,7 +1531,7 @@
         <x:v>186</x:v>
       </x:c>
       <x:c r="E40" s="1" t="n">
-        <x:v>158</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="F40" s="1" t="n">
         <x:v>95</x:v>
@@ -1681,7 +1681,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C46" s="1" t="n">
-        <x:v>314</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="D46" s="1" t="n">
         <x:v>706</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -670,7 +670,7 @@
         <x:v>1325</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>2025</x:v>
+        <x:v>2026</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
         <x:v>3780</x:v>
@@ -913,7 +913,7 @@
         <x:v>1093</x:v>
       </x:c>
       <x:c r="G16" s="1" t="n">
-        <x:v>277</x:v>
+        <x:v>276</x:v>
       </x:c>
       <x:c r="H16" s="1" t="n">
         <x:v>0</x:v>
@@ -1317,7 +1317,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C32" s="1" t="n">
-        <x:v>947</x:v>
+        <x:v>948</x:v>
       </x:c>
       <x:c r="D32" s="1" t="n">
         <x:v>1817</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -647,7 +647,7 @@
         <x:v>811</x:v>
       </x:c>
       <x:c r="E6" s="1" t="n">
-        <x:v>1131</x:v>
+        <x:v>1132</x:v>
       </x:c>
       <x:c r="F6" s="1" t="n">
         <x:v>1129</x:v>
@@ -676,7 +676,7 @@
         <x:v>3780</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>3999</x:v>
+        <x:v>4000</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
         <x:v>1669</x:v>
@@ -904,13 +904,13 @@
         <x:v>212</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
-        <x:v>636</x:v>
+        <x:v>635</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
-        <x:v>1057</x:v>
+        <x:v>1058</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
-        <x:v>1093</x:v>
+        <x:v>1094</x:v>
       </x:c>
       <x:c r="G16" s="1" t="n">
         <x:v>276</x:v>
@@ -930,13 +930,13 @@
         <x:v>376</x:v>
       </x:c>
       <x:c r="D17" s="1" t="n">
-        <x:v>1653</x:v>
+        <x:v>1655</x:v>
       </x:c>
       <x:c r="E17" s="1" t="n">
-        <x:v>2742</x:v>
+        <x:v>2743</x:v>
       </x:c>
       <x:c r="F17" s="1" t="n">
-        <x:v>2713</x:v>
+        <x:v>2714</x:v>
       </x:c>
       <x:c r="G17" s="1" t="n">
         <x:v>959</x:v>
@@ -1089,7 +1089,7 @@
         <x:v>350</x:v>
       </x:c>
       <x:c r="E23" s="1" t="n">
-        <x:v>522</x:v>
+        <x:v>523</x:v>
       </x:c>
       <x:c r="F23" s="1" t="n">
         <x:v>538</x:v>
@@ -1297,10 +1297,10 @@
         <x:v>1547</x:v>
       </x:c>
       <x:c r="E31" s="1" t="n">
-        <x:v>2170</x:v>
+        <x:v>2171</x:v>
       </x:c>
       <x:c r="F31" s="1" t="n">
-        <x:v>2284</x:v>
+        <x:v>2285</x:v>
       </x:c>
       <x:c r="G31" s="1" t="n">
         <x:v>947</x:v>
@@ -1317,7 +1317,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C32" s="1" t="n">
-        <x:v>948</x:v>
+        <x:v>949</x:v>
       </x:c>
       <x:c r="D32" s="1" t="n">
         <x:v>1817</x:v>
@@ -1329,7 +1329,7 @@
         <x:v>2728</x:v>
       </x:c>
       <x:c r="G32" s="1" t="n">
-        <x:v>1104</x:v>
+        <x:v>1105</x:v>
       </x:c>
       <x:c r="H32" s="1" t="n">
         <x:v>0</x:v>
@@ -1525,7 +1525,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C40" s="1" t="n">
-        <x:v>179</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="D40" s="1" t="n">
         <x:v>186</x:v>
@@ -1661,7 +1661,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E45" s="1" t="n">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="F45" s="1" t="n">
         <x:v>63</x:v>
@@ -1687,7 +1687,7 @@
         <x:v>706</x:v>
       </x:c>
       <x:c r="E46" s="1" t="n">
-        <x:v>672</x:v>
+        <x:v>673</x:v>
       </x:c>
       <x:c r="F46" s="1" t="n">
         <x:v>534</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -1089,7 +1089,7 @@
         <x:v>350</x:v>
       </x:c>
       <x:c r="E23" s="1" t="n">
-        <x:v>523</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="F23" s="1" t="n">
         <x:v>538</x:v>
@@ -1629,7 +1629,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C44" s="1" t="n">
-        <x:v>235</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="D44" s="1" t="n">
         <x:v>239</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -115,7 +115,7 @@
     <x:t>414</x:t>
   </x:si>
   <x:si>
-    <x:t>1326</x:t>
+    <x:t>1327</x:t>
   </x:si>
   <x:si>
     <x:t>2026</x:t>
@@ -247,10 +247,10 @@
     <x:t>1653</x:t>
   </x:si>
   <x:si>
-    <x:t>2742</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2718</x:t>
+    <x:t>2741</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2716</x:t>
   </x:si>
   <x:si>
     <x:t>960</x:t>
@@ -313,6 +313,9 @@
     <x:t>50</x:t>
   </x:si>
   <x:si>
+    <x:t>52</x:t>
+  </x:si>
+  <x:si>
     <x:t>40</x:t>
   </x:si>
   <x:si>
@@ -340,7 +343,7 @@
     <x:t>696</x:t>
   </x:si>
   <x:si>
-    <x:t>1548</x:t>
+    <x:t>1549</x:t>
   </x:si>
   <x:si>
     <x:t>2170</x:t>
@@ -373,9 +376,6 @@
     <x:t>37</x:t>
   </x:si>
   <x:si>
-    <x:t>52</x:t>
-  </x:si>
-  <x:si>
     <x:t>217</x:t>
   </x:si>
   <x:si>
@@ -427,7 +427,7 @@
     <x:t>202</x:t>
   </x:si>
   <x:si>
-    <x:t>285</x:t>
+    <x:t>286</x:t>
   </x:si>
   <x:si>
     <x:t>Stolen Property Offenses</x:t>
@@ -1539,13 +1539,13 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="E26" s="1" t="s">
-        <x:v>98</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="F26" s="1" t="s">
-        <x:v>99</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="G26" s="1" t="s">
-        <x:v>100</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="H26" s="1" t="s">
         <x:v>10</x:v>
@@ -1553,7 +1553,7 @@
     </x:row>
     <x:row r="27" spans="1:8">
       <x:c r="A27" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
         <x:v>9</x:v>
@@ -1579,7 +1579,7 @@
     </x:row>
     <x:row r="28" spans="1:8">
       <x:c r="A28" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
         <x:v>15</x:v>
@@ -1605,7 +1605,7 @@
     </x:row>
     <x:row r="29" spans="1:8">
       <x:c r="A29" s="0" t="s">
-        <x:v>102</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
         <x:v>9</x:v>
@@ -1620,7 +1620,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="F29" s="1" t="s">
-        <x:v>103</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="G29" s="1" t="s">
         <x:v>22</x:v>
@@ -1631,7 +1631,7 @@
     </x:row>
     <x:row r="30" spans="1:8">
       <x:c r="A30" s="0" t="s">
-        <x:v>102</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
         <x:v>15</x:v>
@@ -1643,13 +1643,13 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E30" s="1" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="F30" s="1" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="G30" s="1" t="s">
         <x:v>104</x:v>
-      </x:c>
-      <x:c r="F30" s="1" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="G30" s="1" t="s">
-        <x:v>103</x:v>
       </x:c>
       <x:c r="H30" s="1" t="s">
         <x:v>10</x:v>
@@ -1657,25 +1657,25 @@
     </x:row>
     <x:row r="31" spans="1:8">
       <x:c r="A31" s="0" t="s">
-        <x:v>106</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C31" s="1" t="s">
-        <x:v>107</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="D31" s="1" t="s">
-        <x:v>108</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="E31" s="1" t="s">
-        <x:v>109</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="F31" s="1" t="s">
-        <x:v>110</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="G31" s="1" t="s">
-        <x:v>111</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="H31" s="1" t="s">
         <x:v>10</x:v>
@@ -1683,25 +1683,25 @@
     </x:row>
     <x:row r="32" spans="1:8">
       <x:c r="A32" s="0" t="s">
-        <x:v>106</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C32" s="1" t="s">
-        <x:v>112</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="D32" s="1" t="s">
-        <x:v>113</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="E32" s="1" t="s">
-        <x:v>114</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="F32" s="1" t="s">
-        <x:v>115</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="G32" s="1" t="s">
-        <x:v>116</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="H32" s="1" t="s">
         <x:v>10</x:v>
@@ -1709,7 +1709,7 @@
     </x:row>
     <x:row r="33" spans="1:8">
       <x:c r="A33" s="0" t="s">
-        <x:v>117</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
         <x:v>9</x:v>
@@ -1718,13 +1718,13 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="D33" s="1" t="s">
-        <x:v>118</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="E33" s="1" t="s">
         <x:v>98</x:v>
       </x:c>
       <x:c r="F33" s="1" t="s">
-        <x:v>119</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="G33" s="1" t="s">
         <x:v>81</x:v>
@@ -1735,7 +1735,7 @@
     </x:row>
     <x:row r="34" spans="1:8">
       <x:c r="A34" s="0" t="s">
-        <x:v>117</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
         <x:v>15</x:v>
@@ -1793,13 +1793,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C36" s="1" t="s">
-        <x:v>105</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="D36" s="1" t="s">
         <x:v>126</x:v>
       </x:c>
       <x:c r="E36" s="1" t="s">
-        <x:v>99</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="F36" s="1" t="s">
         <x:v>127</x:v>
@@ -1874,13 +1874,13 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="D39" s="1" t="s">
-        <x:v>118</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="E39" s="1" t="s">
         <x:v>85</x:v>
       </x:c>
       <x:c r="F39" s="1" t="s">
-        <x:v>100</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="G39" s="1" t="s">
         <x:v>125</x:v>
@@ -2039,7 +2039,7 @@
         <x:v>151</x:v>
       </x:c>
       <x:c r="G45" s="1" t="s">
-        <x:v>103</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="H45" s="1" t="s">
         <x:v>10</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -175,9 +175,6 @@
     <x:t>65</x:t>
   </x:si>
   <x:si>
-    <x:t>103</x:t>
-  </x:si>
-  <x:si>
     <x:t>14</x:t>
   </x:si>
   <x:si>
@@ -232,7 +229,7 @@
     <x:t>635</x:t>
   </x:si>
   <x:si>
-    <x:t>1059</x:t>
+    <x:t>1060</x:t>
   </x:si>
   <x:si>
     <x:t>1094</x:t>
@@ -247,7 +244,7 @@
     <x:t>1653</x:t>
   </x:si>
   <x:si>
-    <x:t>2741</x:t>
+    <x:t>2742</x:t>
   </x:si>
   <x:si>
     <x:t>2716</x:t>
@@ -277,10 +274,10 @@
     <x:t>205</x:t>
   </x:si>
   <x:si>
-    <x:t>330</x:t>
-  </x:si>
-  <x:si>
-    <x:t>296</x:t>
+    <x:t>331</x:t>
+  </x:si>
+  <x:si>
+    <x:t>297</x:t>
   </x:si>
   <x:si>
     <x:t>96</x:t>
@@ -364,7 +361,7 @@
     <x:t>2775</x:t>
   </x:si>
   <x:si>
-    <x:t>2730</x:t>
+    <x:t>2731</x:t>
   </x:si>
   <x:si>
     <x:t>1105</x:t>
@@ -451,7 +448,7 @@
     <x:t>407</x:t>
   </x:si>
   <x:si>
-    <x:t>400</x:t>
+    <x:t>401</x:t>
   </x:si>
   <x:si>
     <x:t>86</x:t>
@@ -1178,10 +1175,10 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="F12" s="1" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="G12" s="1" t="s">
         <x:v>53</x:v>
-      </x:c>
-      <x:c r="G12" s="1" t="s">
-        <x:v>54</x:v>
       </x:c>
       <x:c r="H12" s="1" t="s">
         <x:v>10</x:v>
@@ -1198,16 +1195,16 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="D13" s="1" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="E13" s="1" t="s">
         <x:v>55</x:v>
       </x:c>
-      <x:c r="E13" s="1" t="s">
+      <x:c r="F13" s="1" t="s">
         <x:v>56</x:v>
       </x:c>
-      <x:c r="F13" s="1" t="s">
+      <x:c r="G13" s="1" t="s">
         <x:v>57</x:v>
-      </x:c>
-      <x:c r="G13" s="1" t="s">
-        <x:v>58</x:v>
       </x:c>
       <x:c r="H13" s="1" t="s">
         <x:v>10</x:v>
@@ -1215,25 +1212,25 @@
     </x:row>
     <x:row r="14" spans="1:8">
       <x:c r="A14" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C14" s="1" t="s">
         <x:v>59</x:v>
       </x:c>
-      <x:c r="B14" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="C14" s="1" t="s">
+      <x:c r="D14" s="1" t="s">
         <x:v>60</x:v>
       </x:c>
-      <x:c r="D14" s="1" t="s">
+      <x:c r="E14" s="1" t="s">
         <x:v>61</x:v>
-      </x:c>
-      <x:c r="E14" s="1" t="s">
-        <x:v>62</x:v>
       </x:c>
       <x:c r="F14" s="1" t="s">
         <x:v>42</x:v>
       </x:c>
       <x:c r="G14" s="1" t="s">
-        <x:v>63</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="H14" s="1" t="s">
         <x:v>10</x:v>
@@ -1241,25 +1238,25 @@
     </x:row>
     <x:row r="15" spans="1:8">
       <x:c r="A15" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C15" s="1" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="D15" s="1" t="s">
         <x:v>64</x:v>
       </x:c>
-      <x:c r="D15" s="1" t="s">
+      <x:c r="E15" s="1" t="s">
         <x:v>65</x:v>
       </x:c>
-      <x:c r="E15" s="1" t="s">
+      <x:c r="F15" s="1" t="s">
         <x:v>66</x:v>
       </x:c>
-      <x:c r="F15" s="1" t="s">
+      <x:c r="G15" s="1" t="s">
         <x:v>67</x:v>
-      </x:c>
-      <x:c r="G15" s="1" t="s">
-        <x:v>68</x:v>
       </x:c>
       <x:c r="H15" s="1" t="s">
         <x:v>10</x:v>
@@ -1267,25 +1264,25 @@
     </x:row>
     <x:row r="16" spans="1:8">
       <x:c r="A16" s="0" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C16" s="1" t="s">
         <x:v>69</x:v>
       </x:c>
-      <x:c r="B16" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="C16" s="1" t="s">
+      <x:c r="D16" s="1" t="s">
         <x:v>70</x:v>
       </x:c>
-      <x:c r="D16" s="1" t="s">
+      <x:c r="E16" s="1" t="s">
         <x:v>71</x:v>
       </x:c>
-      <x:c r="E16" s="1" t="s">
+      <x:c r="F16" s="1" t="s">
         <x:v>72</x:v>
       </x:c>
-      <x:c r="F16" s="1" t="s">
+      <x:c r="G16" s="1" t="s">
         <x:v>73</x:v>
-      </x:c>
-      <x:c r="G16" s="1" t="s">
-        <x:v>74</x:v>
       </x:c>
       <x:c r="H16" s="1" t="s">
         <x:v>10</x:v>
@@ -1293,25 +1290,25 @@
     </x:row>
     <x:row r="17" spans="1:8">
       <x:c r="A17" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C17" s="1" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="D17" s="1" t="s">
         <x:v>75</x:v>
       </x:c>
-      <x:c r="D17" s="1" t="s">
+      <x:c r="E17" s="1" t="s">
         <x:v>76</x:v>
       </x:c>
-      <x:c r="E17" s="1" t="s">
+      <x:c r="F17" s="1" t="s">
         <x:v>77</x:v>
       </x:c>
-      <x:c r="F17" s="1" t="s">
+      <x:c r="G17" s="1" t="s">
         <x:v>78</x:v>
-      </x:c>
-      <x:c r="G17" s="1" t="s">
-        <x:v>79</x:v>
       </x:c>
       <x:c r="H17" s="1" t="s">
         <x:v>10</x:v>
@@ -1319,7 +1316,7 @@
     </x:row>
     <x:row r="18" spans="1:8">
       <x:c r="A18" s="0" t="s">
-        <x:v>80</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
         <x:v>9</x:v>
@@ -1331,10 +1328,10 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E18" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="F18" s="1" t="s">
-        <x:v>54</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G18" s="1" t="s">
         <x:v>23</x:v>
@@ -1345,7 +1342,7 @@
     </x:row>
     <x:row r="19" spans="1:8">
       <x:c r="A19" s="0" t="s">
-        <x:v>80</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
         <x:v>15</x:v>
@@ -1363,7 +1360,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="G19" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="H19" s="1" t="s">
         <x:v>10</x:v>
@@ -1371,7 +1368,7 @@
     </x:row>
     <x:row r="20" spans="1:8">
       <x:c r="A20" s="0" t="s">
-        <x:v>83</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
         <x:v>9</x:v>
@@ -1397,7 +1394,7 @@
     </x:row>
     <x:row r="21" spans="1:8">
       <x:c r="A21" s="0" t="s">
-        <x:v>83</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
         <x:v>15</x:v>
@@ -1423,25 +1420,25 @@
     </x:row>
     <x:row r="22" spans="1:8">
       <x:c r="A22" s="0" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="B22" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C22" s="1" t="s">
         <x:v>84</x:v>
       </x:c>
-      <x:c r="B22" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="C22" s="1" t="s">
+      <x:c r="D22" s="1" t="s">
         <x:v>85</x:v>
       </x:c>
-      <x:c r="D22" s="1" t="s">
+      <x:c r="E22" s="1" t="s">
         <x:v>86</x:v>
       </x:c>
-      <x:c r="E22" s="1" t="s">
+      <x:c r="F22" s="1" t="s">
         <x:v>87</x:v>
       </x:c>
-      <x:c r="F22" s="1" t="s">
+      <x:c r="G22" s="1" t="s">
         <x:v>88</x:v>
-      </x:c>
-      <x:c r="G22" s="1" t="s">
-        <x:v>89</x:v>
       </x:c>
       <x:c r="H22" s="1" t="s">
         <x:v>10</x:v>
@@ -1449,25 +1446,25 @@
     </x:row>
     <x:row r="23" spans="1:8">
       <x:c r="A23" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C23" s="1" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="D23" s="1" t="s">
         <x:v>90</x:v>
       </x:c>
-      <x:c r="D23" s="1" t="s">
+      <x:c r="E23" s="1" t="s">
         <x:v>91</x:v>
       </x:c>
-      <x:c r="E23" s="1" t="s">
+      <x:c r="F23" s="1" t="s">
         <x:v>92</x:v>
       </x:c>
-      <x:c r="F23" s="1" t="s">
+      <x:c r="G23" s="1" t="s">
         <x:v>93</x:v>
-      </x:c>
-      <x:c r="G23" s="1" t="s">
-        <x:v>94</x:v>
       </x:c>
       <x:c r="H23" s="1" t="s">
         <x:v>10</x:v>
@@ -1475,7 +1472,7 @@
     </x:row>
     <x:row r="24" spans="1:8">
       <x:c r="A24" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
         <x:v>15</x:v>
@@ -1501,7 +1498,7 @@
     </x:row>
     <x:row r="25" spans="1:8">
       <x:c r="A25" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
         <x:v>9</x:v>
@@ -1516,10 +1513,10 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F25" s="1" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="G25" s="1" t="s">
         <x:v>81</x:v>
-      </x:c>
-      <x:c r="G25" s="1" t="s">
-        <x:v>82</x:v>
       </x:c>
       <x:c r="H25" s="1" t="s">
         <x:v>10</x:v>
@@ -1527,25 +1524,25 @@
     </x:row>
     <x:row r="26" spans="1:8">
       <x:c r="A26" s="0" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="B26" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C26" s="1" t="s">
         <x:v>96</x:v>
       </x:c>
-      <x:c r="B26" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="C26" s="1" t="s">
+      <x:c r="D26" s="1" t="s">
         <x:v>97</x:v>
       </x:c>
-      <x:c r="D26" s="1" t="s">
+      <x:c r="E26" s="1" t="s">
         <x:v>98</x:v>
       </x:c>
-      <x:c r="E26" s="1" t="s">
+      <x:c r="F26" s="1" t="s">
         <x:v>99</x:v>
       </x:c>
-      <x:c r="F26" s="1" t="s">
+      <x:c r="G26" s="1" t="s">
         <x:v>100</x:v>
-      </x:c>
-      <x:c r="G26" s="1" t="s">
-        <x:v>101</x:v>
       </x:c>
       <x:c r="H26" s="1" t="s">
         <x:v>10</x:v>
@@ -1553,7 +1550,7 @@
     </x:row>
     <x:row r="27" spans="1:8">
       <x:c r="A27" s="0" t="s">
-        <x:v>102</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
         <x:v>9</x:v>
@@ -1568,7 +1565,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="F27" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="G27" s="1" t="s">
         <x:v>22</x:v>
@@ -1579,7 +1576,7 @@
     </x:row>
     <x:row r="28" spans="1:8">
       <x:c r="A28" s="0" t="s">
-        <x:v>102</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
         <x:v>15</x:v>
@@ -1591,13 +1588,13 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E28" s="1" t="s">
-        <x:v>54</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="F28" s="1" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="G28" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="H28" s="1" t="s">
         <x:v>10</x:v>
@@ -1605,7 +1602,7 @@
     </x:row>
     <x:row r="29" spans="1:8">
       <x:c r="A29" s="0" t="s">
-        <x:v>103</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
         <x:v>9</x:v>
@@ -1620,7 +1617,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="F29" s="1" t="s">
-        <x:v>104</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="G29" s="1" t="s">
         <x:v>22</x:v>
@@ -1631,7 +1628,7 @@
     </x:row>
     <x:row r="30" spans="1:8">
       <x:c r="A30" s="0" t="s">
-        <x:v>103</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
         <x:v>15</x:v>
@@ -1643,13 +1640,13 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E30" s="1" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="F30" s="1" t="s">
         <x:v>105</x:v>
       </x:c>
-      <x:c r="F30" s="1" t="s">
-        <x:v>106</x:v>
-      </x:c>
       <x:c r="G30" s="1" t="s">
-        <x:v>104</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="H30" s="1" t="s">
         <x:v>10</x:v>
@@ -1657,25 +1654,25 @@
     </x:row>
     <x:row r="31" spans="1:8">
       <x:c r="A31" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="B31" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C31" s="1" t="s">
         <x:v>107</x:v>
       </x:c>
-      <x:c r="B31" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="C31" s="1" t="s">
+      <x:c r="D31" s="1" t="s">
         <x:v>108</x:v>
       </x:c>
-      <x:c r="D31" s="1" t="s">
+      <x:c r="E31" s="1" t="s">
         <x:v>109</x:v>
       </x:c>
-      <x:c r="E31" s="1" t="s">
+      <x:c r="F31" s="1" t="s">
         <x:v>110</x:v>
       </x:c>
-      <x:c r="F31" s="1" t="s">
+      <x:c r="G31" s="1" t="s">
         <x:v>111</x:v>
-      </x:c>
-      <x:c r="G31" s="1" t="s">
-        <x:v>112</x:v>
       </x:c>
       <x:c r="H31" s="1" t="s">
         <x:v>10</x:v>
@@ -1683,25 +1680,25 @@
     </x:row>
     <x:row r="32" spans="1:8">
       <x:c r="A32" s="0" t="s">
-        <x:v>107</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C32" s="1" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="D32" s="1" t="s">
         <x:v>113</x:v>
       </x:c>
-      <x:c r="D32" s="1" t="s">
+      <x:c r="E32" s="1" t="s">
         <x:v>114</x:v>
       </x:c>
-      <x:c r="E32" s="1" t="s">
+      <x:c r="F32" s="1" t="s">
         <x:v>115</x:v>
       </x:c>
-      <x:c r="F32" s="1" t="s">
+      <x:c r="G32" s="1" t="s">
         <x:v>116</x:v>
-      </x:c>
-      <x:c r="G32" s="1" t="s">
-        <x:v>117</x:v>
       </x:c>
       <x:c r="H32" s="1" t="s">
         <x:v>10</x:v>
@@ -1709,7 +1706,7 @@
     </x:row>
     <x:row r="33" spans="1:8">
       <x:c r="A33" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
         <x:v>9</x:v>
@@ -1718,16 +1715,16 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="D33" s="1" t="s">
-        <x:v>119</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="E33" s="1" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="F33" s="1" t="s">
         <x:v>98</x:v>
       </x:c>
-      <x:c r="F33" s="1" t="s">
-        <x:v>99</x:v>
-      </x:c>
       <x:c r="G33" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="H33" s="1" t="s">
         <x:v>10</x:v>
@@ -1735,22 +1732,22 @@
     </x:row>
     <x:row r="34" spans="1:8">
       <x:c r="A34" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C34" s="1" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="D34" s="1" t="s">
         <x:v>120</x:v>
       </x:c>
-      <x:c r="D34" s="1" t="s">
+      <x:c r="E34" s="1" t="s">
         <x:v>121</x:v>
       </x:c>
-      <x:c r="E34" s="1" t="s">
+      <x:c r="F34" s="1" t="s">
         <x:v>122</x:v>
-      </x:c>
-      <x:c r="F34" s="1" t="s">
-        <x:v>123</x:v>
       </x:c>
       <x:c r="G34" s="1" t="s">
         <x:v>44</x:v>
@@ -1761,7 +1758,7 @@
     </x:row>
     <x:row r="35" spans="1:8">
       <x:c r="A35" s="0" t="s">
-        <x:v>124</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
         <x:v>9</x:v>
@@ -1770,10 +1767,10 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="D35" s="1" t="s">
-        <x:v>125</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="E35" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="F35" s="1" t="s">
         <x:v>10</x:v>
@@ -1787,25 +1784,25 @@
     </x:row>
     <x:row r="36" spans="1:8">
       <x:c r="A36" s="0" t="s">
-        <x:v>124</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C36" s="1" t="s">
-        <x:v>106</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="D36" s="1" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="E36" s="1" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="F36" s="1" t="s">
         <x:v>126</x:v>
       </x:c>
-      <x:c r="E36" s="1" t="s">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="F36" s="1" t="s">
-        <x:v>127</x:v>
-      </x:c>
       <x:c r="G36" s="1" t="s">
-        <x:v>63</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="H36" s="1" t="s">
         <x:v>10</x:v>
@@ -1813,7 +1810,7 @@
     </x:row>
     <x:row r="37" spans="1:8">
       <x:c r="A37" s="0" t="s">
-        <x:v>128</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
         <x:v>9</x:v>
@@ -1839,7 +1836,7 @@
     </x:row>
     <x:row r="38" spans="1:8">
       <x:c r="A38" s="0" t="s">
-        <x:v>128</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="B38" s="0" t="s">
         <x:v>15</x:v>
@@ -1857,7 +1854,7 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="G38" s="1" t="s">
-        <x:v>54</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H38" s="1" t="s">
         <x:v>10</x:v>
@@ -1865,25 +1862,25 @@
     </x:row>
     <x:row r="39" spans="1:8">
       <x:c r="A39" s="0" t="s">
-        <x:v>129</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="B39" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C39" s="1" t="s">
-        <x:v>127</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="D39" s="1" t="s">
-        <x:v>119</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="1" t="s">
-        <x:v>85</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="F39" s="1" t="s">
-        <x:v>101</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="G39" s="1" t="s">
-        <x:v>125</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="H39" s="1" t="s">
         <x:v>10</x:v>
@@ -1891,22 +1888,22 @@
     </x:row>
     <x:row r="40" spans="1:8">
       <x:c r="A40" s="0" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="B40" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C40" s="1" t="s">
         <x:v>129</x:v>
       </x:c>
-      <x:c r="B40" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="C40" s="1" t="s">
+      <x:c r="D40" s="1" t="s">
         <x:v>130</x:v>
       </x:c>
-      <x:c r="D40" s="1" t="s">
+      <x:c r="E40" s="1" t="s">
         <x:v>131</x:v>
       </x:c>
-      <x:c r="E40" s="1" t="s">
+      <x:c r="F40" s="1" t="s">
         <x:v>132</x:v>
-      </x:c>
-      <x:c r="F40" s="1" t="s">
-        <x:v>133</x:v>
       </x:c>
       <x:c r="G40" s="1" t="s">
         <x:v>19</x:v>
@@ -1917,7 +1914,7 @@
     </x:row>
     <x:row r="41" spans="1:8">
       <x:c r="A41" s="0" t="s">
-        <x:v>134</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
         <x:v>9</x:v>
@@ -1943,25 +1940,25 @@
     </x:row>
     <x:row r="42" spans="1:8">
       <x:c r="A42" s="0" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="B42" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C42" s="1" t="s">
         <x:v>134</x:v>
       </x:c>
-      <x:c r="B42" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="C42" s="1" t="s">
+      <x:c r="D42" s="1" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="E42" s="1" t="s">
         <x:v>135</x:v>
       </x:c>
-      <x:c r="D42" s="1" t="s">
-        <x:v>131</x:v>
-      </x:c>
-      <x:c r="E42" s="1" t="s">
+      <x:c r="F42" s="1" t="s">
         <x:v>136</x:v>
       </x:c>
-      <x:c r="F42" s="1" t="s">
-        <x:v>137</x:v>
-      </x:c>
       <x:c r="G42" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="H42" s="1" t="s">
         <x:v>10</x:v>
@@ -1969,22 +1966,22 @@
     </x:row>
     <x:row r="43" spans="1:8">
       <x:c r="A43" s="0" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="B43" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C43" s="1" t="s">
         <x:v>138</x:v>
       </x:c>
-      <x:c r="B43" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="C43" s="1" t="s">
+      <x:c r="D43" s="1" t="s">
         <x:v>139</x:v>
       </x:c>
-      <x:c r="D43" s="1" t="s">
+      <x:c r="E43" s="1" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="F43" s="1" t="s">
         <x:v>140</x:v>
-      </x:c>
-      <x:c r="E43" s="1" t="s">
-        <x:v>135</x:v>
-      </x:c>
-      <x:c r="F43" s="1" t="s">
-        <x:v>141</x:v>
       </x:c>
       <x:c r="G43" s="1" t="s">
         <x:v>14</x:v>
@@ -1995,25 +1992,25 @@
     </x:row>
     <x:row r="44" spans="1:8">
       <x:c r="A44" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="B44" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C44" s="1" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="D44" s="1" t="s">
         <x:v>142</x:v>
       </x:c>
-      <x:c r="D44" s="1" t="s">
+      <x:c r="E44" s="1" t="s">
         <x:v>143</x:v>
       </x:c>
-      <x:c r="E44" s="1" t="s">
+      <x:c r="F44" s="1" t="s">
         <x:v>144</x:v>
       </x:c>
-      <x:c r="F44" s="1" t="s">
+      <x:c r="G44" s="1" t="s">
         <x:v>145</x:v>
-      </x:c>
-      <x:c r="G44" s="1" t="s">
-        <x:v>146</x:v>
       </x:c>
       <x:c r="H44" s="1" t="s">
         <x:v>10</x:v>
@@ -2021,25 +2018,25 @@
     </x:row>
     <x:row r="45" spans="1:8">
       <x:c r="A45" s="0" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="B45" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C45" s="1" t="s">
         <x:v>147</x:v>
       </x:c>
-      <x:c r="B45" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="C45" s="1" t="s">
+      <x:c r="D45" s="1" t="s">
         <x:v>148</x:v>
       </x:c>
-      <x:c r="D45" s="1" t="s">
+      <x:c r="E45" s="1" t="s">
         <x:v>149</x:v>
       </x:c>
-      <x:c r="E45" s="1" t="s">
+      <x:c r="F45" s="1" t="s">
         <x:v>150</x:v>
       </x:c>
-      <x:c r="F45" s="1" t="s">
-        <x:v>151</x:v>
-      </x:c>
       <x:c r="G45" s="1" t="s">
-        <x:v>104</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="H45" s="1" t="s">
         <x:v>10</x:v>
@@ -2047,25 +2044,25 @@
     </x:row>
     <x:row r="46" spans="1:8">
       <x:c r="A46" s="0" t="s">
-        <x:v>147</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="B46" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C46" s="1" t="s">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="D46" s="1" t="s">
         <x:v>152</x:v>
       </x:c>
-      <x:c r="D46" s="1" t="s">
+      <x:c r="E46" s="1" t="s">
         <x:v>153</x:v>
       </x:c>
-      <x:c r="E46" s="1" t="s">
+      <x:c r="F46" s="1" t="s">
         <x:v>154</x:v>
       </x:c>
-      <x:c r="F46" s="1" t="s">
+      <x:c r="G46" s="1" t="s">
         <x:v>155</x:v>
-      </x:c>
-      <x:c r="G46" s="1" t="s">
-        <x:v>156</x:v>
       </x:c>
       <x:c r="H46" s="1" t="s">
         <x:v>10</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -124,7 +124,7 @@
     <x:t>3781</x:t>
   </x:si>
   <x:si>
-    <x:t>4000</x:t>
+    <x:t>4001</x:t>
   </x:si>
   <x:si>
     <x:t>1669</x:t>
@@ -244,10 +244,10 @@
     <x:t>1653</x:t>
   </x:si>
   <x:si>
-    <x:t>2742</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2716</x:t>
+    <x:t>2745</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2718</x:t>
   </x:si>
   <x:si>
     <x:t>960</x:t>
@@ -340,7 +340,7 @@
     <x:t>696</x:t>
   </x:si>
   <x:si>
-    <x:t>1549</x:t>
+    <x:t>1550</x:t>
   </x:si>
   <x:si>
     <x:t>2170</x:t>
@@ -358,7 +358,7 @@
     <x:t>1817</x:t>
   </x:si>
   <x:si>
-    <x:t>2775</x:t>
+    <x:t>2776</x:t>
   </x:si>
   <x:si>
     <x:t>2731</x:t>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -247,7 +247,7 @@
     <x:t>2745</x:t>
   </x:si>
   <x:si>
-    <x:t>2718</x:t>
+    <x:t>2719</x:t>
   </x:si>
   <x:si>
     <x:t>960</x:t>
@@ -419,6 +419,9 @@
   </x:si>
   <x:si>
     <x:t>145</x:t>
+  </x:si>
+  <x:si>
+    <x:t>187</x:t>
   </x:si>
   <x:si>
     <x:t>202</x:t>
@@ -1949,13 +1952,13 @@
         <x:v>134</x:v>
       </x:c>
       <x:c r="D42" s="1" t="s">
-        <x:v>130</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="E42" s="1" t="s">
-        <x:v>135</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="F42" s="1" t="s">
-        <x:v>136</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="G42" s="1" t="s">
         <x:v>55</x:v>
@@ -1966,22 +1969,22 @@
     </x:row>
     <x:row r="43" spans="1:8">
       <x:c r="A43" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="B43" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C43" s="1" t="s">
-        <x:v>138</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="D43" s="1" t="s">
-        <x:v>139</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="E43" s="1" t="s">
         <x:v>134</x:v>
       </x:c>
       <x:c r="F43" s="1" t="s">
-        <x:v>140</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="G43" s="1" t="s">
         <x:v>14</x:v>
@@ -1992,25 +1995,25 @@
     </x:row>
     <x:row r="44" spans="1:8">
       <x:c r="A44" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="B44" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C44" s="1" t="s">
-        <x:v>141</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="D44" s="1" t="s">
-        <x:v>142</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="E44" s="1" t="s">
-        <x:v>143</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="F44" s="1" t="s">
-        <x:v>144</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="G44" s="1" t="s">
-        <x:v>145</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="H44" s="1" t="s">
         <x:v>10</x:v>
@@ -2018,22 +2021,22 @@
     </x:row>
     <x:row r="45" spans="1:8">
       <x:c r="A45" s="0" t="s">
-        <x:v>146</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="B45" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C45" s="1" t="s">
-        <x:v>147</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="D45" s="1" t="s">
-        <x:v>148</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="E45" s="1" t="s">
-        <x:v>149</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="F45" s="1" t="s">
-        <x:v>150</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="G45" s="1" t="s">
         <x:v>103</x:v>
@@ -2044,25 +2047,25 @@
     </x:row>
     <x:row r="46" spans="1:8">
       <x:c r="A46" s="0" t="s">
-        <x:v>146</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="B46" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C46" s="1" t="s">
-        <x:v>151</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="D46" s="1" t="s">
-        <x:v>152</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="E46" s="1" t="s">
-        <x:v>153</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="F46" s="1" t="s">
-        <x:v>154</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="G46" s="1" t="s">
-        <x:v>155</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="H46" s="1" t="s">
         <x:v>10</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -481,10 +481,10 @@
     <x:t>673</x:t>
   </x:si>
   <x:si>
-    <x:t>534</x:t>
-  </x:si>
-  <x:si>
-    <x:t>253</x:t>
+    <x:t>535</x:t>
+  </x:si>
+  <x:si>
+    <x:t>254</x:t>
   </x:si>
 </x:sst>
 </file>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -121,7 +121,7 @@
     <x:t>2026</x:t>
   </x:si>
   <x:si>
-    <x:t>3781</x:t>
+    <x:t>3782</x:t>
   </x:si>
   <x:si>
     <x:t>4001</x:t>
@@ -343,10 +343,10 @@
     <x:t>1550</x:t>
   </x:si>
   <x:si>
-    <x:t>2170</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2285</x:t>
+    <x:t>2172</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2287</x:t>
   </x:si>
   <x:si>
     <x:t>947</x:t>
@@ -358,10 +358,10 @@
     <x:t>1817</x:t>
   </x:si>
   <x:si>
-    <x:t>2776</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2731</x:t>
+    <x:t>2777</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2732</x:t>
   </x:si>
   <x:si>
     <x:t>1105</x:t>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -100,7 +100,7 @@
     <x:t>Assault Offenses</x:t>
   </x:si>
   <x:si>
-    <x:t>902</x:t>
+    <x:t>901</x:t>
   </x:si>
   <x:si>
     <x:t>812</x:t>
@@ -124,7 +124,7 @@
     <x:t>3782</x:t>
   </x:si>
   <x:si>
-    <x:t>4001</x:t>
+    <x:t>4000</x:t>
   </x:si>
   <x:si>
     <x:t>1669</x:t>
@@ -247,7 +247,7 @@
     <x:t>2745</x:t>
   </x:si>
   <x:si>
-    <x:t>2719</x:t>
+    <x:t>2720</x:t>
   </x:si>
   <x:si>
     <x:t>960</x:t>
@@ -346,7 +346,7 @@
     <x:t>2172</x:t>
   </x:si>
   <x:si>
-    <x:t>2287</x:t>
+    <x:t>2289</x:t>
   </x:si>
   <x:si>
     <x:t>947</x:t>
@@ -364,7 +364,7 @@
     <x:t>2732</x:t>
   </x:si>
   <x:si>
-    <x:t>1105</x:t>
+    <x:t>1106</x:t>
   </x:si>
   <x:si>
     <x:t>Motor Vehicle Theft</x:t>
@@ -460,9 +460,6 @@
     <x:t>Weapon Law Violations</x:t>
   </x:si>
   <x:si>
-    <x:t>33</x:t>
-  </x:si>
-  <x:si>
     <x:t>55</x:t>
   </x:si>
   <x:si>
@@ -475,7 +472,7 @@
     <x:t>314</x:t>
   </x:si>
   <x:si>
-    <x:t>706</x:t>
+    <x:t>705</x:t>
   </x:si>
   <x:si>
     <x:t>673</x:t>
@@ -2027,16 +2024,16 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C45" s="1" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="D45" s="1" t="s">
         <x:v>148</x:v>
       </x:c>
-      <x:c r="D45" s="1" t="s">
+      <x:c r="E45" s="1" t="s">
         <x:v>149</x:v>
       </x:c>
-      <x:c r="E45" s="1" t="s">
+      <x:c r="F45" s="1" t="s">
         <x:v>150</x:v>
-      </x:c>
-      <x:c r="F45" s="1" t="s">
-        <x:v>151</x:v>
       </x:c>
       <x:c r="G45" s="1" t="s">
         <x:v>103</x:v>
@@ -2053,19 +2050,19 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C46" s="1" t="s">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="D46" s="1" t="s">
         <x:v>152</x:v>
       </x:c>
-      <x:c r="D46" s="1" t="s">
+      <x:c r="E46" s="1" t="s">
         <x:v>153</x:v>
       </x:c>
-      <x:c r="E46" s="1" t="s">
+      <x:c r="F46" s="1" t="s">
         <x:v>154</x:v>
       </x:c>
-      <x:c r="F46" s="1" t="s">
+      <x:c r="G46" s="1" t="s">
         <x:v>155</x:v>
-      </x:c>
-      <x:c r="G46" s="1" t="s">
-        <x:v>156</x:v>
       </x:c>
       <x:c r="H46" s="1" t="s">
         <x:v>10</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -118,7 +118,7 @@
     <x:t>1327</x:t>
   </x:si>
   <x:si>
-    <x:t>2026</x:t>
+    <x:t>2027</x:t>
   </x:si>
   <x:si>
     <x:t>3782</x:t>
@@ -184,9 +184,6 @@
     <x:t>141</x:t>
   </x:si>
   <x:si>
-    <x:t>178</x:t>
-  </x:si>
-  <x:si>
     <x:t>44</x:t>
   </x:si>
   <x:si>
@@ -358,7 +355,7 @@
     <x:t>1817</x:t>
   </x:si>
   <x:si>
-    <x:t>2777</x:t>
+    <x:t>2778</x:t>
   </x:si>
   <x:si>
     <x:t>2732</x:t>
@@ -1201,10 +1198,10 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="F13" s="1" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="G13" s="1" t="s">
         <x:v>56</x:v>
-      </x:c>
-      <x:c r="G13" s="1" t="s">
-        <x:v>57</x:v>
       </x:c>
       <x:c r="H13" s="1" t="s">
         <x:v>10</x:v>
@@ -1212,25 +1209,25 @@
     </x:row>
     <x:row r="14" spans="1:8">
       <x:c r="A14" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C14" s="1" t="s">
         <x:v>58</x:v>
       </x:c>
-      <x:c r="B14" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="C14" s="1" t="s">
+      <x:c r="D14" s="1" t="s">
         <x:v>59</x:v>
       </x:c>
-      <x:c r="D14" s="1" t="s">
+      <x:c r="E14" s="1" t="s">
         <x:v>60</x:v>
-      </x:c>
-      <x:c r="E14" s="1" t="s">
-        <x:v>61</x:v>
       </x:c>
       <x:c r="F14" s="1" t="s">
         <x:v>42</x:v>
       </x:c>
       <x:c r="G14" s="1" t="s">
-        <x:v>62</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="H14" s="1" t="s">
         <x:v>10</x:v>
@@ -1238,25 +1235,25 @@
     </x:row>
     <x:row r="15" spans="1:8">
       <x:c r="A15" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C15" s="1" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="D15" s="1" t="s">
         <x:v>63</x:v>
       </x:c>
-      <x:c r="D15" s="1" t="s">
+      <x:c r="E15" s="1" t="s">
         <x:v>64</x:v>
       </x:c>
-      <x:c r="E15" s="1" t="s">
+      <x:c r="F15" s="1" t="s">
         <x:v>65</x:v>
       </x:c>
-      <x:c r="F15" s="1" t="s">
+      <x:c r="G15" s="1" t="s">
         <x:v>66</x:v>
-      </x:c>
-      <x:c r="G15" s="1" t="s">
-        <x:v>67</x:v>
       </x:c>
       <x:c r="H15" s="1" t="s">
         <x:v>10</x:v>
@@ -1264,25 +1261,25 @@
     </x:row>
     <x:row r="16" spans="1:8">
       <x:c r="A16" s="0" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C16" s="1" t="s">
         <x:v>68</x:v>
       </x:c>
-      <x:c r="B16" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="C16" s="1" t="s">
+      <x:c r="D16" s="1" t="s">
         <x:v>69</x:v>
       </x:c>
-      <x:c r="D16" s="1" t="s">
+      <x:c r="E16" s="1" t="s">
         <x:v>70</x:v>
       </x:c>
-      <x:c r="E16" s="1" t="s">
+      <x:c r="F16" s="1" t="s">
         <x:v>71</x:v>
       </x:c>
-      <x:c r="F16" s="1" t="s">
+      <x:c r="G16" s="1" t="s">
         <x:v>72</x:v>
-      </x:c>
-      <x:c r="G16" s="1" t="s">
-        <x:v>73</x:v>
       </x:c>
       <x:c r="H16" s="1" t="s">
         <x:v>10</x:v>
@@ -1290,25 +1287,25 @@
     </x:row>
     <x:row r="17" spans="1:8">
       <x:c r="A17" s="0" t="s">
-        <x:v>68</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C17" s="1" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="D17" s="1" t="s">
         <x:v>74</x:v>
       </x:c>
-      <x:c r="D17" s="1" t="s">
+      <x:c r="E17" s="1" t="s">
         <x:v>75</x:v>
       </x:c>
-      <x:c r="E17" s="1" t="s">
+      <x:c r="F17" s="1" t="s">
         <x:v>76</x:v>
       </x:c>
-      <x:c r="F17" s="1" t="s">
+      <x:c r="G17" s="1" t="s">
         <x:v>77</x:v>
-      </x:c>
-      <x:c r="G17" s="1" t="s">
-        <x:v>78</x:v>
       </x:c>
       <x:c r="H17" s="1" t="s">
         <x:v>10</x:v>
@@ -1316,7 +1313,7 @@
     </x:row>
     <x:row r="18" spans="1:8">
       <x:c r="A18" s="0" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
         <x:v>9</x:v>
@@ -1328,7 +1325,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E18" s="1" t="s">
-        <x:v>80</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="F18" s="1" t="s">
         <x:v>53</x:v>
@@ -1342,7 +1339,7 @@
     </x:row>
     <x:row r="19" spans="1:8">
       <x:c r="A19" s="0" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
         <x:v>15</x:v>
@@ -1360,7 +1357,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="G19" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="H19" s="1" t="s">
         <x:v>10</x:v>
@@ -1368,7 +1365,7 @@
     </x:row>
     <x:row r="20" spans="1:8">
       <x:c r="A20" s="0" t="s">
-        <x:v>82</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
         <x:v>9</x:v>
@@ -1394,7 +1391,7 @@
     </x:row>
     <x:row r="21" spans="1:8">
       <x:c r="A21" s="0" t="s">
-        <x:v>82</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
         <x:v>15</x:v>
@@ -1420,25 +1417,25 @@
     </x:row>
     <x:row r="22" spans="1:8">
       <x:c r="A22" s="0" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="B22" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C22" s="1" t="s">
         <x:v>83</x:v>
       </x:c>
-      <x:c r="B22" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="C22" s="1" t="s">
+      <x:c r="D22" s="1" t="s">
         <x:v>84</x:v>
       </x:c>
-      <x:c r="D22" s="1" t="s">
+      <x:c r="E22" s="1" t="s">
         <x:v>85</x:v>
       </x:c>
-      <x:c r="E22" s="1" t="s">
+      <x:c r="F22" s="1" t="s">
         <x:v>86</x:v>
       </x:c>
-      <x:c r="F22" s="1" t="s">
+      <x:c r="G22" s="1" t="s">
         <x:v>87</x:v>
-      </x:c>
-      <x:c r="G22" s="1" t="s">
-        <x:v>88</x:v>
       </x:c>
       <x:c r="H22" s="1" t="s">
         <x:v>10</x:v>
@@ -1446,25 +1443,25 @@
     </x:row>
     <x:row r="23" spans="1:8">
       <x:c r="A23" s="0" t="s">
-        <x:v>83</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C23" s="1" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="D23" s="1" t="s">
         <x:v>89</x:v>
       </x:c>
-      <x:c r="D23" s="1" t="s">
+      <x:c r="E23" s="1" t="s">
         <x:v>90</x:v>
       </x:c>
-      <x:c r="E23" s="1" t="s">
+      <x:c r="F23" s="1" t="s">
         <x:v>91</x:v>
       </x:c>
-      <x:c r="F23" s="1" t="s">
+      <x:c r="G23" s="1" t="s">
         <x:v>92</x:v>
-      </x:c>
-      <x:c r="G23" s="1" t="s">
-        <x:v>93</x:v>
       </x:c>
       <x:c r="H23" s="1" t="s">
         <x:v>10</x:v>
@@ -1472,7 +1469,7 @@
     </x:row>
     <x:row r="24" spans="1:8">
       <x:c r="A24" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
         <x:v>15</x:v>
@@ -1498,7 +1495,7 @@
     </x:row>
     <x:row r="25" spans="1:8">
       <x:c r="A25" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
         <x:v>9</x:v>
@@ -1513,10 +1510,10 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F25" s="1" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="G25" s="1" t="s">
         <x:v>80</x:v>
-      </x:c>
-      <x:c r="G25" s="1" t="s">
-        <x:v>81</x:v>
       </x:c>
       <x:c r="H25" s="1" t="s">
         <x:v>10</x:v>
@@ -1524,25 +1521,25 @@
     </x:row>
     <x:row r="26" spans="1:8">
       <x:c r="A26" s="0" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="B26" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C26" s="1" t="s">
         <x:v>95</x:v>
       </x:c>
-      <x:c r="B26" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="C26" s="1" t="s">
+      <x:c r="D26" s="1" t="s">
         <x:v>96</x:v>
       </x:c>
-      <x:c r="D26" s="1" t="s">
+      <x:c r="E26" s="1" t="s">
         <x:v>97</x:v>
       </x:c>
-      <x:c r="E26" s="1" t="s">
+      <x:c r="F26" s="1" t="s">
         <x:v>98</x:v>
       </x:c>
-      <x:c r="F26" s="1" t="s">
+      <x:c r="G26" s="1" t="s">
         <x:v>99</x:v>
-      </x:c>
-      <x:c r="G26" s="1" t="s">
-        <x:v>100</x:v>
       </x:c>
       <x:c r="H26" s="1" t="s">
         <x:v>10</x:v>
@@ -1550,7 +1547,7 @@
     </x:row>
     <x:row r="27" spans="1:8">
       <x:c r="A27" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
         <x:v>9</x:v>
@@ -1565,7 +1562,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="F27" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="G27" s="1" t="s">
         <x:v>22</x:v>
@@ -1576,7 +1573,7 @@
     </x:row>
     <x:row r="28" spans="1:8">
       <x:c r="A28" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
         <x:v>15</x:v>
@@ -1594,7 +1591,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G28" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="H28" s="1" t="s">
         <x:v>10</x:v>
@@ -1602,7 +1599,7 @@
     </x:row>
     <x:row r="29" spans="1:8">
       <x:c r="A29" s="0" t="s">
-        <x:v>102</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
         <x:v>9</x:v>
@@ -1617,7 +1614,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="F29" s="1" t="s">
-        <x:v>103</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="G29" s="1" t="s">
         <x:v>22</x:v>
@@ -1628,7 +1625,7 @@
     </x:row>
     <x:row r="30" spans="1:8">
       <x:c r="A30" s="0" t="s">
-        <x:v>102</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
         <x:v>15</x:v>
@@ -1640,13 +1637,13 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E30" s="1" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="F30" s="1" t="s">
         <x:v>104</x:v>
       </x:c>
-      <x:c r="F30" s="1" t="s">
-        <x:v>105</x:v>
-      </x:c>
       <x:c r="G30" s="1" t="s">
-        <x:v>103</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="H30" s="1" t="s">
         <x:v>10</x:v>
@@ -1654,25 +1651,25 @@
     </x:row>
     <x:row r="31" spans="1:8">
       <x:c r="A31" s="0" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="B31" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C31" s="1" t="s">
         <x:v>106</x:v>
       </x:c>
-      <x:c r="B31" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="C31" s="1" t="s">
+      <x:c r="D31" s="1" t="s">
         <x:v>107</x:v>
       </x:c>
-      <x:c r="D31" s="1" t="s">
+      <x:c r="E31" s="1" t="s">
         <x:v>108</x:v>
       </x:c>
-      <x:c r="E31" s="1" t="s">
+      <x:c r="F31" s="1" t="s">
         <x:v>109</x:v>
       </x:c>
-      <x:c r="F31" s="1" t="s">
+      <x:c r="G31" s="1" t="s">
         <x:v>110</x:v>
-      </x:c>
-      <x:c r="G31" s="1" t="s">
-        <x:v>111</x:v>
       </x:c>
       <x:c r="H31" s="1" t="s">
         <x:v>10</x:v>
@@ -1680,25 +1677,25 @@
     </x:row>
     <x:row r="32" spans="1:8">
       <x:c r="A32" s="0" t="s">
-        <x:v>106</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C32" s="1" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="D32" s="1" t="s">
         <x:v>112</x:v>
       </x:c>
-      <x:c r="D32" s="1" t="s">
+      <x:c r="E32" s="1" t="s">
         <x:v>113</x:v>
       </x:c>
-      <x:c r="E32" s="1" t="s">
+      <x:c r="F32" s="1" t="s">
         <x:v>114</x:v>
       </x:c>
-      <x:c r="F32" s="1" t="s">
+      <x:c r="G32" s="1" t="s">
         <x:v>115</x:v>
-      </x:c>
-      <x:c r="G32" s="1" t="s">
-        <x:v>116</x:v>
       </x:c>
       <x:c r="H32" s="1" t="s">
         <x:v>10</x:v>
@@ -1706,7 +1703,7 @@
     </x:row>
     <x:row r="33" spans="1:8">
       <x:c r="A33" s="0" t="s">
-        <x:v>117</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
         <x:v>9</x:v>
@@ -1715,16 +1712,16 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="D33" s="1" t="s">
-        <x:v>118</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="E33" s="1" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="F33" s="1" t="s">
         <x:v>97</x:v>
       </x:c>
-      <x:c r="F33" s="1" t="s">
-        <x:v>98</x:v>
-      </x:c>
       <x:c r="G33" s="1" t="s">
-        <x:v>80</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="H33" s="1" t="s">
         <x:v>10</x:v>
@@ -1732,22 +1729,22 @@
     </x:row>
     <x:row r="34" spans="1:8">
       <x:c r="A34" s="0" t="s">
-        <x:v>117</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C34" s="1" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="D34" s="1" t="s">
         <x:v>119</x:v>
       </x:c>
-      <x:c r="D34" s="1" t="s">
+      <x:c r="E34" s="1" t="s">
         <x:v>120</x:v>
       </x:c>
-      <x:c r="E34" s="1" t="s">
+      <x:c r="F34" s="1" t="s">
         <x:v>121</x:v>
-      </x:c>
-      <x:c r="F34" s="1" t="s">
-        <x:v>122</x:v>
       </x:c>
       <x:c r="G34" s="1" t="s">
         <x:v>44</x:v>
@@ -1758,7 +1755,7 @@
     </x:row>
     <x:row r="35" spans="1:8">
       <x:c r="A35" s="0" t="s">
-        <x:v>123</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
         <x:v>9</x:v>
@@ -1767,10 +1764,10 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="D35" s="1" t="s">
-        <x:v>124</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="E35" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="F35" s="1" t="s">
         <x:v>10</x:v>
@@ -1784,25 +1781,25 @@
     </x:row>
     <x:row r="36" spans="1:8">
       <x:c r="A36" s="0" t="s">
-        <x:v>123</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C36" s="1" t="s">
-        <x:v>105</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="D36" s="1" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="E36" s="1" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="F36" s="1" t="s">
         <x:v>125</x:v>
       </x:c>
-      <x:c r="E36" s="1" t="s">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="F36" s="1" t="s">
-        <x:v>126</x:v>
-      </x:c>
       <x:c r="G36" s="1" t="s">
-        <x:v>62</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="H36" s="1" t="s">
         <x:v>10</x:v>
@@ -1810,7 +1807,7 @@
     </x:row>
     <x:row r="37" spans="1:8">
       <x:c r="A37" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
         <x:v>9</x:v>
@@ -1836,7 +1833,7 @@
     </x:row>
     <x:row r="38" spans="1:8">
       <x:c r="A38" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="B38" s="0" t="s">
         <x:v>15</x:v>
@@ -1862,25 +1859,25 @@
     </x:row>
     <x:row r="39" spans="1:8">
       <x:c r="A39" s="0" t="s">
-        <x:v>128</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="B39" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C39" s="1" t="s">
-        <x:v>126</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="D39" s="1" t="s">
-        <x:v>118</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="E39" s="1" t="s">
-        <x:v>84</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="F39" s="1" t="s">
-        <x:v>100</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="G39" s="1" t="s">
-        <x:v>124</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="H39" s="1" t="s">
         <x:v>10</x:v>
@@ -1888,22 +1885,22 @@
     </x:row>
     <x:row r="40" spans="1:8">
       <x:c r="A40" s="0" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="B40" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C40" s="1" t="s">
         <x:v>128</x:v>
       </x:c>
-      <x:c r="B40" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="C40" s="1" t="s">
+      <x:c r="D40" s="1" t="s">
         <x:v>129</x:v>
       </x:c>
-      <x:c r="D40" s="1" t="s">
+      <x:c r="E40" s="1" t="s">
         <x:v>130</x:v>
       </x:c>
-      <x:c r="E40" s="1" t="s">
+      <x:c r="F40" s="1" t="s">
         <x:v>131</x:v>
-      </x:c>
-      <x:c r="F40" s="1" t="s">
-        <x:v>132</x:v>
       </x:c>
       <x:c r="G40" s="1" t="s">
         <x:v>19</x:v>
@@ -1914,7 +1911,7 @@
     </x:row>
     <x:row r="41" spans="1:8">
       <x:c r="A41" s="0" t="s">
-        <x:v>133</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
         <x:v>9</x:v>
@@ -1940,22 +1937,22 @@
     </x:row>
     <x:row r="42" spans="1:8">
       <x:c r="A42" s="0" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="B42" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C42" s="1" t="s">
         <x:v>133</x:v>
       </x:c>
-      <x:c r="B42" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="C42" s="1" t="s">
+      <x:c r="D42" s="1" t="s">
         <x:v>134</x:v>
       </x:c>
-      <x:c r="D42" s="1" t="s">
+      <x:c r="E42" s="1" t="s">
         <x:v>135</x:v>
       </x:c>
-      <x:c r="E42" s="1" t="s">
+      <x:c r="F42" s="1" t="s">
         <x:v>136</x:v>
-      </x:c>
-      <x:c r="F42" s="1" t="s">
-        <x:v>137</x:v>
       </x:c>
       <x:c r="G42" s="1" t="s">
         <x:v>55</x:v>
@@ -1966,22 +1963,22 @@
     </x:row>
     <x:row r="43" spans="1:8">
       <x:c r="A43" s="0" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="B43" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C43" s="1" t="s">
         <x:v>138</x:v>
       </x:c>
-      <x:c r="B43" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="C43" s="1" t="s">
+      <x:c r="D43" s="1" t="s">
         <x:v>139</x:v>
       </x:c>
-      <x:c r="D43" s="1" t="s">
+      <x:c r="E43" s="1" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="F43" s="1" t="s">
         <x:v>140</x:v>
-      </x:c>
-      <x:c r="E43" s="1" t="s">
-        <x:v>134</x:v>
-      </x:c>
-      <x:c r="F43" s="1" t="s">
-        <x:v>141</x:v>
       </x:c>
       <x:c r="G43" s="1" t="s">
         <x:v>14</x:v>
@@ -1992,25 +1989,25 @@
     </x:row>
     <x:row r="44" spans="1:8">
       <x:c r="A44" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="B44" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C44" s="1" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="D44" s="1" t="s">
         <x:v>142</x:v>
       </x:c>
-      <x:c r="D44" s="1" t="s">
+      <x:c r="E44" s="1" t="s">
         <x:v>143</x:v>
       </x:c>
-      <x:c r="E44" s="1" t="s">
+      <x:c r="F44" s="1" t="s">
         <x:v>144</x:v>
       </x:c>
-      <x:c r="F44" s="1" t="s">
+      <x:c r="G44" s="1" t="s">
         <x:v>145</x:v>
-      </x:c>
-      <x:c r="G44" s="1" t="s">
-        <x:v>146</x:v>
       </x:c>
       <x:c r="H44" s="1" t="s">
         <x:v>10</x:v>
@@ -2018,7 +2015,7 @@
     </x:row>
     <x:row r="45" spans="1:8">
       <x:c r="A45" s="0" t="s">
-        <x:v>147</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="B45" s="0" t="s">
         <x:v>9</x:v>
@@ -2027,16 +2024,16 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="D45" s="1" t="s">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="E45" s="1" t="s">
         <x:v>148</x:v>
       </x:c>
-      <x:c r="E45" s="1" t="s">
+      <x:c r="F45" s="1" t="s">
         <x:v>149</x:v>
       </x:c>
-      <x:c r="F45" s="1" t="s">
-        <x:v>150</x:v>
-      </x:c>
       <x:c r="G45" s="1" t="s">
-        <x:v>103</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="H45" s="1" t="s">
         <x:v>10</x:v>
@@ -2044,25 +2041,25 @@
     </x:row>
     <x:row r="46" spans="1:8">
       <x:c r="A46" s="0" t="s">
-        <x:v>147</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="B46" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C46" s="1" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="D46" s="1" t="s">
         <x:v>151</x:v>
       </x:c>
-      <x:c r="D46" s="1" t="s">
+      <x:c r="E46" s="1" t="s">
         <x:v>152</x:v>
       </x:c>
-      <x:c r="E46" s="1" t="s">
+      <x:c r="F46" s="1" t="s">
         <x:v>153</x:v>
       </x:c>
-      <x:c r="F46" s="1" t="s">
+      <x:c r="G46" s="1" t="s">
         <x:v>154</x:v>
-      </x:c>
-      <x:c r="G46" s="1" t="s">
-        <x:v>155</x:v>
       </x:c>
       <x:c r="H46" s="1" t="s">
         <x:v>10</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -115,7 +115,7 @@
     <x:t>414</x:t>
   </x:si>
   <x:si>
-    <x:t>1327</x:t>
+    <x:t>1328</x:t>
   </x:si>
   <x:si>
     <x:t>2027</x:t>
@@ -220,10 +220,10 @@
     <x:t>Drug/Narcotic Violations</x:t>
   </x:si>
   <x:si>
-    <x:t>212</x:t>
-  </x:si>
-  <x:si>
-    <x:t>635</x:t>
+    <x:t>213</x:t>
+  </x:si>
+  <x:si>
+    <x:t>634</x:t>
   </x:si>
   <x:si>
     <x:t>1060</x:t>
@@ -238,13 +238,13 @@
     <x:t>376</x:t>
   </x:si>
   <x:si>
-    <x:t>1653</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2745</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2720</x:t>
+    <x:t>1655</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2746</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2721</x:t>
   </x:si>
   <x:si>
     <x:t>960</x:t>
@@ -289,7 +289,7 @@
     <x:t>524</x:t>
   </x:si>
   <x:si>
-    <x:t>538</x:t>
+    <x:t>537</x:t>
   </x:si>
   <x:si>
     <x:t>194</x:t>
@@ -466,7 +466,7 @@
     <x:t>63</x:t>
   </x:si>
   <x:si>
-    <x:t>314</x:t>
+    <x:t>316</x:t>
   </x:si>
   <x:si>
     <x:t>705</x:t>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -466,7 +466,7 @@
     <x:t>63</x:t>
   </x:si>
   <x:si>
-    <x:t>316</x:t>
+    <x:t>317</x:t>
   </x:si>
   <x:si>
     <x:t>705</x:t>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -124,7 +124,7 @@
     <x:t>3782</x:t>
   </x:si>
   <x:si>
-    <x:t>4000</x:t>
+    <x:t>3999</x:t>
   </x:si>
   <x:si>
     <x:t>1669</x:t>
@@ -238,13 +238,13 @@
     <x:t>376</x:t>
   </x:si>
   <x:si>
-    <x:t>1655</x:t>
+    <x:t>1654</x:t>
   </x:si>
   <x:si>
     <x:t>2746</x:t>
   </x:si>
   <x:si>
-    <x:t>2721</x:t>
+    <x:t>2722</x:t>
   </x:si>
   <x:si>
     <x:t>960</x:t>
@@ -472,7 +472,7 @@
     <x:t>705</x:t>
   </x:si>
   <x:si>
-    <x:t>673</x:t>
+    <x:t>674</x:t>
   </x:si>
   <x:si>
     <x:t>535</x:t>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -103,22 +103,22 @@
     <x:t>901</x:t>
   </x:si>
   <x:si>
-    <x:t>812</x:t>
+    <x:t>813</x:t>
   </x:si>
   <x:si>
     <x:t>1132</x:t>
   </x:si>
   <x:si>
-    <x:t>1129</x:t>
+    <x:t>1130</x:t>
   </x:si>
   <x:si>
     <x:t>414</x:t>
   </x:si>
   <x:si>
-    <x:t>1328</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2027</x:t>
+    <x:t>1329</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2028</x:t>
   </x:si>
   <x:si>
     <x:t>3782</x:t>
@@ -226,7 +226,7 @@
     <x:t>634</x:t>
   </x:si>
   <x:si>
-    <x:t>1060</x:t>
+    <x:t>1059</x:t>
   </x:si>
   <x:si>
     <x:t>1094</x:t>
@@ -241,7 +241,7 @@
     <x:t>1654</x:t>
   </x:si>
   <x:si>
-    <x:t>2746</x:t>
+    <x:t>2745</x:t>
   </x:si>
   <x:si>
     <x:t>2722</x:t>
@@ -358,7 +358,7 @@
     <x:t>2778</x:t>
   </x:si>
   <x:si>
-    <x:t>2732</x:t>
+    <x:t>2734</x:t>
   </x:si>
   <x:si>
     <x:t>1106</x:t>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -211,7 +211,7 @@
     <x:t>435</x:t>
   </x:si>
   <x:si>
-    <x:t>406</x:t>
+    <x:t>408</x:t>
   </x:si>
   <x:si>
     <x:t>138</x:t>
@@ -226,7 +226,7 @@
     <x:t>634</x:t>
   </x:si>
   <x:si>
-    <x:t>1059</x:t>
+    <x:t>1060</x:t>
   </x:si>
   <x:si>
     <x:t>1094</x:t>
@@ -241,7 +241,7 @@
     <x:t>1654</x:t>
   </x:si>
   <x:si>
-    <x:t>2745</x:t>
+    <x:t>2744</x:t>
   </x:si>
   <x:si>
     <x:t>2722</x:t>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -124,7 +124,7 @@
     <x:t>3782</x:t>
   </x:si>
   <x:si>
-    <x:t>3999</x:t>
+    <x:t>4000</x:t>
   </x:si>
   <x:si>
     <x:t>1669</x:t>
@@ -244,7 +244,7 @@
     <x:t>2744</x:t>
   </x:si>
   <x:si>
-    <x:t>2722</x:t>
+    <x:t>2721</x:t>
   </x:si>
   <x:si>
     <x:t>960</x:t>
@@ -469,7 +469,7 @@
     <x:t>317</x:t>
   </x:si>
   <x:si>
-    <x:t>705</x:t>
+    <x:t>706</x:t>
   </x:si>
   <x:si>
     <x:t>674</x:t>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -106,7 +106,7 @@
     <x:t>813</x:t>
   </x:si>
   <x:si>
-    <x:t>1132</x:t>
+    <x:t>1133</x:t>
   </x:si>
   <x:si>
     <x:t>1130</x:t>
@@ -127,7 +127,7 @@
     <x:t>4000</x:t>
   </x:si>
   <x:si>
-    <x:t>1669</x:t>
+    <x:t>1668</x:t>
   </x:si>
   <x:si>
     <x:t>Bribery</x:t>
@@ -154,7 +154,7 @@
     <x:t>179</x:t>
   </x:si>
   <x:si>
-    <x:t>206</x:t>
+    <x:t>205</x:t>
   </x:si>
   <x:si>
     <x:t>375</x:t>
@@ -205,7 +205,7 @@
     <x:t>366</x:t>
   </x:si>
   <x:si>
-    <x:t>273</x:t>
+    <x:t>274</x:t>
   </x:si>
   <x:si>
     <x:t>435</x:t>
@@ -235,13 +235,13 @@
     <x:t>276</x:t>
   </x:si>
   <x:si>
-    <x:t>376</x:t>
+    <x:t>377</x:t>
   </x:si>
   <x:si>
     <x:t>1654</x:t>
   </x:si>
   <x:si>
-    <x:t>2744</x:t>
+    <x:t>2743</x:t>
   </x:si>
   <x:si>
     <x:t>2721</x:t>
@@ -266,9 +266,6 @@
   </x:si>
   <x:si>
     <x:t>39</x:t>
-  </x:si>
-  <x:si>
-    <x:t>205</x:t>
   </x:si>
   <x:si>
     <x:t>331</x:t>
@@ -1426,16 +1423,16 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="D22" s="1" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="E22" s="1" t="s">
         <x:v>84</x:v>
       </x:c>
-      <x:c r="E22" s="1" t="s">
+      <x:c r="F22" s="1" t="s">
         <x:v>85</x:v>
       </x:c>
-      <x:c r="F22" s="1" t="s">
+      <x:c r="G22" s="1" t="s">
         <x:v>86</x:v>
-      </x:c>
-      <x:c r="G22" s="1" t="s">
-        <x:v>87</x:v>
       </x:c>
       <x:c r="H22" s="1" t="s">
         <x:v>10</x:v>
@@ -1449,19 +1446,19 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C23" s="1" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="D23" s="1" t="s">
         <x:v>88</x:v>
       </x:c>
-      <x:c r="D23" s="1" t="s">
+      <x:c r="E23" s="1" t="s">
         <x:v>89</x:v>
       </x:c>
-      <x:c r="E23" s="1" t="s">
+      <x:c r="F23" s="1" t="s">
         <x:v>90</x:v>
       </x:c>
-      <x:c r="F23" s="1" t="s">
+      <x:c r="G23" s="1" t="s">
         <x:v>91</x:v>
-      </x:c>
-      <x:c r="G23" s="1" t="s">
-        <x:v>92</x:v>
       </x:c>
       <x:c r="H23" s="1" t="s">
         <x:v>10</x:v>
@@ -1469,7 +1466,7 @@
     </x:row>
     <x:row r="24" spans="1:8">
       <x:c r="A24" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
         <x:v>15</x:v>
@@ -1495,7 +1492,7 @@
     </x:row>
     <x:row r="25" spans="1:8">
       <x:c r="A25" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
         <x:v>9</x:v>
@@ -1521,25 +1518,25 @@
     </x:row>
     <x:row r="26" spans="1:8">
       <x:c r="A26" s="0" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="B26" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C26" s="1" t="s">
         <x:v>94</x:v>
       </x:c>
-      <x:c r="B26" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="C26" s="1" t="s">
+      <x:c r="D26" s="1" t="s">
         <x:v>95</x:v>
       </x:c>
-      <x:c r="D26" s="1" t="s">
+      <x:c r="E26" s="1" t="s">
         <x:v>96</x:v>
       </x:c>
-      <x:c r="E26" s="1" t="s">
+      <x:c r="F26" s="1" t="s">
         <x:v>97</x:v>
       </x:c>
-      <x:c r="F26" s="1" t="s">
+      <x:c r="G26" s="1" t="s">
         <x:v>98</x:v>
-      </x:c>
-      <x:c r="G26" s="1" t="s">
-        <x:v>99</x:v>
       </x:c>
       <x:c r="H26" s="1" t="s">
         <x:v>10</x:v>
@@ -1547,7 +1544,7 @@
     </x:row>
     <x:row r="27" spans="1:8">
       <x:c r="A27" s="0" t="s">
-        <x:v>100</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
         <x:v>9</x:v>
@@ -1573,7 +1570,7 @@
     </x:row>
     <x:row r="28" spans="1:8">
       <x:c r="A28" s="0" t="s">
-        <x:v>100</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
         <x:v>15</x:v>
@@ -1599,7 +1596,7 @@
     </x:row>
     <x:row r="29" spans="1:8">
       <x:c r="A29" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
         <x:v>9</x:v>
@@ -1614,7 +1611,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="F29" s="1" t="s">
-        <x:v>102</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="G29" s="1" t="s">
         <x:v>22</x:v>
@@ -1625,7 +1622,7 @@
     </x:row>
     <x:row r="30" spans="1:8">
       <x:c r="A30" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
         <x:v>15</x:v>
@@ -1637,13 +1634,13 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E30" s="1" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="F30" s="1" t="s">
         <x:v>103</x:v>
       </x:c>
-      <x:c r="F30" s="1" t="s">
-        <x:v>104</x:v>
-      </x:c>
       <x:c r="G30" s="1" t="s">
-        <x:v>102</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="H30" s="1" t="s">
         <x:v>10</x:v>
@@ -1651,25 +1648,25 @@
     </x:row>
     <x:row r="31" spans="1:8">
       <x:c r="A31" s="0" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="B31" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C31" s="1" t="s">
         <x:v>105</x:v>
       </x:c>
-      <x:c r="B31" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="C31" s="1" t="s">
+      <x:c r="D31" s="1" t="s">
         <x:v>106</x:v>
       </x:c>
-      <x:c r="D31" s="1" t="s">
+      <x:c r="E31" s="1" t="s">
         <x:v>107</x:v>
       </x:c>
-      <x:c r="E31" s="1" t="s">
+      <x:c r="F31" s="1" t="s">
         <x:v>108</x:v>
       </x:c>
-      <x:c r="F31" s="1" t="s">
+      <x:c r="G31" s="1" t="s">
         <x:v>109</x:v>
-      </x:c>
-      <x:c r="G31" s="1" t="s">
-        <x:v>110</x:v>
       </x:c>
       <x:c r="H31" s="1" t="s">
         <x:v>10</x:v>
@@ -1677,25 +1674,25 @@
     </x:row>
     <x:row r="32" spans="1:8">
       <x:c r="A32" s="0" t="s">
-        <x:v>105</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C32" s="1" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="D32" s="1" t="s">
         <x:v>111</x:v>
       </x:c>
-      <x:c r="D32" s="1" t="s">
+      <x:c r="E32" s="1" t="s">
         <x:v>112</x:v>
       </x:c>
-      <x:c r="E32" s="1" t="s">
+      <x:c r="F32" s="1" t="s">
         <x:v>113</x:v>
       </x:c>
-      <x:c r="F32" s="1" t="s">
+      <x:c r="G32" s="1" t="s">
         <x:v>114</x:v>
-      </x:c>
-      <x:c r="G32" s="1" t="s">
-        <x:v>115</x:v>
       </x:c>
       <x:c r="H32" s="1" t="s">
         <x:v>10</x:v>
@@ -1703,7 +1700,7 @@
     </x:row>
     <x:row r="33" spans="1:8">
       <x:c r="A33" s="0" t="s">
-        <x:v>116</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
         <x:v>9</x:v>
@@ -1712,13 +1709,13 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="D33" s="1" t="s">
-        <x:v>117</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="E33" s="1" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="F33" s="1" t="s">
         <x:v>96</x:v>
-      </x:c>
-      <x:c r="F33" s="1" t="s">
-        <x:v>97</x:v>
       </x:c>
       <x:c r="G33" s="1" t="s">
         <x:v>79</x:v>
@@ -1729,22 +1726,22 @@
     </x:row>
     <x:row r="34" spans="1:8">
       <x:c r="A34" s="0" t="s">
-        <x:v>116</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C34" s="1" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="D34" s="1" t="s">
         <x:v>118</x:v>
       </x:c>
-      <x:c r="D34" s="1" t="s">
+      <x:c r="E34" s="1" t="s">
         <x:v>119</x:v>
       </x:c>
-      <x:c r="E34" s="1" t="s">
+      <x:c r="F34" s="1" t="s">
         <x:v>120</x:v>
-      </x:c>
-      <x:c r="F34" s="1" t="s">
-        <x:v>121</x:v>
       </x:c>
       <x:c r="G34" s="1" t="s">
         <x:v>44</x:v>
@@ -1755,7 +1752,7 @@
     </x:row>
     <x:row r="35" spans="1:8">
       <x:c r="A35" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
         <x:v>9</x:v>
@@ -1764,7 +1761,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="D35" s="1" t="s">
-        <x:v>123</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="E35" s="1" t="s">
         <x:v>80</x:v>
@@ -1781,22 +1778,22 @@
     </x:row>
     <x:row r="36" spans="1:8">
       <x:c r="A36" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C36" s="1" t="s">
-        <x:v>104</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="D36" s="1" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="E36" s="1" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="F36" s="1" t="s">
         <x:v>124</x:v>
-      </x:c>
-      <x:c r="E36" s="1" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="F36" s="1" t="s">
-        <x:v>125</x:v>
       </x:c>
       <x:c r="G36" s="1" t="s">
         <x:v>61</x:v>
@@ -1807,7 +1804,7 @@
     </x:row>
     <x:row r="37" spans="1:8">
       <x:c r="A37" s="0" t="s">
-        <x:v>126</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
         <x:v>9</x:v>
@@ -1833,7 +1830,7 @@
     </x:row>
     <x:row r="38" spans="1:8">
       <x:c r="A38" s="0" t="s">
-        <x:v>126</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="B38" s="0" t="s">
         <x:v>15</x:v>
@@ -1859,25 +1856,25 @@
     </x:row>
     <x:row r="39" spans="1:8">
       <x:c r="A39" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="B39" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C39" s="1" t="s">
-        <x:v>125</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="D39" s="1" t="s">
-        <x:v>117</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="E39" s="1" t="s">
         <x:v>83</x:v>
       </x:c>
       <x:c r="F39" s="1" t="s">
-        <x:v>99</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="G39" s="1" t="s">
-        <x:v>123</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="H39" s="1" t="s">
         <x:v>10</x:v>
@@ -1885,22 +1882,22 @@
     </x:row>
     <x:row r="40" spans="1:8">
       <x:c r="A40" s="0" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="B40" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C40" s="1" t="s">
         <x:v>127</x:v>
       </x:c>
-      <x:c r="B40" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="C40" s="1" t="s">
+      <x:c r="D40" s="1" t="s">
         <x:v>128</x:v>
       </x:c>
-      <x:c r="D40" s="1" t="s">
+      <x:c r="E40" s="1" t="s">
         <x:v>129</x:v>
       </x:c>
-      <x:c r="E40" s="1" t="s">
+      <x:c r="F40" s="1" t="s">
         <x:v>130</x:v>
-      </x:c>
-      <x:c r="F40" s="1" t="s">
-        <x:v>131</x:v>
       </x:c>
       <x:c r="G40" s="1" t="s">
         <x:v>19</x:v>
@@ -1911,7 +1908,7 @@
     </x:row>
     <x:row r="41" spans="1:8">
       <x:c r="A41" s="0" t="s">
-        <x:v>132</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
         <x:v>9</x:v>
@@ -1937,22 +1934,22 @@
     </x:row>
     <x:row r="42" spans="1:8">
       <x:c r="A42" s="0" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="B42" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C42" s="1" t="s">
         <x:v>132</x:v>
       </x:c>
-      <x:c r="B42" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="C42" s="1" t="s">
+      <x:c r="D42" s="1" t="s">
         <x:v>133</x:v>
       </x:c>
-      <x:c r="D42" s="1" t="s">
+      <x:c r="E42" s="1" t="s">
         <x:v>134</x:v>
       </x:c>
-      <x:c r="E42" s="1" t="s">
+      <x:c r="F42" s="1" t="s">
         <x:v>135</x:v>
-      </x:c>
-      <x:c r="F42" s="1" t="s">
-        <x:v>136</x:v>
       </x:c>
       <x:c r="G42" s="1" t="s">
         <x:v>55</x:v>
@@ -1963,22 +1960,22 @@
     </x:row>
     <x:row r="43" spans="1:8">
       <x:c r="A43" s="0" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="B43" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C43" s="1" t="s">
         <x:v>137</x:v>
       </x:c>
-      <x:c r="B43" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="C43" s="1" t="s">
+      <x:c r="D43" s="1" t="s">
         <x:v>138</x:v>
       </x:c>
-      <x:c r="D43" s="1" t="s">
+      <x:c r="E43" s="1" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="F43" s="1" t="s">
         <x:v>139</x:v>
-      </x:c>
-      <x:c r="E43" s="1" t="s">
-        <x:v>133</x:v>
-      </x:c>
-      <x:c r="F43" s="1" t="s">
-        <x:v>140</x:v>
       </x:c>
       <x:c r="G43" s="1" t="s">
         <x:v>14</x:v>
@@ -1989,25 +1986,25 @@
     </x:row>
     <x:row r="44" spans="1:8">
       <x:c r="A44" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="B44" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C44" s="1" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="D44" s="1" t="s">
         <x:v>141</x:v>
       </x:c>
-      <x:c r="D44" s="1" t="s">
+      <x:c r="E44" s="1" t="s">
         <x:v>142</x:v>
       </x:c>
-      <x:c r="E44" s="1" t="s">
+      <x:c r="F44" s="1" t="s">
         <x:v>143</x:v>
       </x:c>
-      <x:c r="F44" s="1" t="s">
+      <x:c r="G44" s="1" t="s">
         <x:v>144</x:v>
-      </x:c>
-      <x:c r="G44" s="1" t="s">
-        <x:v>145</x:v>
       </x:c>
       <x:c r="H44" s="1" t="s">
         <x:v>10</x:v>
@@ -2015,7 +2012,7 @@
     </x:row>
     <x:row r="45" spans="1:8">
       <x:c r="A45" s="0" t="s">
-        <x:v>146</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="B45" s="0" t="s">
         <x:v>9</x:v>
@@ -2024,16 +2021,16 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="D45" s="1" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="E45" s="1" t="s">
         <x:v>147</x:v>
       </x:c>
-      <x:c r="E45" s="1" t="s">
+      <x:c r="F45" s="1" t="s">
         <x:v>148</x:v>
       </x:c>
-      <x:c r="F45" s="1" t="s">
-        <x:v>149</x:v>
-      </x:c>
       <x:c r="G45" s="1" t="s">
-        <x:v>102</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="H45" s="1" t="s">
         <x:v>10</x:v>
@@ -2041,25 +2038,25 @@
     </x:row>
     <x:row r="46" spans="1:8">
       <x:c r="A46" s="0" t="s">
-        <x:v>146</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="B46" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C46" s="1" t="s">
+        <x:v>149</x:v>
+      </x:c>
+      <x:c r="D46" s="1" t="s">
         <x:v>150</x:v>
       </x:c>
-      <x:c r="D46" s="1" t="s">
+      <x:c r="E46" s="1" t="s">
         <x:v>151</x:v>
       </x:c>
-      <x:c r="E46" s="1" t="s">
+      <x:c r="F46" s="1" t="s">
         <x:v>152</x:v>
       </x:c>
-      <x:c r="F46" s="1" t="s">
+      <x:c r="G46" s="1" t="s">
         <x:v>153</x:v>
-      </x:c>
-      <x:c r="G46" s="1" t="s">
-        <x:v>154</x:v>
       </x:c>
       <x:c r="H46" s="1" t="s">
         <x:v>10</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -226,7 +226,7 @@
     <x:t>634</x:t>
   </x:si>
   <x:si>
-    <x:t>1060</x:t>
+    <x:t>1061</x:t>
   </x:si>
   <x:si>
     <x:t>1094</x:t>
@@ -238,7 +238,7 @@
     <x:t>377</x:t>
   </x:si>
   <x:si>
-    <x:t>1654</x:t>
+    <x:t>1653</x:t>
   </x:si>
   <x:si>
     <x:t>2743</x:t>
@@ -283,7 +283,7 @@
     <x:t>350</x:t>
   </x:si>
   <x:si>
-    <x:t>524</x:t>
+    <x:t>523</x:t>
   </x:si>
   <x:si>
     <x:t>537</x:t>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -241,7 +241,7 @@
     <x:t>1653</x:t>
   </x:si>
   <x:si>
-    <x:t>2743</x:t>
+    <x:t>2741</x:t>
   </x:si>
   <x:si>
     <x:t>2721</x:t>
@@ -469,7 +469,7 @@
     <x:t>706</x:t>
   </x:si>
   <x:si>
-    <x:t>674</x:t>
+    <x:t>675</x:t>
   </x:si>
   <x:si>
     <x:t>535</x:t>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -127,7 +127,7 @@
     <x:t>4000</x:t>
   </x:si>
   <x:si>
-    <x:t>1668</x:t>
+    <x:t>1669</x:t>
   </x:si>
   <x:si>
     <x:t>Bribery</x:t>
@@ -154,120 +154,123 @@
     <x:t>179</x:t>
   </x:si>
   <x:si>
+    <x:t>206</x:t>
+  </x:si>
+  <x:si>
+    <x:t>375</x:t>
+  </x:si>
+  <x:si>
+    <x:t>433</x:t>
+  </x:si>
+  <x:si>
+    <x:t>104</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Counterfeiting/Forgery</x:t>
+  </x:si>
+  <x:si>
+    <x:t>32</x:t>
+  </x:si>
+  <x:si>
+    <x:t>65</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14</x:t>
+  </x:si>
+  <x:si>
+    <x:t>68</x:t>
+  </x:si>
+  <x:si>
+    <x:t>141</x:t>
+  </x:si>
+  <x:si>
+    <x:t>44</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Destruction/Damage/Vandalism of Property</x:t>
+  </x:si>
+  <x:si>
+    <x:t>72</x:t>
+  </x:si>
+  <x:si>
+    <x:t>105</x:t>
+  </x:si>
+  <x:si>
+    <x:t>134</x:t>
+  </x:si>
+  <x:si>
+    <x:t>31</x:t>
+  </x:si>
+  <x:si>
+    <x:t>366</x:t>
+  </x:si>
+  <x:si>
+    <x:t>274</x:t>
+  </x:si>
+  <x:si>
+    <x:t>435</x:t>
+  </x:si>
+  <x:si>
+    <x:t>408</x:t>
+  </x:si>
+  <x:si>
+    <x:t>138</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Drug/Narcotic Violations</x:t>
+  </x:si>
+  <x:si>
+    <x:t>213</x:t>
+  </x:si>
+  <x:si>
+    <x:t>634</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1061</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1093</x:t>
+  </x:si>
+  <x:si>
+    <x:t>276</x:t>
+  </x:si>
+  <x:si>
+    <x:t>377</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1652</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2742</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2721</x:t>
+  </x:si>
+  <x:si>
+    <x:t>960</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Embezzlement</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Extortion/Blackmail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fraud Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>39</x:t>
+  </x:si>
+  <x:si>
     <x:t>205</x:t>
   </x:si>
   <x:si>
-    <x:t>375</x:t>
-  </x:si>
-  <x:si>
-    <x:t>433</x:t>
-  </x:si>
-  <x:si>
-    <x:t>104</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Counterfeiting/Forgery</x:t>
-  </x:si>
-  <x:si>
-    <x:t>32</x:t>
-  </x:si>
-  <x:si>
-    <x:t>65</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14</x:t>
-  </x:si>
-  <x:si>
-    <x:t>68</x:t>
-  </x:si>
-  <x:si>
-    <x:t>141</x:t>
-  </x:si>
-  <x:si>
-    <x:t>44</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Destruction/Damage/Vandalism of Property</x:t>
-  </x:si>
-  <x:si>
-    <x:t>72</x:t>
-  </x:si>
-  <x:si>
-    <x:t>105</x:t>
-  </x:si>
-  <x:si>
-    <x:t>134</x:t>
-  </x:si>
-  <x:si>
-    <x:t>31</x:t>
-  </x:si>
-  <x:si>
-    <x:t>366</x:t>
-  </x:si>
-  <x:si>
-    <x:t>274</x:t>
-  </x:si>
-  <x:si>
-    <x:t>435</x:t>
-  </x:si>
-  <x:si>
-    <x:t>408</x:t>
-  </x:si>
-  <x:si>
-    <x:t>138</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Drug/Narcotic Violations</x:t>
-  </x:si>
-  <x:si>
-    <x:t>213</x:t>
-  </x:si>
-  <x:si>
-    <x:t>634</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1061</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1094</x:t>
-  </x:si>
-  <x:si>
-    <x:t>276</x:t>
-  </x:si>
-  <x:si>
-    <x:t>377</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1653</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2741</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2721</x:t>
-  </x:si>
-  <x:si>
-    <x:t>960</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Embezzlement</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Extortion/Blackmail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fraud Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>39</x:t>
-  </x:si>
-  <x:si>
     <x:t>331</x:t>
   </x:si>
   <x:si>
@@ -355,7 +358,7 @@
     <x:t>2778</x:t>
   </x:si>
   <x:si>
-    <x:t>2734</x:t>
+    <x:t>2735</x:t>
   </x:si>
   <x:si>
     <x:t>1106</x:t>
@@ -422,6 +425,9 @@
   </x:si>
   <x:si>
     <x:t>286</x:t>
+  </x:si>
+  <x:si>
+    <x:t>143</x:t>
   </x:si>
   <x:si>
     <x:t>Stolen Property Offenses</x:t>
@@ -1423,16 +1429,16 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="D22" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="E22" s="1" t="s">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="F22" s="1" t="s">
-        <x:v>85</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="G22" s="1" t="s">
-        <x:v>86</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="H22" s="1" t="s">
         <x:v>10</x:v>
@@ -1446,19 +1452,19 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C23" s="1" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="D23" s="1" t="s">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="E23" s="1" t="s">
-        <x:v>89</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="F23" s="1" t="s">
-        <x:v>90</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="G23" s="1" t="s">
-        <x:v>91</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="H23" s="1" t="s">
         <x:v>10</x:v>
@@ -1466,7 +1472,7 @@
     </x:row>
     <x:row r="24" spans="1:8">
       <x:c r="A24" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
         <x:v>15</x:v>
@@ -1492,7 +1498,7 @@
     </x:row>
     <x:row r="25" spans="1:8">
       <x:c r="A25" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
         <x:v>9</x:v>
@@ -1518,25 +1524,25 @@
     </x:row>
     <x:row r="26" spans="1:8">
       <x:c r="A26" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C26" s="1" t="s">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="D26" s="1" t="s">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="E26" s="1" t="s">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="F26" s="1" t="s">
-        <x:v>97</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="G26" s="1" t="s">
-        <x:v>98</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="H26" s="1" t="s">
         <x:v>10</x:v>
@@ -1544,7 +1550,7 @@
     </x:row>
     <x:row r="27" spans="1:8">
       <x:c r="A27" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
         <x:v>9</x:v>
@@ -1570,7 +1576,7 @@
     </x:row>
     <x:row r="28" spans="1:8">
       <x:c r="A28" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
         <x:v>15</x:v>
@@ -1596,7 +1602,7 @@
     </x:row>
     <x:row r="29" spans="1:8">
       <x:c r="A29" s="0" t="s">
-        <x:v>100</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
         <x:v>9</x:v>
@@ -1611,7 +1617,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="F29" s="1" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="G29" s="1" t="s">
         <x:v>22</x:v>
@@ -1622,7 +1628,7 @@
     </x:row>
     <x:row r="30" spans="1:8">
       <x:c r="A30" s="0" t="s">
-        <x:v>100</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
         <x:v>15</x:v>
@@ -1634,13 +1640,13 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E30" s="1" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="F30" s="1" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="G30" s="1" t="s">
         <x:v>102</x:v>
-      </x:c>
-      <x:c r="F30" s="1" t="s">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="G30" s="1" t="s">
-        <x:v>101</x:v>
       </x:c>
       <x:c r="H30" s="1" t="s">
         <x:v>10</x:v>
@@ -1648,25 +1654,25 @@
     </x:row>
     <x:row r="31" spans="1:8">
       <x:c r="A31" s="0" t="s">
-        <x:v>104</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C31" s="1" t="s">
-        <x:v>105</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="D31" s="1" t="s">
-        <x:v>106</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="E31" s="1" t="s">
-        <x:v>107</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="F31" s="1" t="s">
-        <x:v>108</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="G31" s="1" t="s">
-        <x:v>109</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="H31" s="1" t="s">
         <x:v>10</x:v>
@@ -1674,25 +1680,25 @@
     </x:row>
     <x:row r="32" spans="1:8">
       <x:c r="A32" s="0" t="s">
-        <x:v>104</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C32" s="1" t="s">
-        <x:v>110</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="D32" s="1" t="s">
-        <x:v>111</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="E32" s="1" t="s">
-        <x:v>112</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="F32" s="1" t="s">
-        <x:v>113</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="G32" s="1" t="s">
-        <x:v>114</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="H32" s="1" t="s">
         <x:v>10</x:v>
@@ -1700,7 +1706,7 @@
     </x:row>
     <x:row r="33" spans="1:8">
       <x:c r="A33" s="0" t="s">
-        <x:v>115</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
         <x:v>9</x:v>
@@ -1709,13 +1715,13 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="D33" s="1" t="s">
-        <x:v>116</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="E33" s="1" t="s">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="F33" s="1" t="s">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="G33" s="1" t="s">
         <x:v>79</x:v>
@@ -1726,22 +1732,22 @@
     </x:row>
     <x:row r="34" spans="1:8">
       <x:c r="A34" s="0" t="s">
-        <x:v>115</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C34" s="1" t="s">
-        <x:v>117</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="D34" s="1" t="s">
-        <x:v>118</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="E34" s="1" t="s">
-        <x:v>119</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="F34" s="1" t="s">
-        <x:v>120</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="G34" s="1" t="s">
         <x:v>44</x:v>
@@ -1752,7 +1758,7 @@
     </x:row>
     <x:row r="35" spans="1:8">
       <x:c r="A35" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
         <x:v>9</x:v>
@@ -1761,7 +1767,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="D35" s="1" t="s">
-        <x:v>122</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="E35" s="1" t="s">
         <x:v>80</x:v>
@@ -1778,22 +1784,22 @@
     </x:row>
     <x:row r="36" spans="1:8">
       <x:c r="A36" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C36" s="1" t="s">
-        <x:v>103</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="D36" s="1" t="s">
-        <x:v>123</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="E36" s="1" t="s">
-        <x:v>97</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="F36" s="1" t="s">
-        <x:v>124</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="G36" s="1" t="s">
         <x:v>61</x:v>
@@ -1804,7 +1810,7 @@
     </x:row>
     <x:row r="37" spans="1:8">
       <x:c r="A37" s="0" t="s">
-        <x:v>125</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
         <x:v>9</x:v>
@@ -1830,7 +1836,7 @@
     </x:row>
     <x:row r="38" spans="1:8">
       <x:c r="A38" s="0" t="s">
-        <x:v>125</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="B38" s="0" t="s">
         <x:v>15</x:v>
@@ -1856,25 +1862,25 @@
     </x:row>
     <x:row r="39" spans="1:8">
       <x:c r="A39" s="0" t="s">
-        <x:v>126</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="B39" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C39" s="1" t="s">
-        <x:v>124</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="D39" s="1" t="s">
-        <x:v>116</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="E39" s="1" t="s">
         <x:v>83</x:v>
       </x:c>
       <x:c r="F39" s="1" t="s">
-        <x:v>98</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="G39" s="1" t="s">
-        <x:v>122</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="H39" s="1" t="s">
         <x:v>10</x:v>
@@ -1882,22 +1888,22 @@
     </x:row>
     <x:row r="40" spans="1:8">
       <x:c r="A40" s="0" t="s">
-        <x:v>126</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="B40" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C40" s="1" t="s">
-        <x:v>127</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="D40" s="1" t="s">
-        <x:v>128</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="E40" s="1" t="s">
-        <x:v>129</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="F40" s="1" t="s">
-        <x:v>130</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="G40" s="1" t="s">
         <x:v>19</x:v>
@@ -1908,7 +1914,7 @@
     </x:row>
     <x:row r="41" spans="1:8">
       <x:c r="A41" s="0" t="s">
-        <x:v>131</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
         <x:v>9</x:v>
@@ -1934,25 +1940,25 @@
     </x:row>
     <x:row r="42" spans="1:8">
       <x:c r="A42" s="0" t="s">
-        <x:v>131</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="B42" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C42" s="1" t="s">
-        <x:v>132</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="D42" s="1" t="s">
-        <x:v>133</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="E42" s="1" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="F42" s="1" t="s">
-        <x:v>135</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="G42" s="1" t="s">
-        <x:v>55</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="H42" s="1" t="s">
         <x:v>10</x:v>
@@ -1960,22 +1966,22 @@
     </x:row>
     <x:row r="43" spans="1:8">
       <x:c r="A43" s="0" t="s">
-        <x:v>136</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="B43" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C43" s="1" t="s">
-        <x:v>137</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="D43" s="1" t="s">
-        <x:v>138</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="E43" s="1" t="s">
-        <x:v>132</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="F43" s="1" t="s">
-        <x:v>139</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="G43" s="1" t="s">
         <x:v>14</x:v>
@@ -1986,25 +1992,25 @@
     </x:row>
     <x:row r="44" spans="1:8">
       <x:c r="A44" s="0" t="s">
-        <x:v>136</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="B44" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C44" s="1" t="s">
-        <x:v>140</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="D44" s="1" t="s">
-        <x:v>141</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="E44" s="1" t="s">
-        <x:v>142</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="F44" s="1" t="s">
-        <x:v>143</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="G44" s="1" t="s">
-        <x:v>144</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="H44" s="1" t="s">
         <x:v>10</x:v>
@@ -2012,7 +2018,7 @@
     </x:row>
     <x:row r="45" spans="1:8">
       <x:c r="A45" s="0" t="s">
-        <x:v>145</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="B45" s="0" t="s">
         <x:v>9</x:v>
@@ -2021,16 +2027,16 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="D45" s="1" t="s">
-        <x:v>146</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="E45" s="1" t="s">
-        <x:v>147</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="F45" s="1" t="s">
-        <x:v>148</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="G45" s="1" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="H45" s="1" t="s">
         <x:v>10</x:v>
@@ -2038,25 +2044,25 @@
     </x:row>
     <x:row r="46" spans="1:8">
       <x:c r="A46" s="0" t="s">
-        <x:v>145</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="B46" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C46" s="1" t="s">
-        <x:v>149</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="D46" s="1" t="s">
-        <x:v>150</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="E46" s="1" t="s">
-        <x:v>151</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="F46" s="1" t="s">
-        <x:v>152</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="G46" s="1" t="s">
-        <x:v>153</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="H46" s="1" t="s">
         <x:v>10</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -289,7 +289,7 @@
     <x:t>523</x:t>
   </x:si>
   <x:si>
-    <x:t>537</x:t>
+    <x:t>538</x:t>
   </x:si>
   <x:si>
     <x:t>194</x:t>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -115,16 +115,16 @@
     <x:t>414</x:t>
   </x:si>
   <x:si>
-    <x:t>1329</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2028</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3782</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4000</x:t>
+    <x:t>1328</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2027</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3783</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4001</x:t>
   </x:si>
   <x:si>
     <x:t>1669</x:t>
@@ -211,7 +211,7 @@
     <x:t>435</x:t>
   </x:si>
   <x:si>
-    <x:t>408</x:t>
+    <x:t>407</x:t>
   </x:si>
   <x:si>
     <x:t>138</x:t>
@@ -226,7 +226,7 @@
     <x:t>634</x:t>
   </x:si>
   <x:si>
-    <x:t>1061</x:t>
+    <x:t>1060</x:t>
   </x:si>
   <x:si>
     <x:t>1093</x:t>
@@ -247,7 +247,7 @@
     <x:t>2721</x:t>
   </x:si>
   <x:si>
-    <x:t>960</x:t>
+    <x:t>961</x:t>
   </x:si>
   <x:si>
     <x:t>Embezzlement</x:t>
@@ -446,9 +446,6 @@
   </x:si>
   <x:si>
     <x:t>239</x:t>
-  </x:si>
-  <x:si>
-    <x:t>407</x:t>
   </x:si>
   <x:si>
     <x:t>401</x:t>
@@ -1796,7 +1793,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E36" s="1" t="s">
-        <x:v>98</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F36" s="1" t="s">
         <x:v>125</x:v>
@@ -1929,7 +1926,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="F41" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G41" s="1" t="s">
         <x:v>16</x:v>
@@ -2004,13 +2001,13 @@
         <x:v>143</x:v>
       </x:c>
       <x:c r="E44" s="1" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="F44" s="1" t="s">
         <x:v>144</x:v>
       </x:c>
-      <x:c r="F44" s="1" t="s">
+      <x:c r="G44" s="1" t="s">
         <x:v>145</x:v>
-      </x:c>
-      <x:c r="G44" s="1" t="s">
-        <x:v>146</x:v>
       </x:c>
       <x:c r="H44" s="1" t="s">
         <x:v>10</x:v>
@@ -2018,7 +2015,7 @@
     </x:row>
     <x:row r="45" spans="1:8">
       <x:c r="A45" s="0" t="s">
-        <x:v>147</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="B45" s="0" t="s">
         <x:v>9</x:v>
@@ -2027,13 +2024,13 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="D45" s="1" t="s">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="E45" s="1" t="s">
         <x:v>148</x:v>
       </x:c>
-      <x:c r="E45" s="1" t="s">
+      <x:c r="F45" s="1" t="s">
         <x:v>149</x:v>
-      </x:c>
-      <x:c r="F45" s="1" t="s">
-        <x:v>150</x:v>
       </x:c>
       <x:c r="G45" s="1" t="s">
         <x:v>102</x:v>
@@ -2044,25 +2041,25 @@
     </x:row>
     <x:row r="46" spans="1:8">
       <x:c r="A46" s="0" t="s">
-        <x:v>147</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="B46" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C46" s="1" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="D46" s="1" t="s">
         <x:v>151</x:v>
       </x:c>
-      <x:c r="D46" s="1" t="s">
+      <x:c r="E46" s="1" t="s">
         <x:v>152</x:v>
       </x:c>
-      <x:c r="E46" s="1" t="s">
+      <x:c r="F46" s="1" t="s">
         <x:v>153</x:v>
       </x:c>
-      <x:c r="F46" s="1" t="s">
+      <x:c r="G46" s="1" t="s">
         <x:v>154</x:v>
-      </x:c>
-      <x:c r="G46" s="1" t="s">
-        <x:v>155</x:v>
       </x:c>
       <x:c r="H46" s="1" t="s">
         <x:v>10</x:v>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -229,7 +229,7 @@
     <x:t>1060</x:t>
   </x:si>
   <x:si>
-    <x:t>1093</x:t>
+    <x:t>1094</x:t>
   </x:si>
   <x:si>
     <x:t>276</x:t>
@@ -376,7 +376,7 @@
     <x:t>101</x:t>
   </x:si>
   <x:si>
-    <x:t>167</x:t>
+    <x:t>168</x:t>
   </x:si>
   <x:si>
     <x:t>154</x:t>
@@ -448,7 +448,7 @@
     <x:t>239</x:t>
   </x:si>
   <x:si>
-    <x:t>401</x:t>
+    <x:t>402</x:t>
   </x:si>
   <x:si>
     <x:t>86</x:t>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -235,13 +235,13 @@
     <x:t>276</x:t>
   </x:si>
   <x:si>
-    <x:t>377</x:t>
+    <x:t>378</x:t>
   </x:si>
   <x:si>
     <x:t>1652</x:t>
   </x:si>
   <x:si>
-    <x:t>2742</x:t>
+    <x:t>2741</x:t>
   </x:si>
   <x:si>
     <x:t>2721</x:t>

--- a/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexDownloadData_ReportYear_2023.xlsx
@@ -109,7 +109,7 @@
     <x:t>1133</x:t>
   </x:si>
   <x:si>
-    <x:t>1130</x:t>
+    <x:t>1131</x:t>
   </x:si>
   <x:si>
     <x:t>414</x:t>
@@ -121,7 +121,7 @@
     <x:t>2027</x:t>
   </x:si>
   <x:si>
-    <x:t>3783</x:t>
+    <x:t>3782</x:t>
   </x:si>
   <x:si>
     <x:t>4001</x:t>
@@ -244,7 +244,7 @@
     <x:t>2741</x:t>
   </x:si>
   <x:si>
-    <x:t>2721</x:t>
+    <x:t>2723</x:t>
   </x:si>
   <x:si>
     <x:t>961</x:t>
@@ -286,7 +286,7 @@
     <x:t>350</x:t>
   </x:si>
   <x:si>
-    <x:t>523</x:t>
+    <x:t>524</x:t>
   </x:si>
   <x:si>
     <x:t>538</x:t>
@@ -340,7 +340,7 @@
     <x:t>1550</x:t>
   </x:si>
   <x:si>
-    <x:t>2172</x:t>
+    <x:t>2173</x:t>
   </x:si>
   <x:si>
     <x:t>2289</x:t>
@@ -358,7 +358,7 @@
     <x:t>2778</x:t>
   </x:si>
   <x:si>
-    <x:t>2735</x:t>
+    <x:t>2736</x:t>
   </x:si>
   <x:si>
     <x:t>1106</x:t>
